--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\New folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9286A-502F-4227-8AF7-F4FE68D7094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
@@ -22,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="77">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -209,9 +203,6 @@
     <t>Gain Quantity</t>
   </si>
   <si>
-    <t>Gml-0</t>
-  </si>
-  <si>
     <t>5Kg-01</t>
   </si>
   <si>
@@ -219,16 +210,58 @@
   </si>
   <si>
     <t>BLEND TEA STOCK REGISTER FOR THE MONTH OF MAY 2021</t>
+  </si>
+  <si>
+    <t>01.05.2021</t>
+  </si>
+  <si>
+    <t>03.05.2021</t>
+  </si>
+  <si>
+    <t>04.05.2021</t>
+  </si>
+  <si>
+    <t>05.05.2021</t>
+  </si>
+  <si>
+    <t>06.05.2021</t>
+  </si>
+  <si>
+    <t>07.05.2021</t>
+  </si>
+  <si>
+    <t>Part no.05</t>
+  </si>
+  <si>
+    <t>08.05.2021</t>
+  </si>
+  <si>
+    <t>10.05.2021</t>
+  </si>
+  <si>
+    <t>11.05.2021</t>
+  </si>
+  <si>
+    <t>12.05.2021</t>
+  </si>
+  <si>
+    <t>13.05.2021</t>
+  </si>
+  <si>
+    <t>Gml-03</t>
+  </si>
+  <si>
+    <t>Gml-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,7 +811,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -789,7 +822,7 @@
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
-            <v>82345.239999999991</v>
+            <v>65320.722799999996</v>
           </cell>
         </row>
       </sheetData>
@@ -841,7 +874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,27 +906,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,24 +940,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1118,14 +1115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -1139,7 +1136,7 @@
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
       <c r="A1" s="78" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1148,7 @@
       <c r="G1" s="78"/>
       <c r="H1" s="78"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1190,7 @@
         <v>50672.93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>57898.33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1232,7 @@
         <v>55642.33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>62867.73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1274,7 @@
         <v>58043.73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>52127.73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1312,7 @@
         <v>44675.73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>51901.130000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>49525.130000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -1380,7 +1377,7 @@
         <v>56750.530000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>50606.530000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>57832.530000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>57977.530000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1457,7 @@
         <v>53381.530000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>49299.530000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>43871.530000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>35917.530000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>29941.530000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>26029.530000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>33400.330000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1594,7 @@
         <v>25702.330000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +1617,7 @@
         <v>33073.130000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
@@ -1639,7 +1636,7 @@
         <v>26041.130000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>21577.130000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>14629.130000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>82345.240000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>42</v>
       </c>
@@ -1734,7 +1731,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>43</v>
       </c>
@@ -1753,7 +1750,7 @@
         <v>10197.930000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
@@ -1784,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>44</v>
       </c>
@@ -1805,7 +1802,7 @@
       <c r="K32" s="79"/>
       <c r="L32" s="80"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>44</v>
       </c>
@@ -1826,7 +1823,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>46</v>
       </c>
@@ -1850,7 +1847,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1870,7 +1867,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="12" t="s">
         <v>49</v>
       </c>
@@ -1894,7 +1891,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="12" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>147.41</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="12" t="s">
         <v>49</v>
       </c>
@@ -1949,9 +1946,12 @@
       <c r="K38" s="46">
         <v>36195.199999999997</v>
       </c>
-      <c r="L38" s="48"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L38" s="48">
+        <f>K38*0.4%</f>
+        <v>144.7808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="12" t="s">
         <v>51</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="12" t="s">
         <v>52</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="12" t="s">
         <v>53</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -2087,7 +2087,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="23.25">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -2110,7 +2110,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2163,7 +2163,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="41"/>
       <c r="C49" s="12"/>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="L49" s="49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
@@ -2217,7 +2217,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="20"/>
       <c r="C52" s="12"/>
@@ -2230,7 +2230,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="23.25">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
@@ -2253,7 +2253,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2269,7 +2269,7 @@
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -2285,7 +2285,7 @@
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -2301,7 +2301,7 @@
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="L57" s="49"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="L58" s="49"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -2354,7 +2354,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -2367,7 +2367,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="23.25">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -2390,7 +2390,7 @@
         <v>60.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="L62" s="49"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="L63" s="49"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -2443,7 +2443,7 @@
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="L65" s="49"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="L66" s="49"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -2497,7 +2497,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>19827.46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="2"/>
       <c r="B69" s="13"/>
       <c r="C69" s="9"/>
@@ -2530,7 +2530,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="2"/>
       <c r="B70" s="13"/>
       <c r="C70" s="9"/>
@@ -2552,14 +2552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55265284-B623-4F1D-B7A7-803FB8AF7218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -2576,9 +2576,9 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
       <c r="A1" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -2589,7 +2589,7 @@
       <c r="H1" s="78"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -2616,9 +2616,9 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>8</v>
@@ -2637,20 +2637,30 @@
       </c>
       <c r="K3" s="73">
         <f>'[1]May 2021'!$N$15</f>
-        <v>82345.239999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="25"/>
+        <v>65320.722799999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="40">
+        <v>3042.56</v>
+      </c>
       <c r="F4" s="71"/>
       <c r="G4" s="34"/>
       <c r="H4" s="29">
         <f>H3+E4+F4-G4</f>
-        <v>19827.46</v>
+        <v>22870.02</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="74" t="s">
@@ -2658,36 +2668,52 @@
       </c>
       <c r="K4" s="75">
         <f>H71+K15+K35+K25+K45</f>
-        <v>82345.239999999991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+        <v>65256.679999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="34">
+        <v>2376</v>
+      </c>
       <c r="H5" s="29">
-        <f t="shared" ref="H5:H71" si="0">H4+E5+F5-G5</f>
-        <v>19827.46</v>
+        <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
+        <v>20494.02</v>
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="76"/>
       <c r="K5" s="77"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="25"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="40">
+        <v>7130.46</v>
+      </c>
       <c r="F6" s="26"/>
       <c r="G6" s="34"/>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>27624.48</v>
       </c>
       <c r="I6" s="54"/>
       <c r="J6" s="82" t="s">
@@ -2695,78 +2721,120 @@
       </c>
       <c r="K6" s="84">
         <f>K3-K4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="25"/>
+        <v>64.042800000002899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="25">
+        <v>7239.04</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="34"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>34863.519999999997</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="83"/>
       <c r="K7" s="85"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="25"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="34">
+        <v>3096</v>
+      </c>
       <c r="H8" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>31767.519999999997</v>
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="25"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="40">
+        <v>7130.46</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="G9" s="34"/>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>38897.979999999996</v>
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:12">
+      <c r="A10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="34">
+        <v>3228</v>
+      </c>
       <c r="H10" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>35669.979999999996</v>
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="25"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="25">
+        <v>7239.04</v>
+      </c>
       <c r="F11" s="26"/>
       <c r="G11" s="34"/>
       <c r="H11" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>42909.02</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="57" t="s">
@@ -2779,17 +2847,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="34">
+        <v>3566</v>
+      </c>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>39343.019999999997</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="51" t="s">
@@ -2801,55 +2875,81 @@
       </c>
       <c r="L12" s="81"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="25"/>
+    <row r="13" spans="1:12">
+      <c r="A13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="25">
+        <v>7239.04</v>
+      </c>
       <c r="F13" s="26"/>
       <c r="G13" s="34"/>
       <c r="H13" s="29">
-        <f>H11+E13+F13-G13</f>
-        <v>19827.46</v>
+        <f t="shared" si="0"/>
+        <v>46582.06</v>
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" s="81"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20"/>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="34">
+        <v>2712</v>
+      </c>
       <c r="H14" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>43870.06</v>
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
       <c r="L14" s="81"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="26"/>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="25">
+        <v>7239.04</v>
+      </c>
       <c r="F15" s="26"/>
       <c r="G15" s="34"/>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>51109.1</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="63" t="s">
@@ -2857,38 +2957,50 @@
       </c>
       <c r="K15" s="62">
         <f>K11-(K12*K13)</f>
-        <v>28956.16</v>
+        <v>0</v>
       </c>
       <c r="L15" s="81"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="26">
+        <v>144.78</v>
+      </c>
       <c r="G16" s="34"/>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>51253.88</v>
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
       <c r="L16" s="81"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="34">
+        <v>3720</v>
+      </c>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>47533.88</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="56" t="s">
@@ -2900,62 +3012,90 @@
       </c>
       <c r="L17" s="81"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="34">
+        <v>2744</v>
+      </c>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>44789.88</v>
       </c>
       <c r="I18" s="54"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
       <c r="L18" s="81"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="34"/>
+      <c r="G19" s="34">
+        <v>4548</v>
+      </c>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>40241.879999999997</v>
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="25"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="34">
+        <v>2688</v>
+      </c>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>37553.879999999997</v>
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="25"/>
+    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="25">
+        <v>3200.1</v>
+      </c>
       <c r="F21" s="26"/>
       <c r="G21" s="34"/>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>40753.979999999996</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="57" t="s">
@@ -2968,17 +3108,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="34"/>
+      <c r="G22" s="34">
+        <v>1212</v>
+      </c>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>39541.979999999996</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="51" t="s">
@@ -2990,29 +3136,34 @@
       </c>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="34"/>
+      <c r="G23" s="34">
+        <v>3344</v>
+      </c>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="65">
-        <f>0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="81"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12"/>
       <c r="B24" s="20"/>
       <c r="C24" s="12"/>
@@ -3021,15 +3172,15 @@
       <c r="F24" s="26"/>
       <c r="G24" s="34"/>
       <c r="H24" s="29">
-        <f>H22+E24+F24-G24</f>
-        <v>19827.46</v>
+        <f t="shared" si="0"/>
+        <v>36197.979999999996</v>
       </c>
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
       <c r="L24" s="81"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3039,7 +3190,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -3047,11 +3198,11 @@
       </c>
       <c r="K25" s="62">
         <f>K21-(K22*K23)</f>
-        <v>12170.24</v>
+        <v>9127.68</v>
       </c>
       <c r="L25" s="81"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -3061,14 +3212,14 @@
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
       <c r="L26" s="81"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3078,7 +3229,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
@@ -3090,7 +3241,7 @@
       </c>
       <c r="L27" s="81"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3100,14 +3251,14 @@
       <c r="G28" s="34"/>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
       <c r="L28" s="81"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3116,12 +3267,12 @@
       <c r="F29" s="26"/>
       <c r="G29" s="34"/>
       <c r="H29" s="29">
-        <f>H28+E29+F29-G29</f>
-        <v>19827.46</v>
+        <f t="shared" si="0"/>
+        <v>36197.979999999996</v>
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3131,11 +3282,11 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3145,20 +3296,20 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
         <v>57</v>
       </c>
       <c r="K31" s="58">
-        <v>0</v>
+        <v>16000.7</v>
       </c>
       <c r="L31" s="81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3168,19 +3319,19 @@
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
         <v>58</v>
       </c>
       <c r="K32" s="50">
-        <f>K31/4</f>
-        <v>0</v>
+        <f>K31/5</f>
+        <v>3200.1400000000003</v>
       </c>
       <c r="L32" s="81"/>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3190,19 +3341,18 @@
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="65">
-        <f>0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="81"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3211,15 +3361,15 @@
       <c r="F34" s="26"/>
       <c r="G34" s="34"/>
       <c r="H34" s="29">
-        <f>H32+E34+F34-G34</f>
-        <v>19827.46</v>
+        <f t="shared" si="0"/>
+        <v>36197.979999999996</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
       <c r="L34" s="81"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3229,7 +3379,7 @@
       <c r="G35" s="34"/>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -3237,11 +3387,11 @@
       </c>
       <c r="K35" s="62">
         <f>K31-(K32*K33)</f>
-        <v>0</v>
+        <v>12800.560000000001</v>
       </c>
       <c r="L35" s="81"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3251,14 +3401,14 @@
       <c r="G36" s="34"/>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
       <c r="L36" s="81"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3268,7 +3418,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -3276,12 +3426,12 @@
       </c>
       <c r="K37" s="59">
         <f>K31*0.4%</f>
-        <v>0</v>
+        <v>64.002800000000008</v>
       </c>
       <c r="L37" s="81"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3291,7 +3441,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -3299,7 +3449,7 @@
       <c r="L38" s="81"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3309,12 +3459,12 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3324,12 +3474,12 @@
       <c r="G40" s="34"/>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="20"/>
       <c r="C41" s="12"/>
@@ -3339,7 +3489,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -3350,10 +3500,10 @@
         <v>21391.38</v>
       </c>
       <c r="L41" s="81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3363,7 +3513,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -3375,7 +3525,7 @@
       </c>
       <c r="L42" s="81"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3385,19 +3535,18 @@
       <c r="G43" s="34"/>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K43" s="65">
-        <f>0</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" s="81"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15.75" thickBot="1">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -3406,15 +3555,15 @@
       <c r="F44" s="26"/>
       <c r="G44" s="34"/>
       <c r="H44" s="29">
-        <f>H42+E44+F44-G44</f>
-        <v>19827.46</v>
+        <f t="shared" si="0"/>
+        <v>36197.979999999996</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
       <c r="L44" s="81"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -3424,7 +3573,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -3432,11 +3581,11 @@
       </c>
       <c r="K45" s="62">
         <f>K41-(K42*K43)</f>
-        <v>21391.38</v>
+        <v>7130.4600000000009</v>
       </c>
       <c r="L45" s="81"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -3446,14 +3595,14 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
       <c r="L46" s="81"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3463,7 +3612,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -3475,7 +3624,7 @@
       </c>
       <c r="L47" s="81"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -3485,14 +3634,14 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="81"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="12"/>
       <c r="B49" s="20"/>
       <c r="C49" s="12"/>
@@ -3502,11 +3651,11 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -3516,11 +3665,11 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3530,11 +3679,11 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3544,7 +3693,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -3552,7 +3701,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="12"/>
       <c r="B53" s="41"/>
       <c r="C53" s="12"/>
@@ -3562,7 +3711,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -3570,7 +3719,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -3580,11 +3729,11 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -3594,11 +3743,11 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -3608,11 +3757,11 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -3622,11 +3771,11 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3636,11 +3785,11 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -3650,11 +3799,11 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -3664,11 +3813,11 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -3678,11 +3827,11 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -3692,11 +3841,11 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -3706,11 +3855,11 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -3720,11 +3869,11 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -3734,11 +3883,11 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -3748,11 +3897,11 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -3762,11 +3911,11 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -3776,11 +3925,11 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <v>36197.979999999996</v>
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -3789,12 +3938,12 @@
       <c r="F69" s="26"/>
       <c r="G69" s="34"/>
       <c r="H69" s="29">
-        <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
+        <v>36197.979999999996</v>
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3803,12 +3952,12 @@
       <c r="F70" s="26"/>
       <c r="G70" s="34"/>
       <c r="H70" s="29">
-        <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <f t="shared" si="1"/>
+        <v>36197.979999999996</v>
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -3817,12 +3966,12 @@
       <c r="F71" s="26"/>
       <c r="G71" s="34"/>
       <c r="H71" s="29">
-        <f t="shared" si="0"/>
-        <v>19827.46</v>
+        <f t="shared" si="1"/>
+        <v>36197.979999999996</v>
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>14</v>
       </c>
@@ -3831,37 +3980,31 @@
       <c r="D72" s="11"/>
       <c r="E72" s="24">
         <f>SUM(E3:E71)</f>
-        <v>0</v>
+        <v>49459.74</v>
       </c>
       <c r="F72" s="39">
         <f>SUM(F3:F71)</f>
-        <v>0</v>
+        <v>144.78</v>
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>0</v>
+        <v>33234</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2">
-        <v>97524.12</v>
-      </c>
-      <c r="F73" s="36">
-        <v>292.41000000000003</v>
-      </c>
-      <c r="G73" s="67">
-        <v>128662</v>
-      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="67"/>
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -3872,87 +4015,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Gml-01</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +313,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -588,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,6 +779,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,7 +838,7 @@
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
-            <v>65320.722799999996</v>
+            <v>57862.720000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1137,16 +1153,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -1773,10 +1789,10 @@
         <f t="shared" si="0"/>
         <v>24939.530000000013</v>
       </c>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="80">
+      <c r="L31" s="82">
         <f>L28-L29</f>
         <v>0</v>
       </c>
@@ -1799,8 +1815,8 @@
         <f t="shared" si="0"/>
         <v>25086.940000000013</v>
       </c>
-      <c r="K32" s="79"/>
-      <c r="L32" s="80"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="82"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -2556,7 +2572,7 @@
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2577,16 +2593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -2637,7 +2653,7 @@
       </c>
       <c r="K3" s="73">
         <f>'[1]May 2021'!$N$15</f>
-        <v>65320.722799999996</v>
+        <v>57862.720000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2668,7 +2684,7 @@
       </c>
       <c r="K4" s="75">
         <f>H71+K15+K35+K25+K45</f>
-        <v>65256.679999999993</v>
+        <v>57862.720000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
@@ -2716,12 +2732,12 @@
         <v>27624.48</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="86">
         <f>K3-K4</f>
-        <v>64.042800000002899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
@@ -2747,8 +2763,8 @@
         <v>34863.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
@@ -2814,7 +2830,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>66</v>
       </c>
@@ -2843,11 +2859,11 @@
       <c r="K11" s="66">
         <v>28956.16</v>
       </c>
-      <c r="L11" s="81" t="s">
+      <c r="L11" s="83" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -2873,9 +2889,9 @@
         <f>K11/4</f>
         <v>7239.04</v>
       </c>
-      <c r="L12" s="81"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="83"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>67</v>
       </c>
@@ -2904,9 +2920,9 @@
       <c r="K13" s="65">
         <v>4</v>
       </c>
-      <c r="L13" s="81"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+      <c r="L13" s="83"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>67</v>
       </c>
@@ -2927,9 +2943,9 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+      <c r="L14" s="83"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -2943,13 +2959,13 @@
         <v>69</v>
       </c>
       <c r="E15" s="25">
-        <v>7239.04</v>
+        <v>7239.08</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="34"/>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>51109.1</v>
+        <v>51109.14</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="63" t="s">
@@ -2959,9 +2975,9 @@
         <f>K11-(K12*K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="81"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="83"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
@@ -2977,12 +2993,14 @@
       <c r="G16" s="34"/>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>51253.88</v>
+        <v>51253.919999999998</v>
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
-      <c r="L16" s="81"/>
+      <c r="L16" s="79" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
@@ -3000,17 +3018,20 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>47533.88</v>
+        <v>47533.919999999998</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="56" t="s">
         <v>59</v>
       </c>
       <c r="K17" s="66">
-        <f>K11*0.4%</f>
-        <v>115.82464</v>
-      </c>
-      <c r="L17" s="81"/>
+        <f>L17*0.4%</f>
+        <v>144.78</v>
+      </c>
+      <c r="L17" s="79">
+        <f>7239*5</f>
+        <v>36195</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
@@ -3028,12 +3049,12 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>44789.88</v>
+        <v>44789.919999999998</v>
       </c>
       <c r="I18" s="54"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
-      <c r="L18" s="81"/>
+      <c r="L18" s="78"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -3051,7 +3072,7 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>40241.879999999997</v>
+        <v>40241.919999999998</v>
       </c>
       <c r="I19" s="54"/>
     </row>
@@ -3071,7 +3092,7 @@
       </c>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>37553.879999999997</v>
+        <v>37553.919999999998</v>
       </c>
       <c r="I20" s="54"/>
     </row>
@@ -3095,7 +3116,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>40753.979999999996</v>
+        <v>40754.019999999997</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="57" t="s">
@@ -3104,7 +3125,7 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="83" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3124,7 +3145,7 @@
       </c>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>39541.979999999996</v>
+        <v>39542.019999999997</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="51" t="s">
@@ -3134,7 +3155,7 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="81"/>
+      <c r="L22" s="83"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -3152,7 +3173,7 @@
       </c>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>36198.019999999997</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="51" t="s">
@@ -3161,24 +3182,30 @@
       <c r="K23" s="65">
         <v>1</v>
       </c>
-      <c r="L23" s="81"/>
+      <c r="L23" s="83"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="34">
+        <v>7394</v>
+      </c>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="81"/>
+      <c r="L24" s="83"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12"/>
@@ -3190,7 +3217,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -3200,7 +3227,7 @@
         <f>K21-(K22*K23)</f>
         <v>9127.68</v>
       </c>
-      <c r="L25" s="81"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12"/>
@@ -3212,12 +3239,14 @@
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="81"/>
+      <c r="L26" s="79" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12"/>
@@ -3229,17 +3258,20 @@
       <c r="G27" s="34"/>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
         <v>59</v>
       </c>
       <c r="K27" s="66">
-        <f>K21*0.4%</f>
-        <v>48.680959999999999</v>
-      </c>
-      <c r="L27" s="81"/>
+        <f>L27*0.4%</f>
+        <v>60.852000000000004</v>
+      </c>
+      <c r="L27" s="79">
+        <f>3042.6*5</f>
+        <v>15213</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12"/>
@@ -3251,12 +3283,12 @@
       <c r="G28" s="34"/>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
-      <c r="L28" s="81"/>
+      <c r="L28" s="78"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="12"/>
@@ -3268,7 +3300,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I29" s="54"/>
     </row>
@@ -3282,7 +3314,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I30" s="54"/>
     </row>
@@ -3296,7 +3328,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -3305,7 +3337,7 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="81" t="s">
+      <c r="L31" s="83" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3319,7 +3351,7 @@
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -3329,7 +3361,7 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="81"/>
+      <c r="L32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12"/>
@@ -3341,7 +3373,7 @@
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
@@ -3350,7 +3382,7 @@
       <c r="K33" s="65">
         <v>1</v>
       </c>
-      <c r="L33" s="81"/>
+      <c r="L33" s="83"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
@@ -3362,12 +3394,12 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="81"/>
+      <c r="L34" s="83"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12"/>
@@ -3379,7 +3411,7 @@
       <c r="G35" s="34"/>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -3389,7 +3421,7 @@
         <f>K31-(K32*K33)</f>
         <v>12800.560000000001</v>
       </c>
-      <c r="L35" s="81"/>
+      <c r="L35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
@@ -3401,12 +3433,14 @@
       <c r="G36" s="34"/>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="81"/>
+      <c r="L36" s="79" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
@@ -3418,17 +3452,20 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
         <v>59</v>
       </c>
       <c r="K37" s="59">
-        <f>K31*0.4%</f>
+        <f>L37*0.4%</f>
         <v>64.002800000000008</v>
       </c>
-      <c r="L37" s="81"/>
+      <c r="L37" s="79">
+        <f>16000.7</f>
+        <v>16000.7</v>
+      </c>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1">
@@ -3441,12 +3478,12 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
       <c r="K38" s="49"/>
-      <c r="L38" s="81"/>
+      <c r="L38" s="78"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16">
@@ -3459,7 +3496,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
@@ -3474,7 +3511,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
@@ -3489,7 +3526,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -3499,7 +3536,7 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="81" t="s">
+      <c r="L41" s="83" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3513,7 +3550,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -3523,7 +3560,7 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="81"/>
+      <c r="L42" s="83"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
@@ -3535,7 +3572,7 @@
       <c r="G43" s="34"/>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
@@ -3544,9 +3581,9 @@
       <c r="K43" s="65">
         <v>2</v>
       </c>
-      <c r="L43" s="81"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1">
+      <c r="L43" s="83"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -3556,14 +3593,14 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="81"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" thickBot="1">
+      <c r="L44" s="83"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -3573,7 +3610,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -3583,9 +3620,9 @@
         <f>K41-(K42*K43)</f>
         <v>7130.4600000000009</v>
       </c>
-      <c r="L45" s="81"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="L45" s="83"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -3595,14 +3632,16 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
-      <c r="L46" s="81"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="L46" s="79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3612,19 +3651,22 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
         <v>59</v>
       </c>
       <c r="K47" s="59">
-        <f>K41*0.4%</f>
-        <v>85.565520000000006</v>
-      </c>
-      <c r="L47" s="81"/>
-    </row>
-    <row r="48" spans="1:16">
+        <f>L47*0.4%</f>
+        <v>142.61000000000001</v>
+      </c>
+      <c r="L47" s="79">
+        <f>7130.5*5</f>
+        <v>35652.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -3634,12 +3676,12 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
-      <c r="L48" s="81"/>
+      <c r="L48" s="78"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="12"/>
@@ -3651,7 +3693,7 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I49" s="54"/>
     </row>
@@ -3665,7 +3707,7 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I50" s="54"/>
     </row>
@@ -3679,7 +3721,7 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I51" s="54"/>
     </row>
@@ -3693,7 +3735,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -3711,7 +3753,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -3729,7 +3771,7 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I54" s="54"/>
     </row>
@@ -3743,7 +3785,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I55" s="54"/>
     </row>
@@ -3757,7 +3799,7 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I56" s="54"/>
     </row>
@@ -3771,7 +3813,7 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I57" s="54"/>
     </row>
@@ -3785,7 +3827,7 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I58" s="54"/>
     </row>
@@ -3799,7 +3841,7 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I59" s="54"/>
     </row>
@@ -3813,7 +3855,7 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I60" s="54"/>
     </row>
@@ -3827,7 +3869,7 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I61" s="54"/>
     </row>
@@ -3841,7 +3883,7 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I62" s="54"/>
     </row>
@@ -3855,7 +3897,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I63" s="54"/>
     </row>
@@ -3869,7 +3911,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I64" s="54"/>
     </row>
@@ -3883,7 +3925,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I65" s="54"/>
     </row>
@@ -3897,7 +3939,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I66" s="54"/>
     </row>
@@ -3911,7 +3953,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I67" s="54"/>
     </row>
@@ -3925,7 +3967,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="0"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I68" s="54"/>
     </row>
@@ -3939,7 +3981,7 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I69" s="54"/>
     </row>
@@ -3953,7 +3995,7 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I70" s="54"/>
     </row>
@@ -3967,7 +4009,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>36197.979999999996</v>
+        <v>28804.019999999997</v>
       </c>
       <c r="I71" s="54"/>
     </row>
@@ -3980,7 +4022,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="24">
         <f>SUM(E3:E71)</f>
-        <v>49459.74</v>
+        <v>49459.78</v>
       </c>
       <c r="F72" s="39">
         <f>SUM(F3:F71)</f>
@@ -3988,7 +4030,7 @@
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>33234</v>
+        <v>40628</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
@@ -4101,13 +4143,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="L21:L28"/>
-    <mergeCell ref="L41:L48"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="L41:L45"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L11:L18"/>
-    <mergeCell ref="L31:L38"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="L21:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="79">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -248,13 +248,16 @@
     <t>13.05.2021</t>
   </si>
   <si>
-    <t>Gml-03</t>
-  </si>
-  <si>
     <t>Gml-01</t>
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>18.04.2021</t>
+  </si>
+  <si>
+    <t>Gsl-04</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
-            <v>57862.720000000001</v>
+            <v>82124.72</v>
           </cell>
         </row>
       </sheetData>
@@ -2571,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2653,7 +2656,7 @@
       </c>
       <c r="K3" s="73">
         <f>'[1]May 2021'!$N$15</f>
-        <v>57862.720000000001</v>
+        <v>82124.72</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2684,7 +2687,7 @@
       </c>
       <c r="K4" s="75">
         <f>H71+K15+K35+K25+K45</f>
-        <v>57862.720000000001</v>
+        <v>82124.680000000008</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
@@ -2737,7 +2740,7 @@
       </c>
       <c r="K6" s="86">
         <f>K3-K4</f>
-        <v>0</v>
+        <v>3.9999999993597157E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
@@ -2857,10 +2860,10 @@
         <v>57</v>
       </c>
       <c r="K11" s="66">
-        <v>28956.16</v>
+        <v>35224</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
@@ -2887,7 +2890,7 @@
       </c>
       <c r="K12" s="50">
         <f>K11/4</f>
-        <v>7239.04</v>
+        <v>8806</v>
       </c>
       <c r="L12" s="83"/>
     </row>
@@ -2918,7 +2921,7 @@
         <v>61</v>
       </c>
       <c r="K13" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="83"/>
     </row>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="K15" s="62">
         <f>K11-(K12*K13)</f>
-        <v>0</v>
+        <v>26418</v>
       </c>
       <c r="L15" s="83"/>
     </row>
@@ -2999,7 +3002,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
       <c r="L16" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
@@ -3026,11 +3029,10 @@
       </c>
       <c r="K17" s="66">
         <f>L17*0.4%</f>
-        <v>144.78</v>
+        <v>140.89600000000002</v>
       </c>
       <c r="L17" s="79">
-        <f>7239*5</f>
-        <v>36195</v>
+        <v>35224</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
@@ -3186,7 +3188,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>26</v>
@@ -3208,16 +3210,26 @@
       <c r="L24" s="83"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="40">
+        <v>8806</v>
+      </c>
       <c r="F25" s="26"/>
       <c r="G25" s="34"/>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>37610.019999999997</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -3230,35 +3242,51 @@
       <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3200.1</v>
+      </c>
       <c r="F26" s="26"/>
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>40810.119999999995</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
       <c r="L26" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="34">
+        <v>7338</v>
+      </c>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>33472.119999999995</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
@@ -3274,16 +3302,22 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="34">
+        <v>3624</v>
+      </c>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
@@ -3300,7 +3334,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I29" s="54"/>
     </row>
@@ -3314,7 +3348,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I30" s="54"/>
     </row>
@@ -3328,7 +3362,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -3338,7 +3372,7 @@
         <v>16000.7</v>
       </c>
       <c r="L31" s="83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
@@ -3351,7 +3385,7 @@
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -3373,14 +3407,14 @@
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
         <v>61</v>
       </c>
       <c r="K33" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="83"/>
     </row>
@@ -3394,7 +3428,7 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
@@ -3411,7 +3445,7 @@
       <c r="G35" s="34"/>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -3419,7 +3453,7 @@
       </c>
       <c r="K35" s="62">
         <f>K31-(K32*K33)</f>
-        <v>12800.560000000001</v>
+        <v>9600.42</v>
       </c>
       <c r="L35" s="83"/>
     </row>
@@ -3433,13 +3467,13 @@
       <c r="G36" s="34"/>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
       <c r="L36" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
@@ -3452,7 +3486,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -3478,7 +3512,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -3496,7 +3530,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
@@ -3511,7 +3545,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
@@ -3526,7 +3560,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -3550,7 +3584,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -3572,7 +3606,7 @@
       <c r="G43" s="34"/>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
@@ -3593,7 +3627,7 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
@@ -3610,7 +3644,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -3632,13 +3666,13 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
       <c r="L46" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1">
@@ -3651,7 +3685,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -3676,7 +3710,7 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
@@ -3693,7 +3727,7 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I49" s="54"/>
     </row>
@@ -3707,7 +3741,7 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I50" s="54"/>
     </row>
@@ -3721,7 +3755,7 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I51" s="54"/>
     </row>
@@ -3735,7 +3769,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -3753,7 +3787,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -3771,7 +3805,7 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I54" s="54"/>
     </row>
@@ -3785,7 +3819,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I55" s="54"/>
     </row>
@@ -3799,7 +3833,7 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I56" s="54"/>
     </row>
@@ -3813,7 +3847,7 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I57" s="54"/>
     </row>
@@ -3827,7 +3861,7 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I58" s="54"/>
     </row>
@@ -3841,7 +3875,7 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I59" s="54"/>
     </row>
@@ -3855,7 +3889,7 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I60" s="54"/>
     </row>
@@ -3869,7 +3903,7 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I61" s="54"/>
     </row>
@@ -3883,7 +3917,7 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I62" s="54"/>
     </row>
@@ -3897,7 +3931,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I63" s="54"/>
     </row>
@@ -3911,7 +3945,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I64" s="54"/>
     </row>
@@ -3925,7 +3959,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I65" s="54"/>
     </row>
@@ -3939,7 +3973,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I66" s="54"/>
     </row>
@@ -3953,7 +3987,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I67" s="54"/>
     </row>
@@ -3967,7 +4001,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I68" s="54"/>
     </row>
@@ -3981,7 +4015,7 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I69" s="54"/>
     </row>
@@ -3995,7 +4029,7 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I70" s="54"/>
     </row>
@@ -4009,7 +4043,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>28804.019999999997</v>
+        <v>29848.119999999995</v>
       </c>
       <c r="I71" s="54"/>
     </row>
@@ -4022,7 +4056,7 @@
       <c r="D72" s="11"/>
       <c r="E72" s="24">
         <f>SUM(E3:E71)</f>
-        <v>49459.78</v>
+        <v>61465.88</v>
       </c>
       <c r="F72" s="39">
         <f>SUM(F3:F71)</f>
@@ -4030,7 +4064,7 @@
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>40628</v>
+        <v>51590</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B77BEE-4CFF-4F0C-A53D-9BF46576A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
@@ -16,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -258,16 +264,43 @@
   </si>
   <si>
     <t>Gsl-04</t>
+  </si>
+  <si>
+    <t>19.05.2021</t>
+  </si>
+  <si>
+    <t>20.05.2021</t>
+  </si>
+  <si>
+    <t>21.05.2021</t>
+  </si>
+  <si>
+    <t>22.05.2021</t>
+  </si>
+  <si>
+    <t>24.05.2021</t>
+  </si>
+  <si>
+    <t>25.05.2021</t>
+  </si>
+  <si>
+    <t>26.05.2021</t>
+  </si>
+  <si>
+    <t>27.05.2021</t>
+  </si>
+  <si>
+    <t>28.05.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +376,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -768,20 +807,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -800,16 +825,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +869,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -841,7 +880,7 @@
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
-            <v>82124.72</v>
+            <v>63973.329999999994</v>
           </cell>
         </row>
       </sheetData>
@@ -893,7 +932,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,9 +964,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,6 +1016,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,14 +1209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -1155,19 +1230,19 @@
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1284,7 @@
         <v>50672.93</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1307,7 @@
         <v>57898.33</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1326,7 @@
         <v>55642.33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1274,7 +1349,7 @@
         <v>62867.73</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -1293,7 +1368,7 @@
         <v>58043.73</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -1312,7 +1387,7 @@
         <v>52127.73</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1406,7 @@
         <v>44675.73</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1429,7 @@
         <v>51901.130000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1448,7 @@
         <v>49525.130000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1471,7 @@
         <v>56750.530000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
@@ -1415,7 +1490,7 @@
         <v>50606.530000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1513,7 @@
         <v>57832.530000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1532,7 @@
         <v>57977.530000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1551,7 @@
         <v>53381.530000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1495,7 +1570,7 @@
         <v>49299.530000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -1514,7 +1589,7 @@
         <v>43871.530000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -1533,7 +1608,7 @@
         <v>35917.530000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -1552,7 +1627,7 @@
         <v>29941.530000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1571,7 +1646,7 @@
         <v>26029.530000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -1594,7 +1669,7 @@
         <v>33400.330000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>37</v>
       </c>
@@ -1613,7 +1688,7 @@
         <v>25702.330000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
@@ -1636,7 +1711,7 @@
         <v>33073.130000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
@@ -1655,7 +1730,7 @@
         <v>26041.130000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -1674,7 +1749,7 @@
         <v>21577.130000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
@@ -1693,7 +1768,7 @@
         <v>14629.130000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
@@ -1723,7 +1798,7 @@
         <v>82345.240000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>42</v>
       </c>
@@ -1750,7 +1825,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1844,7 @@
         <v>10197.930000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
@@ -1792,15 +1867,15 @@
         <f t="shared" si="0"/>
         <v>24939.530000000013</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="82">
+      <c r="L31" s="76">
         <f>L28-L29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>44</v>
       </c>
@@ -1818,10 +1893,10 @@
         <f t="shared" si="0"/>
         <v>25086.940000000013</v>
       </c>
-      <c r="K32" s="81"/>
-      <c r="L32" s="82"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>44</v>
       </c>
@@ -1842,7 +1917,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>46</v>
       </c>
@@ -1866,7 +1941,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1886,7 +1961,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>49</v>
       </c>
@@ -1910,7 +1985,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25">
+    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>49</v>
       </c>
@@ -1943,7 +2018,7 @@
         <v>147.41</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>49</v>
       </c>
@@ -1970,7 +2045,7 @@
         <v>144.7808</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>51</v>
       </c>
@@ -1995,7 +2070,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>52</v>
       </c>
@@ -2017,7 +2092,7 @@
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
@@ -2048,7 +2123,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2149,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -2093,7 +2168,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -2106,7 +2181,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="23.25">
+    <row r="45" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -2129,7 +2204,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -2147,7 +2222,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2166,7 +2241,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2182,7 +2257,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="41"/>
       <c r="C49" s="12"/>
@@ -2203,7 +2278,7 @@
       </c>
       <c r="L49" s="49"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -2223,7 +2298,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
@@ -2236,7 +2311,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="20"/>
       <c r="C52" s="12"/>
@@ -2249,7 +2324,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="23.25">
+    <row r="53" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
@@ -2272,7 +2347,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2288,7 +2363,7 @@
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -2304,7 +2379,7 @@
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -2320,7 +2395,7 @@
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -2340,7 +2415,7 @@
       </c>
       <c r="L57" s="49"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -2360,7 +2435,7 @@
       </c>
       <c r="L58" s="49"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -2373,7 +2448,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -2386,7 +2461,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="23.25">
+    <row r="61" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -2409,7 +2484,7 @@
         <v>60.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -2427,7 +2502,7 @@
       </c>
       <c r="L62" s="49"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -2446,7 +2521,7 @@
       </c>
       <c r="L63" s="49"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -2462,7 +2537,7 @@
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -2483,7 +2558,7 @@
       </c>
       <c r="L65" s="49"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2503,7 +2578,7 @@
       </c>
       <c r="L66" s="49"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -2516,7 +2591,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
@@ -2539,7 +2614,7 @@
         <v>19827.46</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="13"/>
       <c r="C69" s="9"/>
@@ -2549,7 +2624,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="13"/>
       <c r="C70" s="9"/>
@@ -2571,14 +2646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -2595,20 +2670,20 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -2635,7 +2710,7 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>63</v>
       </c>
@@ -2651,15 +2726,15 @@
         <v>19827.46</v>
       </c>
       <c r="I3" s="54"/>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="79">
         <f>'[1]May 2021'!$N$15</f>
-        <v>82124.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>63973.329999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
@@ -2682,15 +2757,15 @@
         <v>22870.02</v>
       </c>
       <c r="I4" s="54"/>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="81">
         <f>H71+K15+K35+K25+K45</f>
-        <v>82124.680000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+        <v>63973.330000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -2709,10 +2784,10 @@
         <v>20494.02</v>
       </c>
       <c r="I5" s="54"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="82"/>
+      <c r="K5" s="83"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -2738,12 +2813,12 @@
       <c r="J6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="85">
         <f>K3-K4</f>
-        <v>3.9999999993597157E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
@@ -2766,10 +2841,10 @@
         <v>34863.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="85"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>64</v>
       </c>
@@ -2789,7 +2864,7 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>65</v>
       </c>
@@ -2813,7 +2888,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
@@ -2833,7 +2908,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>66</v>
       </c>
@@ -2862,11 +2937,11 @@
       <c r="K11" s="66">
         <v>35224</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -2889,12 +2964,12 @@
         <v>58</v>
       </c>
       <c r="K12" s="50">
-        <f>K11/4</f>
-        <v>8806</v>
-      </c>
-      <c r="L12" s="83"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+        <f>K11/5</f>
+        <v>7044.8</v>
+      </c>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>67</v>
       </c>
@@ -2921,11 +2996,11 @@
         <v>61</v>
       </c>
       <c r="K13" s="65">
-        <v>1</v>
-      </c>
-      <c r="L13" s="83"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>67</v>
       </c>
@@ -2946,9 +3021,9 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="83"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -2976,11 +3051,11 @@
       </c>
       <c r="K15" s="62">
         <f>K11-(K12*K13)</f>
-        <v>26418</v>
-      </c>
-      <c r="L15" s="83"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+        <v>7044.7999999999993</v>
+      </c>
+      <c r="L15" s="77"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
@@ -3001,11 +3076,11 @@
       <c r="I16" s="54"/>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
@@ -3031,11 +3106,11 @@
         <f>L17*0.4%</f>
         <v>140.89600000000002</v>
       </c>
-      <c r="L17" s="79">
+      <c r="L17" s="73">
         <v>35224</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>70</v>
       </c>
@@ -3056,9 +3131,9 @@
       <c r="I18" s="54"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
-      <c r="L18" s="78"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
@@ -3078,7 +3153,7 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>72</v>
       </c>
@@ -3098,7 +3173,7 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>73</v>
       </c>
@@ -3127,11 +3202,11 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="77" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>73</v>
       </c>
@@ -3157,9 +3232,9 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="83"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="L22" s="77"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>74</v>
       </c>
@@ -3182,11 +3257,11 @@
         <v>61</v>
       </c>
       <c r="K23" s="65">
-        <v>1</v>
-      </c>
-      <c r="L23" s="83"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="77"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
@@ -3207,9 +3282,9 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="83"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L24" s="77"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
@@ -3223,13 +3298,13 @@
         <v>25</v>
       </c>
       <c r="E25" s="40">
-        <v>8806</v>
+        <v>7044.8</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="34"/>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>37610.019999999997</v>
+        <v>35848.82</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -3237,11 +3312,11 @@
       </c>
       <c r="K25" s="62">
         <f>K21-(K22*K23)</f>
-        <v>9127.68</v>
-      </c>
-      <c r="L25" s="83"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+        <v>6085.12</v>
+      </c>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -3261,16 +3336,16 @@
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>40810.119999999995</v>
+        <v>39048.92</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="79" t="s">
+      <c r="L26" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
@@ -3286,7 +3361,7 @@
       </c>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>33472.119999999995</v>
+        <v>31710.92</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
@@ -3296,12 +3371,12 @@
         <f>L27*0.4%</f>
         <v>60.852000000000004</v>
       </c>
-      <c r="L27" s="79">
+      <c r="L27" s="73">
         <f>3042.6*5</f>
         <v>15213</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>77</v>
       </c>
@@ -3317,43 +3392,61 @@
       </c>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>28086.92</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
-      <c r="L28" s="78"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="25"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="40">
+        <v>7130.5</v>
+      </c>
       <c r="F29" s="26"/>
       <c r="G29" s="34"/>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>35217.42</v>
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26">
+        <v>142.61000000000001</v>
+      </c>
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>35360.03</v>
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3362,7 +3455,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>35360.03</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -3371,12 +3464,14 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="83" t="s">
+      <c r="L31" s="77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3385,7 +3480,7 @@
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>35360.03</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -3395,19 +3490,29 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="83"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="40"/>
+      <c r="L32" s="77"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="40">
+        <v>7044.8</v>
+      </c>
       <c r="F33" s="26"/>
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>42404.83</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
@@ -3416,36 +3521,52 @@
       <c r="K33" s="65">
         <v>2</v>
       </c>
-      <c r="L33" s="83"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="25"/>
+      <c r="L33" s="77"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="40">
+        <v>7044.8</v>
+      </c>
       <c r="F34" s="26"/>
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>49449.630000000005</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="83"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="L34" s="77"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="34"/>
+      <c r="G35" s="34">
+        <v>3480</v>
+      </c>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>45969.630000000005</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -3455,38 +3576,54 @@
         <f>K31-(K32*K33)</f>
         <v>9600.42</v>
       </c>
-      <c r="L35" s="83"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="L35" s="77"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="40"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="34"/>
+      <c r="G36" s="34">
+        <v>3288</v>
+      </c>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>42681.630000000005</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
-      <c r="L36" s="79" t="s">
+      <c r="L36" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="40"/>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="40">
+        <v>7044.8</v>
+      </c>
       <c r="F37" s="26"/>
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>49726.430000000008</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -3496,71 +3633,99 @@
         <f>L37*0.4%</f>
         <v>64.002800000000008</v>
       </c>
-      <c r="L37" s="79">
+      <c r="L37" s="73">
         <f>16000.7</f>
         <v>16000.7</v>
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="40"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="34"/>
+      <c r="G38" s="34">
+        <v>2628</v>
+      </c>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>47098.430000000008</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
       <c r="K38" s="49"/>
-      <c r="L38" s="78"/>
+      <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="40"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="34"/>
+      <c r="G39" s="34">
+        <v>3066</v>
+      </c>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>44032.430000000008</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="40"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="34"/>
+      <c r="G40" s="34">
+        <v>5832</v>
+      </c>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>38200.430000000008</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="40"/>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="40">
+        <v>3042.56</v>
+      </c>
       <c r="F41" s="26"/>
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -3570,12 +3735,14 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="83" t="s">
+      <c r="L41" s="77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A42" s="12"/>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -3584,7 +3751,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -3594,10 +3761,12 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="83"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A43" s="12"/>
+      <c r="L42" s="77"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3606,18 +3775,18 @@
       <c r="G43" s="34"/>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
         <v>61</v>
       </c>
       <c r="K43" s="65">
-        <v>2</v>
-      </c>
-      <c r="L43" s="83"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -3627,14 +3796,14 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="83"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -3644,7 +3813,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -3652,11 +3821,11 @@
       </c>
       <c r="K45" s="62">
         <f>K41-(K42*K43)</f>
-        <v>7130.4600000000009</v>
-      </c>
-      <c r="L45" s="83"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -3666,16 +3835,16 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
-      <c r="L46" s="79" t="s">
+      <c r="L46" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1">
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3685,7 +3854,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -3695,12 +3864,12 @@
         <f>L47*0.4%</f>
         <v>142.61000000000001</v>
       </c>
-      <c r="L47" s="79">
+      <c r="L47" s="73">
         <f>7130.5*5</f>
         <v>35652.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1">
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -3710,14 +3879,14 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
-      <c r="L48" s="78"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="L48" s="72"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="20"/>
       <c r="C49" s="12"/>
@@ -3727,11 +3896,11 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -3741,11 +3910,11 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3755,11 +3924,11 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3769,7 +3938,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -3777,7 +3946,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="41"/>
       <c r="C53" s="12"/>
@@ -3787,7 +3956,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -3795,7 +3964,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -3805,11 +3974,11 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -3819,11 +3988,11 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -3833,11 +4002,11 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -3847,11 +4016,11 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3861,11 +4030,11 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -3875,11 +4044,11 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -3889,11 +4058,11 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -3903,11 +4072,11 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -3917,11 +4086,11 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -3931,11 +4100,11 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -3945,11 +4114,11 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -3959,11 +4128,11 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -3973,11 +4142,11 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -3987,11 +4156,11 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -4001,11 +4170,11 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="0"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -4015,11 +4184,11 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4029,11 +4198,11 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -4043,11 +4212,11 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>29848.119999999995</v>
+        <v>41242.990000000005</v>
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>14</v>
       </c>
@@ -4056,20 +4225,20 @@
       <c r="D72" s="11"/>
       <c r="E72" s="24">
         <f>SUM(E3:E71)</f>
-        <v>61465.88</v>
+        <v>91012.14</v>
       </c>
       <c r="F72" s="39">
         <f>SUM(F3:F71)</f>
-        <v>144.78</v>
+        <v>287.39</v>
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>51590</v>
+        <v>69884</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -4080,7 +4249,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -4091,87 +4260,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95"/>
       <c r="I95"/>
     </row>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B77BEE-4CFF-4F0C-A53D-9BF46576A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
@@ -22,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="90">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -291,16 +285,22 @@
   </si>
   <si>
     <t>28.05.2021</t>
+  </si>
+  <si>
+    <t>29.05.2021</t>
+  </si>
+  <si>
+    <t>31.05.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +813,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,27 +839,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -880,7 +880,7 @@
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
-            <v>63973.329999999994</v>
+            <v>43031.329999999994</v>
           </cell>
         </row>
       </sheetData>
@@ -932,7 +932,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,27 +964,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1016,24 +998,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1209,14 +1173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -1230,19 +1194,19 @@
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1248,7 @@
         <v>50672.93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1271,7 @@
         <v>57898.33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1290,7 @@
         <v>55642.33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1313,7 @@
         <v>62867.73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -1368,7 +1332,7 @@
         <v>58043.73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1351,7 @@
         <v>52127.73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1370,7 @@
         <v>44675.73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1393,7 @@
         <v>51901.130000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -1448,7 +1412,7 @@
         <v>49525.130000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -1471,7 +1435,7 @@
         <v>56750.530000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
@@ -1490,7 +1454,7 @@
         <v>50606.530000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
@@ -1513,7 +1477,7 @@
         <v>57832.530000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
@@ -1532,7 +1496,7 @@
         <v>57977.530000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
@@ -1551,7 +1515,7 @@
         <v>53381.530000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1534,7 @@
         <v>49299.530000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -1589,7 +1553,7 @@
         <v>43871.530000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1572,7 @@
         <v>35917.530000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1591,7 @@
         <v>29941.530000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1646,7 +1610,7 @@
         <v>26029.530000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -1669,7 +1633,7 @@
         <v>33400.330000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1652,7 @@
         <v>25702.330000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
@@ -1711,7 +1675,7 @@
         <v>33073.130000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
@@ -1730,7 +1694,7 @@
         <v>26041.130000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -1749,7 +1713,7 @@
         <v>21577.130000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
@@ -1768,7 +1732,7 @@
         <v>14629.130000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
@@ -1798,7 +1762,7 @@
         <v>82345.240000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>42</v>
       </c>
@@ -1825,7 +1789,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>43</v>
       </c>
@@ -1844,7 +1808,7 @@
         <v>10197.930000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
@@ -1867,15 +1831,15 @@
         <f t="shared" si="0"/>
         <v>24939.530000000013</v>
       </c>
-      <c r="K31" s="75" t="s">
+      <c r="K31" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="76">
+      <c r="L31" s="82">
         <f>L28-L29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>44</v>
       </c>
@@ -1893,10 +1857,10 @@
         <f t="shared" si="0"/>
         <v>25086.940000000013</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="81"/>
+      <c r="L32" s="82"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>44</v>
       </c>
@@ -1917,7 +1881,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>46</v>
       </c>
@@ -1941,7 +1905,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1961,7 +1925,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="12" t="s">
         <v>49</v>
       </c>
@@ -1985,7 +1949,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="12" t="s">
         <v>49</v>
       </c>
@@ -2018,7 +1982,7 @@
         <v>147.41</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="12" t="s">
         <v>49</v>
       </c>
@@ -2045,7 +2009,7 @@
         <v>144.7808</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="12" t="s">
         <v>51</v>
       </c>
@@ -2070,7 +2034,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="12" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +2056,7 @@
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
@@ -2123,7 +2087,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="12" t="s">
         <v>53</v>
       </c>
@@ -2149,7 +2113,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -2168,7 +2132,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -2181,7 +2145,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="23.25">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -2204,7 +2168,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -2222,7 +2186,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2241,7 +2205,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2257,7 +2221,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="41"/>
       <c r="C49" s="12"/>
@@ -2278,7 +2242,7 @@
       </c>
       <c r="L49" s="49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -2298,7 +2262,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
@@ -2311,7 +2275,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="20"/>
       <c r="C52" s="12"/>
@@ -2324,7 +2288,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="23.25">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
@@ -2347,7 +2311,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2363,7 +2327,7 @@
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -2379,7 +2343,7 @@
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -2395,7 +2359,7 @@
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -2415,7 +2379,7 @@
       </c>
       <c r="L57" s="49"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -2435,7 +2399,7 @@
       </c>
       <c r="L58" s="49"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -2448,7 +2412,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -2461,7 +2425,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="23.25">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -2484,7 +2448,7 @@
         <v>60.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -2502,7 +2466,7 @@
       </c>
       <c r="L62" s="49"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -2521,7 +2485,7 @@
       </c>
       <c r="L63" s="49"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -2537,7 +2501,7 @@
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -2558,7 +2522,7 @@
       </c>
       <c r="L65" s="49"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2578,7 +2542,7 @@
       </c>
       <c r="L66" s="49"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -2591,7 +2555,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2578,7 @@
         <v>19827.46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="2"/>
       <c r="B69" s="13"/>
       <c r="C69" s="9"/>
@@ -2624,7 +2588,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="2"/>
       <c r="B70" s="13"/>
       <c r="C70" s="9"/>
@@ -2646,14 +2610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -2670,20 +2634,20 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -2710,7 +2674,7 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>63</v>
       </c>
@@ -2726,15 +2690,15 @@
         <v>19827.46</v>
       </c>
       <c r="I3" s="54"/>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="79">
+      <c r="K3" s="75">
         <f>'[1]May 2021'!$N$15</f>
-        <v>63973.329999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43031.329999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
@@ -2747,7 +2711,7 @@
       <c r="D4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="4">
         <v>3042.56</v>
       </c>
       <c r="F4" s="71"/>
@@ -2757,15 +2721,15 @@
         <v>22870.02</v>
       </c>
       <c r="I4" s="54"/>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="77">
         <f>H71+K15+K35+K25+K45</f>
-        <v>63973.330000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43031.330000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -2774,7 +2738,7 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="71"/>
       <c r="G5" s="34">
         <v>2376</v>
@@ -2784,10 +2748,10 @@
         <v>20494.02</v>
       </c>
       <c r="I5" s="54"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="83"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -2800,7 +2764,7 @@
       <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="4">
         <v>7130.46</v>
       </c>
       <c r="F6" s="26"/>
@@ -2813,12 +2777,12 @@
       <c r="J6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="86">
         <f>K3-K4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
@@ -2831,7 +2795,7 @@
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="26">
         <v>7239.04</v>
       </c>
       <c r="F7" s="26"/>
@@ -2841,10 +2805,10 @@
         <v>34863.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="86"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>64</v>
       </c>
@@ -2853,7 +2817,7 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="34">
         <v>3096</v>
@@ -2864,7 +2828,7 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>65</v>
       </c>
@@ -2877,7 +2841,7 @@
       <c r="D9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="4">
         <v>7130.46</v>
       </c>
       <c r="F9" s="26"/>
@@ -2888,7 +2852,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
@@ -2897,7 +2861,7 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="34">
         <v>3228</v>
@@ -2908,7 +2872,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>66</v>
       </c>
@@ -2921,7 +2885,7 @@
       <c r="D11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="26">
         <v>7239.04</v>
       </c>
       <c r="F11" s="26"/>
@@ -2937,11 +2901,11 @@
       <c r="K11" s="66">
         <v>35224</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="83" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>66</v>
       </c>
@@ -2950,7 +2914,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="71"/>
       <c r="G12" s="34">
         <v>3566</v>
@@ -2967,9 +2931,9 @@
         <f>K11/5</f>
         <v>7044.8</v>
       </c>
-      <c r="L12" s="77"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="83"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>67</v>
       </c>
@@ -2982,7 +2946,7 @@
       <c r="D13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="26">
         <v>7239.04</v>
       </c>
       <c r="F13" s="26"/>
@@ -2998,9 +2962,9 @@
       <c r="K13" s="65">
         <v>4</v>
       </c>
-      <c r="L13" s="77"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="83"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>67</v>
       </c>
@@ -3009,7 +2973,7 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="34">
         <v>2712</v>
@@ -3021,9 +2985,9 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="77"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="83"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -3036,7 +3000,7 @@
       <c r="D15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="26">
         <v>7239.08</v>
       </c>
       <c r="F15" s="26"/>
@@ -3053,9 +3017,9 @@
         <f>K11-(K12*K13)</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="L15" s="77"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="83"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
@@ -3064,7 +3028,7 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="26">
         <v>144.78</v>
       </c>
@@ -3080,7 +3044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
@@ -3089,7 +3053,7 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="34">
         <v>3720</v>
@@ -3110,7 +3074,7 @@
         <v>35224</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>70</v>
       </c>
@@ -3119,7 +3083,7 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="34">
         <v>2744</v>
@@ -3133,7 +3097,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
@@ -3142,7 +3106,7 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="34">
         <v>4548</v>
@@ -3153,7 +3117,7 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>72</v>
       </c>
@@ -3162,7 +3126,7 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="34">
         <v>2688</v>
@@ -3173,7 +3137,7 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>73</v>
       </c>
@@ -3186,7 +3150,7 @@
       <c r="D21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="26">
         <v>3200.1</v>
       </c>
       <c r="F21" s="26"/>
@@ -3202,11 +3166,11 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="83" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>73</v>
       </c>
@@ -3215,7 +3179,7 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="34">
         <v>1212</v>
@@ -3232,9 +3196,9 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="77"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="83"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>74</v>
       </c>
@@ -3243,7 +3207,7 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="34">
         <v>3344</v>
@@ -3259,9 +3223,9 @@
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="77"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="83"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
@@ -3270,7 +3234,7 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="34">
         <v>7394</v>
@@ -3282,9 +3246,9 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="77"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="83"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
@@ -3297,7 +3261,7 @@
       <c r="D25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="4">
         <v>7044.8</v>
       </c>
       <c r="F25" s="26"/>
@@ -3314,9 +3278,9 @@
         <f>K21-(K22*K23)</f>
         <v>6085.12</v>
       </c>
-      <c r="L25" s="77"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="83"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -3329,7 +3293,7 @@
       <c r="D26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="26">
         <v>3200.1</v>
       </c>
       <c r="F26" s="26"/>
@@ -3345,7 +3309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
@@ -3354,7 +3318,7 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="34">
         <v>7338</v>
@@ -3376,7 +3340,7 @@
         <v>15213</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>77</v>
       </c>
@@ -3385,7 +3349,7 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="34">
         <v>3624</v>
@@ -3399,7 +3363,7 @@
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12" t="s">
         <v>77</v>
       </c>
@@ -3412,7 +3376,7 @@
       <c r="D29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="4">
         <v>7130.5</v>
       </c>
       <c r="F29" s="26"/>
@@ -3423,7 +3387,7 @@
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12" t="s">
         <v>77</v>
       </c>
@@ -3432,7 +3396,7 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="26">
         <v>142.61000000000001</v>
       </c>
@@ -3443,19 +3407,23 @@
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="34"/>
+      <c r="G31" s="34">
+        <v>1704</v>
+      </c>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>35360.03</v>
+        <v>33656.03</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -3464,23 +3432,27 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="77" t="s">
+      <c r="L31" s="83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="34"/>
+      <c r="G32" s="34">
+        <v>6144</v>
+      </c>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>35360.03</v>
+        <v>27512.03</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -3490,9 +3462,9 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="77"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="83"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>81</v>
       </c>
@@ -3505,14 +3477,14 @@
       <c r="D33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="4">
         <v>7044.8</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>42404.83</v>
+        <v>34556.83</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
@@ -3521,9 +3493,9 @@
       <c r="K33" s="65">
         <v>2</v>
       </c>
-      <c r="L33" s="77"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="83"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>81</v>
       </c>
@@ -3536,21 +3508,21 @@
       <c r="D34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="4">
         <v>7044.8</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>49449.630000000005</v>
+        <v>41601.630000000005</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="77"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="83"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
         <v>81</v>
       </c>
@@ -3559,14 +3531,14 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="34">
         <v>3480</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>45969.630000000005</v>
+        <v>38121.630000000005</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -3576,9 +3548,9 @@
         <f>K31-(K32*K33)</f>
         <v>9600.42</v>
       </c>
-      <c r="L35" s="77"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="83"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>82</v>
       </c>
@@ -3587,14 +3559,14 @@
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="26"/>
       <c r="G36" s="34">
         <v>3288</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>42681.630000000005</v>
+        <v>34833.630000000005</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
@@ -3603,7 +3575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>83</v>
       </c>
@@ -3616,14 +3588,14 @@
       <c r="D37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="4">
         <v>7044.8</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>49726.430000000008</v>
+        <v>41878.430000000008</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -3639,7 +3611,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>83</v>
       </c>
@@ -3648,14 +3620,14 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="26"/>
       <c r="G38" s="34">
         <v>2628</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>47098.430000000008</v>
+        <v>39250.430000000008</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -3663,7 +3635,7 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12" t="s">
         <v>84</v>
       </c>
@@ -3672,19 +3644,19 @@
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="26"/>
       <c r="G39" s="34">
         <v>3066</v>
       </c>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>44032.430000000008</v>
+        <v>36184.430000000008</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12" t="s">
         <v>85</v>
       </c>
@@ -3693,19 +3665,19 @@
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="40"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="26"/>
       <c r="G40" s="34">
         <v>5832</v>
       </c>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>38200.430000000008</v>
+        <v>30352.430000000008</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>86</v>
       </c>
@@ -3716,16 +3688,16 @@
         <v>50</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="40">
+        <v>28</v>
+      </c>
+      <c r="E41" s="4">
         <v>3042.56</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>33394.990000000005</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -3735,23 +3707,27 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="77" t="s">
+      <c r="L41" s="83" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="40"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="34"/>
+      <c r="G42" s="34">
+        <v>1732</v>
+      </c>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>31662.990000000005</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -3761,21 +3737,25 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="77"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="83"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="40"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="34"/>
+      <c r="G43" s="34">
+        <v>5612</v>
+      </c>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>26050.990000000005</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
@@ -3784,36 +3764,48 @@
       <c r="K43" s="65">
         <v>3</v>
       </c>
-      <c r="L43" s="77"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
+      <c r="L43" s="83"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="25"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="26"/>
-      <c r="G44" s="34"/>
+      <c r="G44" s="34">
+        <v>2016</v>
+      </c>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>24034.990000000005</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="77"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
+      <c r="L44" s="83"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="25"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="26"/>
-      <c r="G45" s="34"/>
+      <c r="G45" s="34">
+        <v>3734</v>
+      </c>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -3823,9 +3815,9 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="77"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="83"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -3835,7 +3827,7 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
@@ -3844,7 +3836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3854,7 +3846,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -3869,7 +3861,7 @@
         <v>35652.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -3879,14 +3871,14 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="12"/>
       <c r="B49" s="20"/>
       <c r="C49" s="12"/>
@@ -3896,11 +3888,11 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -3910,11 +3902,11 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3924,11 +3916,11 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3938,7 +3930,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -3946,7 +3938,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="12"/>
       <c r="B53" s="41"/>
       <c r="C53" s="12"/>
@@ -3956,7 +3948,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -3964,7 +3956,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -3974,11 +3966,11 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -3988,11 +3980,11 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -4002,11 +3994,11 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -4016,11 +4008,11 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -4030,11 +4022,11 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -4044,11 +4036,11 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -4058,11 +4050,11 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -4072,11 +4064,11 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -4086,11 +4078,11 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -4100,11 +4092,11 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -4114,11 +4106,11 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -4128,11 +4120,11 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -4142,11 +4134,11 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -4156,11 +4148,11 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -4170,11 +4162,11 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="0"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -4184,11 +4176,11 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4198,11 +4190,11 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -4212,11 +4204,11 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>41242.990000000005</v>
+        <v>20300.990000000005</v>
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>14</v>
       </c>
@@ -4233,12 +4225,12 @@
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>69884</v>
+        <v>90826</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -4249,7 +4241,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -4260,87 +4252,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Desktop\excel-main\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70322081-DB78-4C6A-9A0A-39A67A0BD487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
     <sheet name="May 2021" sheetId="27" r:id="rId2"/>
+    <sheet name="June 2021" sheetId="28" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="112">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -65,9 +80,6 @@
     <t>Gml-06</t>
   </si>
   <si>
-    <t>TOTAL FOR THE MONTH OF MARCH 2020-21</t>
-  </si>
-  <si>
     <t>01.04.2021</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>18.04.2021</t>
-  </si>
-  <si>
     <t>Gsl-04</t>
   </si>
   <si>
@@ -291,16 +300,88 @@
   </si>
   <si>
     <t>31.05.2021</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF MAY 2021</t>
+  </si>
+  <si>
+    <t>TOTAL FOR THE MONTH OF APRIL 2021</t>
+  </si>
+  <si>
+    <t>01.06.2021</t>
+  </si>
+  <si>
+    <t>15.05.2021</t>
+  </si>
+  <si>
+    <t>17.05.2021</t>
+  </si>
+  <si>
+    <t>18.05.2021</t>
+  </si>
+  <si>
+    <t>BLEND TEA STOCK REGISTER FOR THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>03.06.2021</t>
+  </si>
+  <si>
+    <t>04.06.2021</t>
+  </si>
+  <si>
+    <t>05.06.2021</t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>08.06.2021</t>
+  </si>
+  <si>
+    <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>10.06.2021</t>
+  </si>
+  <si>
+    <t>11.06.2021</t>
+  </si>
+  <si>
+    <t>12.06.2021</t>
+  </si>
+  <si>
+    <t>13.06.2021</t>
+  </si>
+  <si>
+    <t>14.06.2021</t>
+  </si>
+  <si>
+    <t>15.06.2021</t>
+  </si>
+  <si>
+    <t>5 Kg-02</t>
+  </si>
+  <si>
+    <t>5Kg-02</t>
+  </si>
+  <si>
+    <t>Gsl-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,18 +950,26 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
+      <sheetName val="June 2021"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
             <v>43031.329999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="15">
+          <cell r="N15">
+            <v>70955.73000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -932,7 +1021,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,9 +1053,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,6 +1105,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1173,14 +1298,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -1194,9 +1319,9 @@
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -1206,7 +1331,7 @@
       <c r="G1" s="80"/>
       <c r="H1" s="80"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1232,9 +1357,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>8</v>
@@ -1248,18 +1373,18 @@
         <v>50672.93</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="25">
         <v>7225.4</v>
@@ -1271,12 +1396,12 @@
         <v>57898.33</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1290,18 +1415,18 @@
         <v>55642.33</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="E6" s="25">
         <v>7225.4</v>
@@ -1313,12 +1438,12 @@
         <v>62867.73</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1332,12 +1457,12 @@
         <v>58043.73</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -1351,12 +1476,12 @@
         <v>52127.73</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1370,18 +1495,18 @@
         <v>44675.73</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="25">
         <v>7225.4</v>
@@ -1393,12 +1518,12 @@
         <v>51901.130000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1412,18 +1537,18 @@
         <v>49525.130000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="25">
         <v>7225.4</v>
@@ -1435,12 +1560,12 @@
         <v>56750.530000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1454,18 +1579,18 @@
         <v>50606.530000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="26">
         <v>7226</v>
@@ -1477,12 +1602,12 @@
         <v>57832.530000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1496,12 +1621,12 @@
         <v>57977.530000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1515,12 +1640,12 @@
         <v>53381.530000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1534,12 +1659,12 @@
         <v>49299.530000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1553,12 +1678,12 @@
         <v>43871.530000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1572,12 +1697,12 @@
         <v>35917.530000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1591,12 +1716,12 @@
         <v>29941.530000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1610,18 +1735,18 @@
         <v>26029.530000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="25">
         <v>7370.8</v>
@@ -1633,12 +1758,12 @@
         <v>33400.330000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1652,18 +1777,18 @@
         <v>25702.330000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="25">
         <v>7370.8</v>
@@ -1675,12 +1800,12 @@
         <v>33073.130000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1694,12 +1819,12 @@
         <v>26041.130000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1713,12 +1838,12 @@
         <v>21577.130000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -1732,18 +1857,18 @@
         <v>14629.130000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="25">
         <v>7370.8</v>
@@ -1762,12 +1887,12 @@
         <v>82345.240000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -1789,12 +1914,12 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -1808,18 +1933,18 @@
         <v>10197.930000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="E31" s="25">
         <f>7370.8*2</f>
@@ -1839,12 +1964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -1860,12 +1985,12 @@
       <c r="K32" s="81"/>
       <c r="L32" s="82"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -1881,18 +2006,18 @@
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="D34" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="40">
         <v>7130.46</v>
@@ -1905,12 +2030,12 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -1925,18 +2050,18 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="40">
         <v>7130.46</v>
@@ -1949,18 +2074,18 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25">
+    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="40">
         <v>3042.56</v>
@@ -1976,18 +2101,18 @@
         <v>7239.04</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37" s="48">
         <v>147.41</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2009,12 +2134,12 @@
         <v>144.7808</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -2034,12 +2159,12 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2056,18 +2181,18 @@
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="D41" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="25">
         <v>7239.04</v>
@@ -2087,12 +2212,12 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -2113,12 +2238,12 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -2132,7 +2257,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -2145,7 +2270,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="23.25">
+    <row r="45" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -2162,13 +2287,13 @@
         <v>14260.92</v>
       </c>
       <c r="K45" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L45" s="49">
         <v>142.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -2186,7 +2311,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2205,7 +2330,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2221,7 +2346,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="41"/>
       <c r="C49" s="12"/>
@@ -2242,7 +2367,7 @@
       </c>
       <c r="L49" s="49"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -2262,7 +2387,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
@@ -2275,7 +2400,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="20"/>
       <c r="C52" s="12"/>
@@ -2288,7 +2413,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="23.25">
+    <row r="53" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
@@ -2311,7 +2436,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2327,7 +2452,7 @@
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -2343,7 +2468,7 @@
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -2359,7 +2484,7 @@
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -2379,7 +2504,7 @@
       </c>
       <c r="L57" s="49"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -2399,7 +2524,7 @@
       </c>
       <c r="L58" s="49"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -2412,7 +2537,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -2425,7 +2550,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="23.25">
+    <row r="61" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -2442,13 +2567,13 @@
         <v>3042.56</v>
       </c>
       <c r="K61" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L61" s="49">
         <v>60.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -2466,7 +2591,7 @@
       </c>
       <c r="L62" s="49"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -2485,7 +2610,7 @@
       </c>
       <c r="L63" s="49"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -2501,7 +2626,7 @@
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -2522,7 +2647,7 @@
       </c>
       <c r="L65" s="49"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2542,7 +2667,7 @@
       </c>
       <c r="L66" s="49"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -2555,9 +2680,9 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="8"/>
@@ -2578,7 +2703,7 @@
         <v>19827.46</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="13"/>
       <c r="C69" s="9"/>
@@ -2588,7 +2713,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="13"/>
       <c r="C70" s="9"/>
@@ -2610,14 +2735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -2634,9 +2759,9 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -2647,7 +2772,7 @@
       <c r="H1" s="80"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -2674,9 +2799,9 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>8</v>
@@ -2698,18 +2823,18 @@
         <v>43031.329999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4">
         <v>3042.56</v>
@@ -2729,12 +2854,12 @@
         <v>43031.330000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2751,18 +2876,18 @@
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>7130.46</v>
@@ -2782,18 +2907,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="26">
         <v>7239.04</v>
@@ -2808,12 +2933,12 @@
       <c r="J7" s="85"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2828,18 +2953,18 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4">
         <v>7130.46</v>
@@ -2852,12 +2977,12 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2872,18 +2997,18 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="26">
         <v>7239.04</v>
@@ -2896,21 +3021,21 @@
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="66">
         <v>35224</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2925,7 +3050,7 @@
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="50">
         <f>K11/5</f>
@@ -2933,18 +3058,18 @@
       </c>
       <c r="L12" s="83"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="26">
         <v>7239.04</v>
@@ -2957,19 +3082,19 @@
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="65">
         <v>4</v>
       </c>
       <c r="L13" s="83"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2987,18 +3112,18 @@
       <c r="K14" s="61"/>
       <c r="L14" s="83"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="E15" s="26">
         <v>7239.08</v>
@@ -3011,7 +3136,7 @@
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="62">
         <f>K11-(K12*K13)</f>
@@ -3019,12 +3144,12 @@
       </c>
       <c r="L15" s="83"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3041,15 +3166,15 @@
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
       <c r="L16" s="73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -3064,7 +3189,7 @@
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" s="66">
         <f>L17*0.4%</f>
@@ -3074,12 +3199,12 @@
         <v>35224</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3097,12 +3222,12 @@
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3117,12 +3242,12 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3137,18 +3262,18 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="26">
         <v>3200.1</v>
@@ -3161,21 +3286,21 @@
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
       <c r="L21" s="83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3190,7 +3315,7 @@
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" s="50">
         <f>K21/4</f>
@@ -3198,12 +3323,12 @@
       </c>
       <c r="L22" s="83"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -3218,19 +3343,19 @@
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" s="65">
         <v>2</v>
       </c>
       <c r="L23" s="83"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -3248,18 +3373,18 @@
       <c r="K24" s="61"/>
       <c r="L24" s="83"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="4">
         <v>7044.8</v>
@@ -3272,7 +3397,7 @@
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="62">
         <f>K21-(K22*K23)</f>
@@ -3280,18 +3405,18 @@
       </c>
       <c r="L25" s="83"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="26">
         <v>3200.1</v>
@@ -3306,15 +3431,15 @@
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
       <c r="L26" s="73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3329,7 +3454,7 @@
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="66">
         <f>L27*0.4%</f>
@@ -3340,12 +3465,12 @@
         <v>15213</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -3363,18 +3488,18 @@
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="4">
         <v>7130.5</v>
@@ -3387,12 +3512,12 @@
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -3407,12 +3532,12 @@
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3427,21 +3552,21 @@
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
       <c r="L31" s="83" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3456,7 +3581,7 @@
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" s="50">
         <f>K31/5</f>
@@ -3464,18 +3589,18 @@
       </c>
       <c r="L32" s="83"/>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1">
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="4">
         <v>7044.8</v>
@@ -3488,25 +3613,25 @@
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="65">
         <v>2</v>
       </c>
       <c r="L33" s="83"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="4">
         <v>7044.8</v>
@@ -3522,12 +3647,12 @@
       <c r="K34" s="61"/>
       <c r="L34" s="83"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -3542,7 +3667,7 @@
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35" s="62">
         <f>K31-(K32*K33)</f>
@@ -3550,12 +3675,12 @@
       </c>
       <c r="L35" s="83"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -3572,21 +3697,21 @@
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
       <c r="L36" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="4">
         <v>7044.8</v>
@@ -3599,7 +3724,7 @@
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K37" s="59">
         <f>L37*0.4%</f>
@@ -3611,12 +3736,12 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1">
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3635,12 +3760,12 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3656,12 +3781,12 @@
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3677,18 +3802,18 @@
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1">
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4">
         <v>3042.56</v>
@@ -3701,22 +3826,22 @@
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41" s="66">
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
       <c r="L41" s="83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -3731,7 +3856,7 @@
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" s="50">
         <f>K41/3</f>
@@ -3739,12 +3864,12 @@
       </c>
       <c r="L42" s="83"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3759,19 +3884,19 @@
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43" s="65">
         <v>3</v>
       </c>
       <c r="L43" s="83"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -3789,12 +3914,12 @@
       <c r="K44" s="61"/>
       <c r="L44" s="83"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -3809,7 +3934,7 @@
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="62">
         <f>K41-(K42*K43)</f>
@@ -3817,7 +3942,7 @@
       </c>
       <c r="L45" s="83"/>
     </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1">
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -3833,10 +3958,10 @@
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
       <c r="L46" s="73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3850,7 +3975,7 @@
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47" s="59">
         <f>L47*0.4%</f>
@@ -3861,7 +3986,7 @@
         <v>35652.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1">
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -3878,7 +4003,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="20"/>
       <c r="C49" s="12"/>
@@ -3892,7 +4017,7 @@
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -3906,7 +4031,7 @@
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3920,7 +4045,7 @@
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3938,7 +4063,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="41"/>
       <c r="C53" s="12"/>
@@ -3956,7 +4081,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -3970,7 +4095,7 @@
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -3984,7 +4109,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -3998,7 +4123,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -4012,7 +4137,7 @@
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -4026,7 +4151,7 @@
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -4040,7 +4165,7 @@
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -4054,7 +4179,7 @@
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -4068,7 +4193,7 @@
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -4082,7 +4207,7 @@
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -4096,7 +4221,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -4110,7 +4235,7 @@
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -4124,7 +4249,7 @@
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -4138,7 +4263,7 @@
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -4152,7 +4277,7 @@
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -4166,7 +4291,7 @@
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -4180,7 +4305,7 @@
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4194,7 +4319,7 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -4208,9 +4333,9 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="8"/>
@@ -4230,7 +4355,7 @@
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -4241,7 +4366,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -4252,87 +4377,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95"/>
       <c r="I95"/>
     </row>
@@ -4349,4 +4474,1606 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3AC048-4C16-443C-B7BC-C52101A173F0}">
+  <dimension ref="A1:P95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="30">
+        <v>20300.990000000002</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="75">
+        <f>'[1]June 2021'!$N$15</f>
+        <v>70955.73000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7044.84</v>
+      </c>
+      <c r="F4" s="71"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="29">
+        <f>H3+E4+F4-G4</f>
+        <v>27345.83</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="77">
+        <f>H71+K15+K35+K25+K45</f>
+        <v>70955.73000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="71">
+        <v>140.9</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
+        <v>27486.730000000003</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="34">
+        <v>3876</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>23610.730000000003</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="86">
+        <f>K3-K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="34">
+        <v>2472</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>21138.730000000003</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="87"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="26">
+        <v>3200.1</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>24338.83</v>
+      </c>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="34">
+        <v>3360</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>20978.83</v>
+      </c>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7064</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>28042.83</v>
+      </c>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="34">
+        <v>4410</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>23632.83</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="66">
+        <v>37289.5</v>
+      </c>
+      <c r="L11" s="83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7064</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>30696.83</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="50">
+        <f>K11/5</f>
+        <v>7457.9</v>
+      </c>
+      <c r="L12" s="83"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="34">
+        <v>2424</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>28272.83</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="65">
+        <v>2</v>
+      </c>
+      <c r="L13" s="83"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3200.1</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>31472.93</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="83"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="34">
+        <v>4236</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>27236.93</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="62">
+        <f>K11-(K12*K13)</f>
+        <v>22373.7</v>
+      </c>
+      <c r="L15" s="83"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="34">
+        <v>4080</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>23156.93</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7457.9</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="29">
+        <f t="shared" si="0"/>
+        <v>30614.83</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="66">
+        <f>L17*0.4%</f>
+        <v>149.15800000000002</v>
+      </c>
+      <c r="L17" s="73">
+        <v>37289.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="34">
+        <v>2376</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="0"/>
+        <v>28238.83</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="34">
+        <v>4272</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="0"/>
+        <v>23966.83</v>
+      </c>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="34">
+        <v>4632</v>
+      </c>
+      <c r="H20" s="29">
+        <f t="shared" si="0"/>
+        <v>19334.830000000002</v>
+      </c>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="26">
+        <v>3200.18</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="29">
+        <f t="shared" si="0"/>
+        <v>22535.010000000002</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="66">
+        <v>6085.12</v>
+      </c>
+      <c r="L21" s="83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
+        <v>64</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="29">
+        <f t="shared" si="0"/>
+        <v>22599.010000000002</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="50">
+        <f>K21/2</f>
+        <v>3042.56</v>
+      </c>
+      <c r="L22" s="83"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="34">
+        <v>4764</v>
+      </c>
+      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>17835.010000000002</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="65">
+        <v>0</v>
+      </c>
+      <c r="L23" s="83"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="29">
+        <f t="shared" si="0"/>
+        <v>17835.010000000002</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="83"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="34">
+        <v>2658</v>
+      </c>
+      <c r="H25" s="29">
+        <f t="shared" si="0"/>
+        <v>15177.010000000002</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="62">
+        <f>K21-(K22*K23)</f>
+        <v>6085.12</v>
+      </c>
+      <c r="L25" s="83"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7457.9</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="29">
+        <f t="shared" si="0"/>
+        <v>22634.910000000003</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="34">
+        <v>1330</v>
+      </c>
+      <c r="H27" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="66">
+        <f>L27*0.4%</f>
+        <v>60.852000000000004</v>
+      </c>
+      <c r="L27" s="73">
+        <f>3042.6*5</f>
+        <v>15213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="58">
+        <v>9600.42</v>
+      </c>
+      <c r="L31" s="83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="50">
+        <f>K31/3</f>
+        <v>3200.14</v>
+      </c>
+      <c r="L32" s="83"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I33" s="54"/>
+      <c r="J33" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="65">
+        <v>3</v>
+      </c>
+      <c r="L33" s="83"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="83"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I35" s="54"/>
+      <c r="J35" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="62">
+        <f>K31-(K32*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="83"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I37" s="54"/>
+      <c r="J37" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="59">
+        <f>L37*0.4%</f>
+        <v>64.002800000000008</v>
+      </c>
+      <c r="L37" s="73">
+        <f>16000.7</f>
+        <v>16000.7</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I38" s="54"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="72"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I39" s="54"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I40" s="54"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I41" s="54"/>
+      <c r="J41" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="66">
+        <v>35320</v>
+      </c>
+      <c r="L41" s="83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="50">
+        <f>K41/5</f>
+        <v>7064</v>
+      </c>
+      <c r="L42" s="83"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="65">
+        <v>2</v>
+      </c>
+      <c r="L43" s="83"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I44" s="54"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="83"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I45" s="54"/>
+      <c r="J45" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="62">
+        <f>K41-(K42*K43)</f>
+        <v>21192</v>
+      </c>
+      <c r="L45" s="83"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I46" s="54"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I47" s="54"/>
+      <c r="J47" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="59">
+        <f>L47*0.4%</f>
+        <v>141.28</v>
+      </c>
+      <c r="L47" s="73">
+        <v>35320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="72"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I51" s="54"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I57" s="54"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I58" s="54"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I59" s="54"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I60" s="54"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I61" s="54"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I62" s="54"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I64" s="54"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I65" s="54"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I66" s="54"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I67" s="54"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="29">
+        <f t="shared" si="0"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I68" s="54"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="29">
+        <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I69" s="54"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="29">
+        <f t="shared" si="1"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="29">
+        <f t="shared" si="1"/>
+        <v>21304.910000000003</v>
+      </c>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="24">
+        <f>SUM(E3:E71)</f>
+        <v>45689.020000000004</v>
+      </c>
+      <c r="F72" s="39">
+        <f>SUM(F3:F71)</f>
+        <v>204.9</v>
+      </c>
+      <c r="G72" s="35">
+        <f>SUM(G3:G71)</f>
+        <v>44890</v>
+      </c>
+      <c r="H72" s="30"/>
+      <c r="I72" s="55"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="67"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L41:L45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="L31:L35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Desktop\excel-main\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70322081-DB78-4C6A-9A0A-39A67A0BD487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
@@ -23,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="113">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -372,16 +366,19 @@
   </si>
   <si>
     <t>Gsl-05</t>
+  </si>
+  <si>
+    <t>Gml-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,7 +947,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -958,7 +955,7 @@
       <sheetName val="June 2021"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
@@ -969,7 +966,7 @@
       <sheetData sheetId="2">
         <row r="15">
           <cell r="N15">
-            <v>70955.73000000001</v>
+            <v>76880.73000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1021,7 +1018,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1053,27 +1050,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,24 +1084,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1298,14 +1259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -1319,7 +1280,7 @@
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
       <c r="A1" s="80" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1292,7 @@
       <c r="G1" s="80"/>
       <c r="H1" s="80"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1334,7 @@
         <v>50672.93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1357,7 @@
         <v>57898.33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1376,7 @@
         <v>55642.33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1399,7 @@
         <v>62867.73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -1457,7 +1418,7 @@
         <v>58043.73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1476,7 +1437,7 @@
         <v>52127.73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1456,7 @@
         <v>44675.73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
@@ -1518,7 +1479,7 @@
         <v>51901.130000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1498,7 @@
         <v>49525.130000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -1560,7 +1521,7 @@
         <v>56750.530000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1540,7 @@
         <v>50606.530000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1563,7 @@
         <v>57832.530000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -1621,7 +1582,7 @@
         <v>57977.530000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +1601,7 @@
         <v>53381.530000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
@@ -1659,7 +1620,7 @@
         <v>49299.530000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -1678,7 +1639,7 @@
         <v>43871.530000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
@@ -1697,7 +1658,7 @@
         <v>35917.530000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1677,7 @@
         <v>29941.530000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -1735,7 +1696,7 @@
         <v>26029.530000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
@@ -1758,7 +1719,7 @@
         <v>33400.330000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +1738,7 @@
         <v>25702.330000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
@@ -1800,7 +1761,7 @@
         <v>33073.130000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="12" t="s">
         <v>37</v>
       </c>
@@ -1819,7 +1780,7 @@
         <v>26041.130000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="12" t="s">
         <v>39</v>
       </c>
@@ -1838,7 +1799,7 @@
         <v>21577.130000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
@@ -1857,7 +1818,7 @@
         <v>14629.130000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
@@ -1887,7 +1848,7 @@
         <v>82345.240000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
@@ -1914,7 +1875,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
@@ -1933,7 +1894,7 @@
         <v>10197.930000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>43</v>
       </c>
@@ -1985,7 +1946,7 @@
       <c r="K32" s="81"/>
       <c r="L32" s="82"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>43</v>
       </c>
@@ -2006,7 +1967,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>45</v>
       </c>
@@ -2030,7 +1991,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>45</v>
       </c>
@@ -2050,7 +2011,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="12" t="s">
         <v>48</v>
       </c>
@@ -2074,7 +2035,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="12" t="s">
         <v>48</v>
       </c>
@@ -2107,7 +2068,7 @@
         <v>147.41</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="12" t="s">
         <v>48</v>
       </c>
@@ -2134,7 +2095,7 @@
         <v>144.7808</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="12" t="s">
         <v>50</v>
       </c>
@@ -2159,7 +2120,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="12" t="s">
         <v>51</v>
       </c>
@@ -2181,7 +2142,7 @@
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
@@ -2212,7 +2173,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="12" t="s">
         <v>52</v>
       </c>
@@ -2238,7 +2199,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="12" t="s">
         <v>54</v>
       </c>
@@ -2257,7 +2218,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -2270,7 +2231,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="23.25">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -2293,7 +2254,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -2311,7 +2272,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2330,7 +2291,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2346,7 +2307,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="41"/>
       <c r="C49" s="12"/>
@@ -2367,7 +2328,7 @@
       </c>
       <c r="L49" s="49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -2387,7 +2348,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
@@ -2400,7 +2361,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="20"/>
       <c r="C52" s="12"/>
@@ -2413,7 +2374,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="23.25">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
@@ -2436,7 +2397,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2452,7 +2413,7 @@
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -2468,7 +2429,7 @@
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -2484,7 +2445,7 @@
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -2504,7 +2465,7 @@
       </c>
       <c r="L57" s="49"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -2524,7 +2485,7 @@
       </c>
       <c r="L58" s="49"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -2537,7 +2498,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -2550,7 +2511,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="23.25">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -2573,7 +2534,7 @@
         <v>60.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -2591,7 +2552,7 @@
       </c>
       <c r="L62" s="49"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -2610,7 +2571,7 @@
       </c>
       <c r="L63" s="49"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -2626,7 +2587,7 @@
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -2647,7 +2608,7 @@
       </c>
       <c r="L65" s="49"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2667,7 +2628,7 @@
       </c>
       <c r="L66" s="49"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -2680,7 +2641,7 @@
         <v>19827.460000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>90</v>
       </c>
@@ -2703,7 +2664,7 @@
         <v>19827.46</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="2"/>
       <c r="B69" s="13"/>
       <c r="C69" s="9"/>
@@ -2713,7 +2674,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="2"/>
       <c r="B70" s="13"/>
       <c r="C70" s="9"/>
@@ -2735,14 +2696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -2759,7 +2720,7 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
       <c r="A1" s="80" t="s">
         <v>61</v>
       </c>
@@ -2772,7 +2733,7 @@
       <c r="H1" s="80"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -2799,7 +2760,7 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>62</v>
       </c>
@@ -2823,7 +2784,7 @@
         <v>43031.329999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="18" t="s">
         <v>62</v>
       </c>
@@ -2854,7 +2815,7 @@
         <v>43031.330000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
@@ -2876,7 +2837,7 @@
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
@@ -2907,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>63</v>
       </c>
@@ -2933,7 +2894,7 @@
       <c r="J7" s="85"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
@@ -2953,7 +2914,7 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>64</v>
       </c>
@@ -2977,7 +2938,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
         <v>64</v>
       </c>
@@ -2997,7 +2958,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
@@ -3030,7 +2991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -3058,7 +3019,7 @@
       </c>
       <c r="L12" s="83"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>66</v>
       </c>
@@ -3089,7 +3050,7 @@
       </c>
       <c r="L13" s="83"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
@@ -3112,7 +3073,7 @@
       <c r="K14" s="61"/>
       <c r="L14" s="83"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
@@ -3144,7 +3105,7 @@
       </c>
       <c r="L15" s="83"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>67</v>
       </c>
@@ -3169,7 +3130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>67</v>
       </c>
@@ -3199,7 +3160,7 @@
         <v>35224</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>69</v>
       </c>
@@ -3222,7 +3183,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
@@ -3242,7 +3203,7 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>71</v>
       </c>
@@ -3262,7 +3223,7 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>72</v>
       </c>
@@ -3295,7 +3256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>72</v>
       </c>
@@ -3323,7 +3284,7 @@
       </c>
       <c r="L22" s="83"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>73</v>
       </c>
@@ -3350,7 +3311,7 @@
       </c>
       <c r="L23" s="83"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>92</v>
       </c>
@@ -3373,7 +3334,7 @@
       <c r="K24" s="61"/>
       <c r="L24" s="83"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
         <v>93</v>
       </c>
@@ -3405,7 +3366,7 @@
       </c>
       <c r="L25" s="83"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>93</v>
       </c>
@@ -3434,7 +3395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>93</v>
       </c>
@@ -3465,7 +3426,7 @@
         <v>15213</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>94</v>
       </c>
@@ -3488,7 +3449,7 @@
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12" t="s">
         <v>94</v>
       </c>
@@ -3512,7 +3473,7 @@
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12" t="s">
         <v>94</v>
       </c>
@@ -3532,7 +3493,7 @@
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>77</v>
       </c>
@@ -3561,7 +3522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>78</v>
       </c>
@@ -3589,7 +3550,7 @@
       </c>
       <c r="L32" s="83"/>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>79</v>
       </c>
@@ -3620,7 +3581,7 @@
       </c>
       <c r="L33" s="83"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>79</v>
       </c>
@@ -3647,7 +3608,7 @@
       <c r="K34" s="61"/>
       <c r="L34" s="83"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
         <v>79</v>
       </c>
@@ -3675,7 +3636,7 @@
       </c>
       <c r="L35" s="83"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>80</v>
       </c>
@@ -3700,7 +3661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>81</v>
       </c>
@@ -3736,7 +3697,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>81</v>
       </c>
@@ -3760,7 +3721,7 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
@@ -3781,7 +3742,7 @@
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12" t="s">
         <v>83</v>
       </c>
@@ -3802,7 +3763,7 @@
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
@@ -3836,7 +3797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>84</v>
       </c>
@@ -3864,7 +3825,7 @@
       </c>
       <c r="L42" s="83"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>85</v>
       </c>
@@ -3891,7 +3852,7 @@
       </c>
       <c r="L43" s="83"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>86</v>
       </c>
@@ -3914,7 +3875,7 @@
       <c r="K44" s="61"/>
       <c r="L44" s="83"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
         <v>87</v>
       </c>
@@ -3942,7 +3903,7 @@
       </c>
       <c r="L45" s="83"/>
     </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -3961,7 +3922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3986,7 +3947,7 @@
         <v>35652.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -4003,7 +3964,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="12"/>
       <c r="B49" s="20"/>
       <c r="C49" s="12"/>
@@ -4017,7 +3978,7 @@
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -4031,7 +3992,7 @@
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -4045,7 +4006,7 @@
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -4063,7 +4024,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="12"/>
       <c r="B53" s="41"/>
       <c r="C53" s="12"/>
@@ -4081,7 +4042,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -4095,7 +4056,7 @@
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -4109,7 +4070,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -4123,7 +4084,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -4137,7 +4098,7 @@
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -4151,7 +4112,7 @@
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -4165,7 +4126,7 @@
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -4179,7 +4140,7 @@
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -4193,7 +4154,7 @@
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -4207,7 +4168,7 @@
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -4221,7 +4182,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -4235,7 +4196,7 @@
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -4249,7 +4210,7 @@
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -4263,7 +4224,7 @@
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -4277,7 +4238,7 @@
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -4291,7 +4252,7 @@
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -4305,7 +4266,7 @@
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4319,7 +4280,7 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -4333,7 +4294,7 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>89</v>
       </c>
@@ -4355,7 +4316,7 @@
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -4366,7 +4327,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -4377,87 +4338,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>
@@ -4477,14 +4438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3AC048-4C16-443C-B7BC-C52101A173F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -4501,7 +4462,7 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
       <c r="A1" s="80" t="s">
         <v>95</v>
       </c>
@@ -4514,7 +4475,7 @@
       <c r="H1" s="80"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4502,7 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>91</v>
       </c>
@@ -4562,10 +4523,10 @@
       </c>
       <c r="K3" s="75">
         <f>'[1]June 2021'!$N$15</f>
-        <v>70955.73000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76880.73000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>91</v>
       </c>
@@ -4593,10 +4554,10 @@
       </c>
       <c r="K4" s="77">
         <f>H71+K15+K35+K25+K45</f>
-        <v>70955.73000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89540.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
@@ -4618,7 +4579,7 @@
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>91</v>
       </c>
@@ -4642,10 +4603,10 @@
       </c>
       <c r="K6" s="86">
         <f>K3-K4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-12659.999999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="18" t="s">
         <v>96</v>
       </c>
@@ -4667,7 +4628,7 @@
       <c r="J7" s="85"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="18" t="s">
         <v>97</v>
       </c>
@@ -4691,7 +4652,7 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="18" t="s">
         <v>97</v>
       </c>
@@ -4711,7 +4672,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
         <v>98</v>
       </c>
@@ -4735,7 +4696,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
@@ -4764,7 +4725,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>99</v>
       </c>
@@ -4796,7 +4757,7 @@
       </c>
       <c r="L12" s="83"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>99</v>
       </c>
@@ -4823,7 +4784,7 @@
       </c>
       <c r="L13" s="83"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>100</v>
       </c>
@@ -4850,7 +4811,7 @@
       <c r="K14" s="61"/>
       <c r="L14" s="83"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
@@ -4878,7 +4839,7 @@
       </c>
       <c r="L15" s="83"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>101</v>
       </c>
@@ -4903,7 +4864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>102</v>
       </c>
@@ -4937,7 +4898,7 @@
         <v>37289.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>102</v>
       </c>
@@ -4960,7 +4921,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>103</v>
       </c>
@@ -4980,7 +4941,7 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>104</v>
       </c>
@@ -5000,7 +4961,7 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>105</v>
       </c>
@@ -5033,7 +4994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>105</v>
       </c>
@@ -5061,7 +5022,7 @@
       </c>
       <c r="L22" s="83"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>105</v>
       </c>
@@ -5088,7 +5049,7 @@
       </c>
       <c r="L23" s="83"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>106</v>
       </c>
@@ -5109,7 +5070,7 @@
       <c r="K24" s="61"/>
       <c r="L24" s="83"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
         <v>107</v>
       </c>
@@ -5137,7 +5098,7 @@
       </c>
       <c r="L25" s="83"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -5166,7 +5127,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>108</v>
       </c>
@@ -5197,7 +5158,7 @@
         <v>15213</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -5214,7 +5175,7 @@
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5228,7 +5189,7 @@
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5242,7 +5203,7 @@
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -5259,13 +5220,13 @@
         <v>56</v>
       </c>
       <c r="K31" s="58">
-        <v>9600.42</v>
+        <v>18585</v>
       </c>
       <c r="L31" s="83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -5282,12 +5243,12 @@
         <v>57</v>
       </c>
       <c r="K32" s="50">
-        <f>K31/3</f>
-        <v>3200.14</v>
+        <f>K31/5</f>
+        <v>3717</v>
       </c>
       <c r="L32" s="83"/>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -5304,11 +5265,11 @@
         <v>60</v>
       </c>
       <c r="K33" s="65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="83"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -5325,7 +5286,7 @@
       <c r="K34" s="61"/>
       <c r="L34" s="83"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -5343,11 +5304,11 @@
       </c>
       <c r="K35" s="62">
         <f>K31-(K32*K33)</f>
-        <v>0</v>
+        <v>18585</v>
       </c>
       <c r="L35" s="83"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -5366,7 +5327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -5384,15 +5345,14 @@
       </c>
       <c r="K37" s="59">
         <f>L37*0.4%</f>
-        <v>64.002800000000008</v>
+        <v>74.34</v>
       </c>
       <c r="L37" s="73">
-        <f>16000.7</f>
-        <v>16000.7</v>
+        <v>18585</v>
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -5410,7 +5370,7 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -5425,7 +5385,7 @@
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -5440,7 +5400,7 @@
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="20"/>
       <c r="C41" s="12"/>
@@ -5463,7 +5423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -5485,7 +5445,7 @@
       </c>
       <c r="L42" s="83"/>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -5506,7 +5466,7 @@
       </c>
       <c r="L43" s="83"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -5523,7 +5483,7 @@
       <c r="K44" s="61"/>
       <c r="L44" s="83"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -5545,7 +5505,7 @@
       </c>
       <c r="L45" s="83"/>
     </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -5564,7 +5524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -5588,7 +5548,7 @@
         <v>35320</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -5605,7 +5565,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="12"/>
       <c r="B49" s="20"/>
       <c r="C49" s="12"/>
@@ -5619,7 +5579,7 @@
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -5633,7 +5593,7 @@
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -5647,7 +5607,7 @@
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -5665,7 +5625,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="12"/>
       <c r="B53" s="41"/>
       <c r="C53" s="12"/>
@@ -5683,7 +5643,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -5697,7 +5657,7 @@
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -5711,7 +5671,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -5725,7 +5685,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -5739,7 +5699,7 @@
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -5753,7 +5713,7 @@
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -5767,7 +5727,7 @@
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -5781,7 +5741,7 @@
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -5795,7 +5755,7 @@
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -5809,7 +5769,7 @@
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -5823,7 +5783,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -5837,7 +5797,7 @@
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -5851,7 +5811,7 @@
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -5865,7 +5825,7 @@
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -5879,7 +5839,7 @@
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -5893,7 +5853,7 @@
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -5907,7 +5867,7 @@
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -5921,7 +5881,7 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -5935,7 +5895,7 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
@@ -5957,7 +5917,7 @@
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -5968,7 +5928,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -5979,87 +5939,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="128">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -369,14 +369,60 @@
   </si>
   <si>
     <t>Gml-02</t>
+  </si>
+  <si>
+    <t>16.06.2021</t>
+  </si>
+  <si>
+    <t>17.06.2021</t>
+  </si>
+  <si>
+    <t>18.06.2021</t>
+  </si>
+  <si>
+    <t>19.06.2021</t>
+  </si>
+  <si>
+    <t>21.06.2021</t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>25.06.2021</t>
+  </si>
+  <si>
+    <t>Gsl-06</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>27.06.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -718,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -905,6 +951,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -966,7 +1013,7 @@
       <sheetData sheetId="2">
         <row r="15">
           <cell r="N15">
-            <v>76880.73000000001</v>
+            <v>65436.87</v>
           </cell>
         </row>
       </sheetData>
@@ -1281,16 +1328,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -1917,10 +1964,10 @@
         <f t="shared" si="0"/>
         <v>24939.530000000013</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="82">
+      <c r="L31" s="83">
         <f>L28-L29</f>
         <v>0</v>
       </c>
@@ -1943,8 +1990,8 @@
         <f t="shared" si="0"/>
         <v>25086.940000000013</v>
       </c>
-      <c r="K32" s="81"/>
-      <c r="L32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="83"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -2700,7 +2747,7 @@
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:E29"/>
+      <selection activeCell="C41" sqref="C41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2721,16 +2768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -2860,10 +2907,10 @@
         <v>27624.48</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="87">
         <f>K3-K4</f>
         <v>0</v>
       </c>
@@ -2891,8 +2938,8 @@
         <v>34863.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="87"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
@@ -2987,7 +3034,7 @@
       <c r="K11" s="66">
         <v>35224</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="84" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3017,7 +3064,7 @@
         <f>K11/5</f>
         <v>7044.8</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="84"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -3048,7 +3095,7 @@
       <c r="K13" s="65">
         <v>4</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -3071,7 +3118,7 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="83"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -3103,7 +3150,7 @@
         <f>K11-(K12*K13)</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="84"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -3252,7 +3299,7 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="84" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3282,7 +3329,7 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="83"/>
+      <c r="L22" s="84"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -3309,7 +3356,7 @@
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="83"/>
+      <c r="L23" s="84"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -3332,7 +3379,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="83"/>
+      <c r="L24" s="84"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -3364,7 +3411,7 @@
         <f>K21-(K22*K23)</f>
         <v>6085.12</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="84"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -3518,7 +3565,7 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="83" t="s">
+      <c r="L31" s="84" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3548,7 +3595,7 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="83"/>
+      <c r="L32" s="84"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -3579,7 +3626,7 @@
       <c r="K33" s="65">
         <v>2</v>
       </c>
-      <c r="L33" s="83"/>
+      <c r="L33" s="84"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -3606,7 +3653,7 @@
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="83"/>
+      <c r="L34" s="84"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
@@ -3634,7 +3681,7 @@
         <f>K31-(K32*K33)</f>
         <v>9600.42</v>
       </c>
-      <c r="L35" s="83"/>
+      <c r="L35" s="84"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
@@ -3793,7 +3840,7 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="83" t="s">
+      <c r="L41" s="84" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3823,7 +3870,7 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="83"/>
+      <c r="L42" s="84"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -3850,7 +3897,7 @@
       <c r="K43" s="65">
         <v>3</v>
       </c>
-      <c r="L43" s="83"/>
+      <c r="L43" s="84"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
@@ -3873,7 +3920,7 @@
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="83"/>
+      <c r="L44" s="84"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
@@ -3901,7 +3948,7 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="83"/>
+      <c r="L45" s="84"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
@@ -4441,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4454,7 +4501,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="27" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="32" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" customWidth="1"/>
@@ -4463,16 +4510,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -4523,7 +4570,7 @@
       </c>
       <c r="K3" s="75">
         <f>'[1]June 2021'!$N$15</f>
-        <v>76880.73000000001</v>
+        <v>65436.87</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
@@ -4554,7 +4601,7 @@
       </c>
       <c r="K4" s="77">
         <f>H71+K15+K35+K25+K45</f>
-        <v>89540.73</v>
+        <v>65436.869999999995</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
@@ -4598,12 +4645,12 @@
         <v>23610.730000000003</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="87">
         <f>K3-K4</f>
-        <v>-12659.999999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
@@ -4625,8 +4672,8 @@
         <v>21138.730000000003</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="87"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -4719,10 +4766,10 @@
         <v>56</v>
       </c>
       <c r="K11" s="66">
-        <v>37289.5</v>
-      </c>
-      <c r="L11" s="83" t="s">
-        <v>111</v>
+        <v>37533.699999999997</v>
+      </c>
+      <c r="L11" s="84" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
@@ -4753,9 +4800,9 @@
       </c>
       <c r="K12" s="50">
         <f>K11/5</f>
-        <v>7457.9</v>
-      </c>
-      <c r="L12" s="83"/>
+        <v>7506.74</v>
+      </c>
+      <c r="L12" s="84"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -4780,9 +4827,9 @@
         <v>60</v>
       </c>
       <c r="K13" s="65">
-        <v>2</v>
-      </c>
-      <c r="L13" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -4809,7 +4856,7 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="83"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -4835,9 +4882,9 @@
       </c>
       <c r="K15" s="62">
         <f>K11-(K12*K13)</f>
-        <v>22373.7</v>
-      </c>
-      <c r="L15" s="83"/>
+        <v>30026.959999999999</v>
+      </c>
+      <c r="L15" s="84"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -4892,10 +4939,10 @@
       </c>
       <c r="K17" s="66">
         <f>L17*0.4%</f>
-        <v>149.15800000000002</v>
+        <v>150.13479999999998</v>
       </c>
       <c r="L17" s="73">
-        <v>37289.5</v>
+        <v>37533.699999999997</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
@@ -4990,7 +5037,7 @@
       <c r="K21" s="66">
         <v>6085.12</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="84" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5020,7 +5067,7 @@
         <f>K21/2</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="83"/>
+      <c r="L22" s="84"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -5045,9 +5092,9 @@
         <v>60</v>
       </c>
       <c r="K23" s="65">
-        <v>0</v>
-      </c>
-      <c r="L23" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="84"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -5068,7 +5115,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="83"/>
+      <c r="L24" s="84"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -5094,9 +5141,9 @@
       </c>
       <c r="K25" s="62">
         <f>K21-(K22*K23)</f>
-        <v>6085.12</v>
-      </c>
-      <c r="L25" s="83"/>
+        <v>3042.56</v>
+      </c>
+      <c r="L25" s="84"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -5159,16 +5206,22 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="34">
+        <v>5742</v>
+      </c>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>15562.910000000003</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
@@ -5176,44 +5229,66 @@
       <c r="L28" s="72"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="4"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="34"/>
+      <c r="G29" s="34">
+        <v>3648</v>
+      </c>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>11914.910000000003</v>
       </c>
       <c r="I29" s="54"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7457.9</v>
+      </c>
       <c r="F30" s="26"/>
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>19372.810000000005</v>
       </c>
       <c r="I30" s="54"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="34"/>
+      <c r="G31" s="34">
+        <v>3270</v>
+      </c>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>16102.810000000005</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -5222,21 +5297,27 @@
       <c r="K31" s="58">
         <v>18585</v>
       </c>
-      <c r="L31" s="83" t="s">
+      <c r="L31" s="84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="4"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="34"/>
+      <c r="G32" s="34">
+        <v>2308</v>
+      </c>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>13794.810000000005</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -5246,57 +5327,79 @@
         <f>K31/5</f>
         <v>3717</v>
       </c>
-      <c r="L32" s="83"/>
+      <c r="L32" s="84"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="4"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="34"/>
+      <c r="G33" s="34">
+        <v>5022</v>
+      </c>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>8772.8100000000049</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
         <v>60</v>
       </c>
       <c r="K33" s="65">
-        <v>0</v>
-      </c>
-      <c r="L33" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="84"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7457.9</v>
+      </c>
       <c r="F34" s="26"/>
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>16230.710000000005</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="83"/>
+      <c r="L34" s="84"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="34"/>
+      <c r="G35" s="34">
+        <v>2544</v>
+      </c>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>13686.710000000005</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -5304,21 +5407,27 @@
       </c>
       <c r="K35" s="62">
         <f>K31-(K32*K33)</f>
-        <v>18585</v>
-      </c>
-      <c r="L35" s="83"/>
+        <v>14868</v>
+      </c>
+      <c r="L35" s="84"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="4"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="34"/>
+      <c r="G36" s="34">
+        <v>6384</v>
+      </c>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>7302.7100000000046</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
@@ -5328,16 +5437,27 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="4">
+        <f>7457+9.2</f>
+        <v>7466.2</v>
+      </c>
       <c r="F37" s="26"/>
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>14768.910000000003</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -5353,16 +5473,22 @@
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="26"/>
+      <c r="F38" s="26">
+        <v>140.9</v>
+      </c>
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>14909.810000000003</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -5371,46 +5497,68 @@
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
+      <c r="A39" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3042.56</v>
+      </c>
       <c r="F39" s="26"/>
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17952.370000000003</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="4"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="34"/>
+      <c r="G40" s="34">
+        <v>4868</v>
+      </c>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>13084.370000000003</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="4"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="34"/>
+      <c r="G41" s="34">
+        <v>6694</v>
+      </c>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>6390.3700000000026</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -5419,21 +5567,31 @@
       <c r="K41" s="66">
         <v>35320</v>
       </c>
-      <c r="L41" s="83" t="s">
+      <c r="L41" s="84" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="4"/>
+      <c r="A42" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="4">
+        <v>7064</v>
+      </c>
       <c r="F42" s="26"/>
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>13454.370000000003</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -5443,57 +5601,83 @@
         <f>K41/5</f>
         <v>7064</v>
       </c>
-      <c r="L42" s="83"/>
+      <c r="L42" s="84"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="4"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="34"/>
+      <c r="G43" s="34">
+        <v>6030</v>
+      </c>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>7424.3700000000026</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
         <v>60</v>
       </c>
       <c r="K43" s="65">
-        <v>2</v>
-      </c>
-      <c r="L43" s="83"/>
+        <v>5</v>
+      </c>
+      <c r="L43" s="84"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="26"/>
+      <c r="A44" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="4">
+        <v>7064</v>
+      </c>
       <c r="F44" s="26"/>
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>14488.370000000003</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="83"/>
+      <c r="L44" s="84"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="26"/>
+      <c r="A45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7064</v>
+      </c>
       <c r="F45" s="26"/>
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>21552.370000000003</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -5501,21 +5685,27 @@
       </c>
       <c r="K45" s="62">
         <f>K41-(K42*K43)</f>
-        <v>21192</v>
-      </c>
-      <c r="L45" s="83"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="84"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26">
+        <v>141.28</v>
+      </c>
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>21693.65</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
@@ -5525,16 +5715,22 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="34"/>
+      <c r="G47" s="34">
+        <v>7736</v>
+      </c>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>13957.650000000001</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -5549,16 +5745,22 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="25"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="26"/>
-      <c r="G48" s="34"/>
+      <c r="G48" s="34">
+        <v>3584</v>
+      </c>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>10373.650000000001</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
@@ -5566,44 +5768,70 @@
       <c r="L48" s="72"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="12"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="26">
+        <v>3717</v>
+      </c>
       <c r="F49" s="26"/>
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>14090.650000000001</v>
       </c>
       <c r="I49" s="54"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="12"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="40"/>
+      <c r="A50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="4">
+        <v>7506.7</v>
+      </c>
       <c r="F50" s="26"/>
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>21597.350000000002</v>
       </c>
       <c r="I50" s="54"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="40"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="34"/>
+      <c r="G51" s="34">
+        <v>4098</v>
+      </c>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I51" s="54"/>
     </row>
@@ -5615,9 +5843,9 @@
       <c r="E52" s="25"/>
       <c r="F52" s="42"/>
       <c r="G52" s="34"/>
-      <c r="H52" s="29">
-        <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+      <c r="H52" s="80">
+        <f t="shared" si="0"/>
+        <v>17499.350000000002</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -5627,15 +5855,15 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="12"/>
-      <c r="B53" s="41"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="43"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -5648,40 +5876,40 @@
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="25"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="26"/>
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I54" s="54"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="12"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="25"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I55" s="54"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="12"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="25"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="26"/>
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I56" s="54"/>
     </row>
@@ -5690,54 +5918,54 @@
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="25"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="26"/>
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I57" s="54"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="26"/>
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I58" s="54"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="12"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="40"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="26"/>
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I59" s="54"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="12"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="25"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="26"/>
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I60" s="54"/>
     </row>
@@ -5751,7 +5979,7 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I61" s="54"/>
     </row>
@@ -5765,7 +5993,7 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I62" s="54"/>
     </row>
@@ -5779,7 +6007,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I63" s="54"/>
     </row>
@@ -5793,7 +6021,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I64" s="54"/>
     </row>
@@ -5807,7 +6035,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I65" s="54"/>
     </row>
@@ -5821,7 +6049,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I66" s="54"/>
     </row>
@@ -5835,7 +6063,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I67" s="54"/>
     </row>
@@ -5849,7 +6077,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I68" s="54"/>
     </row>
@@ -5863,7 +6091,7 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I69" s="54"/>
     </row>
@@ -5877,7 +6105,7 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I70" s="54"/>
     </row>
@@ -5891,7 +6119,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>21304.910000000003</v>
+        <v>17499.350000000002</v>
       </c>
       <c r="I71" s="54"/>
     </row>
@@ -5904,15 +6132,15 @@
       <c r="D72" s="11"/>
       <c r="E72" s="24">
         <f>SUM(E3:E71)</f>
-        <v>45689.020000000004</v>
+        <v>103529.28</v>
       </c>
       <c r="F72" s="39">
         <f>SUM(F3:F71)</f>
-        <v>204.9</v>
+        <v>487.08000000000004</v>
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>44890</v>
+        <v>106818</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
     <sheet name="May 2021" sheetId="27" r:id="rId2"/>
     <sheet name="June 2021" sheetId="28" r:id="rId3"/>
+    <sheet name="July 2021" sheetId="29" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="154">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -414,6 +415,84 @@
   </si>
   <si>
     <t>27.06.2021</t>
+  </si>
+  <si>
+    <t>01.07.2021</t>
+  </si>
+  <si>
+    <t>02.07.2021</t>
+  </si>
+  <si>
+    <t>03.07.2021</t>
+  </si>
+  <si>
+    <t>05.07.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>07.07.2021</t>
+  </si>
+  <si>
+    <t>08.07.2021</t>
+  </si>
+  <si>
+    <t>09.07.2021</t>
+  </si>
+  <si>
+    <t>10.07.2021</t>
+  </si>
+  <si>
+    <t>12.07.2021</t>
+  </si>
+  <si>
+    <t>13.07.2021</t>
+  </si>
+  <si>
+    <t>14.07.2021</t>
+  </si>
+  <si>
+    <t>15.07.2021</t>
+  </si>
+  <si>
+    <t>16.07.2021</t>
+  </si>
+  <si>
+    <t>17.07.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>20.07.2021</t>
+  </si>
+  <si>
+    <t>22.07.2021</t>
+  </si>
+  <si>
+    <t>23.07.2021</t>
+  </si>
+  <si>
+    <t>24.07.2021</t>
+  </si>
+  <si>
+    <t>26.07.2021</t>
+  </si>
+  <si>
+    <t>27.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>29.07.2021</t>
+  </si>
+  <si>
+    <t>30.07.2021</t>
+  </si>
+  <si>
+    <t>31.07.2021</t>
   </si>
 </sst>
 </file>
@@ -764,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -976,6 +1055,9 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,9 +1082,11 @@
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
+      <sheetName val="July 2021"/>
+      <sheetName val="AUGUST"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="15">
           <cell r="N15">
@@ -1017,6 +1101,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4488,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6264,4 +6350,1329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="30">
+        <v>17499.349999999999</v>
+      </c>
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="34">
+        <v>2592</v>
+      </c>
+      <c r="H4" s="29">
+        <f>H3+E4+F4-G4</f>
+        <v>14907.349999999999</v>
+      </c>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="34">
+        <v>3384</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
+        <v>11523.349999999999</v>
+      </c>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="34">
+        <v>4128</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>7395.3499999999985</v>
+      </c>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="34">
+        <v>3318</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>4077.3499999999985</v>
+      </c>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A8" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="34">
+        <v>5612</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>-1534.6500000000015</v>
+      </c>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="34">
+        <v>2400</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>-3934.6500000000015</v>
+      </c>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="34">
+        <v>5138</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>-9072.6500000000015</v>
+      </c>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="34">
+        <v>6958</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>-16030.650000000001</v>
+      </c>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="34">
+        <v>3560</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>-19590.650000000001</v>
+      </c>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="34">
+        <v>6562</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>-26152.65</v>
+      </c>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="34">
+        <v>3800</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>-29952.65</v>
+      </c>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="34">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>-35352.65</v>
+      </c>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="34">
+        <v>7850</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>-43202.65</v>
+      </c>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="34">
+        <v>5922</v>
+      </c>
+      <c r="H17" s="29">
+        <f t="shared" si="0"/>
+        <v>-49124.65</v>
+      </c>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="34">
+        <v>1764</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="0"/>
+        <v>-50888.65</v>
+      </c>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="34">
+        <v>4460</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="0"/>
+        <v>-55348.65</v>
+      </c>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="34">
+        <v>9278</v>
+      </c>
+      <c r="H20" s="29">
+        <f t="shared" si="0"/>
+        <v>-64626.65</v>
+      </c>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="34">
+        <v>7062</v>
+      </c>
+      <c r="H21" s="29">
+        <f t="shared" si="0"/>
+        <v>-71688.649999999994</v>
+      </c>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="34">
+        <v>3406</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="0"/>
+        <v>-75094.649999999994</v>
+      </c>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="34">
+        <v>3848</v>
+      </c>
+      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>-78942.649999999994</v>
+      </c>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="34">
+        <v>4320</v>
+      </c>
+      <c r="H24" s="29">
+        <f t="shared" si="0"/>
+        <v>-83262.649999999994</v>
+      </c>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="34">
+        <v>5982</v>
+      </c>
+      <c r="H25" s="29">
+        <f t="shared" si="0"/>
+        <v>-89244.65</v>
+      </c>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="34">
+        <v>4416</v>
+      </c>
+      <c r="H26" s="29">
+        <f t="shared" si="0"/>
+        <v>-93660.65</v>
+      </c>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="34">
+        <v>5232</v>
+      </c>
+      <c r="H27" s="29">
+        <f t="shared" si="0"/>
+        <v>-98892.65</v>
+      </c>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="34">
+        <v>6780</v>
+      </c>
+      <c r="H28" s="29">
+        <f t="shared" si="0"/>
+        <v>-105672.65</v>
+      </c>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="34">
+        <v>5820</v>
+      </c>
+      <c r="H29" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I31" s="54"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I33" s="54"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I34" s="54"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I37" s="54"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I38" s="54"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I45" s="54"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I47" s="54"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="12"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I51" s="54"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="80">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I52" s="54"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="12"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I53" s="54"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="12"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="12"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I57" s="54"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="12"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I58" s="54"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I59" s="54"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I60" s="54"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="12"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I61" s="54"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="12"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I62" s="54"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="12"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="12"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I64" s="54"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="12"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I65" s="54"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="12"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I66" s="54"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="12"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I67" s="54"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="12"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I68" s="54"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="12"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="29">
+        <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
+        <v>-111492.65</v>
+      </c>
+      <c r="I69" s="54"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="29">
+        <f t="shared" si="1"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="29">
+        <f t="shared" si="1"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="24">
+        <f>SUM(E3:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="39">
+        <f>SUM(F3:F71)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="35">
+        <f>SUM(G3:G71)</f>
+        <v>128992</v>
+      </c>
+      <c r="H72" s="30"/>
+      <c r="I72" s="55"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="2"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="67"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="2"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="8:9">
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="8:9">
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="8:9">
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="8:9">
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="8:9">
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="8:9">
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="8:9">
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="8:9">
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="8:9">
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="8:9">
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="8:9">
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="8:9">
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="8:9">
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="8:9">
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -1031,6 +1031,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,9 +1057,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,7 +1083,8 @@
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
       <sheetName val="July 2021"/>
-      <sheetName val="AUGUST"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1103,6 +1104,7 @@
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1414,16 +1416,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2050,10 +2052,10 @@
         <f t="shared" si="0"/>
         <v>24939.530000000013</v>
       </c>
-      <c r="K31" s="82" t="s">
+      <c r="K31" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="83">
+      <c r="L31" s="84">
         <f>L28-L29</f>
         <v>0</v>
       </c>
@@ -2076,8 +2078,8 @@
         <f t="shared" si="0"/>
         <v>25086.940000000013</v>
       </c>
-      <c r="K32" s="82"/>
-      <c r="L32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="84"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -2854,16 +2856,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -2993,10 +2995,10 @@
         <v>27624.48</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="88">
         <f>K3-K4</f>
         <v>0</v>
       </c>
@@ -3024,8 +3026,8 @@
         <v>34863.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
@@ -3120,7 +3122,7 @@
       <c r="K11" s="66">
         <v>35224</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="85" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3150,7 +3152,7 @@
         <f>K11/5</f>
         <v>7044.8</v>
       </c>
-      <c r="L12" s="84"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -3181,7 +3183,7 @@
       <c r="K13" s="65">
         <v>4</v>
       </c>
-      <c r="L13" s="84"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -3204,7 +3206,7 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="84"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -3236,7 +3238,7 @@
         <f>K11-(K12*K13)</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="L15" s="84"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -3385,7 +3387,7 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3415,7 +3417,7 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="84"/>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -3442,7 +3444,7 @@
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="84"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -3465,7 +3467,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="84"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -3497,7 +3499,7 @@
         <f>K21-(K22*K23)</f>
         <v>6085.12</v>
       </c>
-      <c r="L25" s="84"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -3651,7 +3653,7 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="84" t="s">
+      <c r="L31" s="85" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3681,7 +3683,7 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="84"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -3712,7 +3714,7 @@
       <c r="K33" s="65">
         <v>2</v>
       </c>
-      <c r="L33" s="84"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -3739,7 +3741,7 @@
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="84"/>
+      <c r="L34" s="85"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
@@ -3767,7 +3769,7 @@
         <f>K31-(K32*K33)</f>
         <v>9600.42</v>
       </c>
-      <c r="L35" s="84"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
@@ -3926,7 +3928,7 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="84" t="s">
+      <c r="L41" s="85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3956,7 +3958,7 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="84"/>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -3983,7 +3985,7 @@
       <c r="K43" s="65">
         <v>3</v>
       </c>
-      <c r="L43" s="84"/>
+      <c r="L43" s="85"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
@@ -4006,7 +4008,7 @@
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="84"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
@@ -4034,7 +4036,7 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="84"/>
+      <c r="L45" s="85"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
@@ -4596,16 +4598,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -4731,10 +4733,10 @@
         <v>23610.730000000003</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="88">
         <f>K3-K4</f>
         <v>0</v>
       </c>
@@ -4758,8 +4760,8 @@
         <v>21138.730000000003</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -4854,7 +4856,7 @@
       <c r="K11" s="66">
         <v>37533.699999999997</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="85" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4888,7 +4890,7 @@
         <f>K11/5</f>
         <v>7506.74</v>
       </c>
-      <c r="L12" s="84"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -4915,7 +4917,7 @@
       <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="84"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -4942,7 +4944,7 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="84"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -4970,7 +4972,7 @@
         <f>K11-(K12*K13)</f>
         <v>30026.959999999999</v>
       </c>
-      <c r="L15" s="84"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -5123,7 +5125,7 @@
       <c r="K21" s="66">
         <v>6085.12</v>
       </c>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5153,7 +5155,7 @@
         <f>K21/2</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="84"/>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -5180,7 +5182,7 @@
       <c r="K23" s="65">
         <v>1</v>
       </c>
-      <c r="L23" s="84"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -5201,7 +5203,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="84"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -5229,7 +5231,7 @@
         <f>K21-(K22*K23)</f>
         <v>3042.56</v>
       </c>
-      <c r="L25" s="84"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -5383,7 +5385,7 @@
       <c r="K31" s="58">
         <v>18585</v>
       </c>
-      <c r="L31" s="84" t="s">
+      <c r="L31" s="85" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5413,7 +5415,7 @@
         <f>K31/5</f>
         <v>3717</v>
       </c>
-      <c r="L32" s="84"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -5440,7 +5442,7 @@
       <c r="K33" s="65">
         <v>1</v>
       </c>
-      <c r="L33" s="84"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -5467,7 +5469,7 @@
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="84"/>
+      <c r="L34" s="85"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
@@ -5495,7 +5497,7 @@
         <f>K31-(K32*K33)</f>
         <v>14868</v>
       </c>
-      <c r="L35" s="84"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
@@ -5653,7 +5655,7 @@
       <c r="K41" s="66">
         <v>35320</v>
       </c>
-      <c r="L41" s="84" t="s">
+      <c r="L41" s="85" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5687,7 +5689,7 @@
         <f>K41/5</f>
         <v>7064</v>
       </c>
-      <c r="L42" s="84"/>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -5714,7 +5716,7 @@
       <c r="K43" s="65">
         <v>5</v>
       </c>
-      <c r="L43" s="84"/>
+      <c r="L43" s="85"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
@@ -5741,7 +5743,7 @@
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="84"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
@@ -5773,7 +5775,7 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="84"/>
+      <c r="L45" s="85"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
@@ -6356,8 +6358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6374,16 +6376,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -6414,7 +6416,7 @@
       <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="81" t="s">
         <v>128</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -6431,7 +6433,7 @@
       <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="81" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -6451,7 +6453,7 @@
       <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="81" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -6471,7 +6473,7 @@
       <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="81" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -6491,7 +6493,7 @@
       <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="81" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -6511,7 +6513,7 @@
       <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="81" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -6531,7 +6533,7 @@
       <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="81" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="20" t="s">

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -10,9 +10,10 @@
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
     <sheet name="May 2021" sheetId="27" r:id="rId2"/>
     <sheet name="June 2021" sheetId="28" r:id="rId3"/>
+    <sheet name="July 2021" sheetId="29" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="154">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -414,6 +415,84 @@
   </si>
   <si>
     <t>27.06.2021</t>
+  </si>
+  <si>
+    <t>01.07.2021</t>
+  </si>
+  <si>
+    <t>02.07.2021</t>
+  </si>
+  <si>
+    <t>03.07.2021</t>
+  </si>
+  <si>
+    <t>05.07.2021</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
+  </si>
+  <si>
+    <t>07.07.2021</t>
+  </si>
+  <si>
+    <t>08.07.2021</t>
+  </si>
+  <si>
+    <t>09.07.2021</t>
+  </si>
+  <si>
+    <t>10.07.2021</t>
+  </si>
+  <si>
+    <t>12.07.2021</t>
+  </si>
+  <si>
+    <t>13.07.2021</t>
+  </si>
+  <si>
+    <t>14.07.2021</t>
+  </si>
+  <si>
+    <t>15.07.2021</t>
+  </si>
+  <si>
+    <t>16.07.2021</t>
+  </si>
+  <si>
+    <t>17.07.2021</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>20.07.2021</t>
+  </si>
+  <si>
+    <t>22.07.2021</t>
+  </si>
+  <si>
+    <t>23.07.2021</t>
+  </si>
+  <si>
+    <t>24.07.2021</t>
+  </si>
+  <si>
+    <t>26.07.2021</t>
+  </si>
+  <si>
+    <t>27.07.2021</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>29.07.2021</t>
+  </si>
+  <si>
+    <t>30.07.2021</t>
+  </si>
+  <si>
+    <t>31.07.2021</t>
   </si>
 </sst>
 </file>
@@ -764,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -952,6 +1031,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,6 +1082,10 @@
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
+      <sheetName val="July 2021"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1017,6 +1103,10 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1328,16 +1418,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -1964,10 +2054,10 @@
         <f t="shared" si="0"/>
         <v>24939.530000000013</v>
       </c>
-      <c r="K31" s="82" t="s">
+      <c r="K31" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="83">
+      <c r="L31" s="84">
         <f>L28-L29</f>
         <v>0</v>
       </c>
@@ -1990,8 +2080,8 @@
         <f t="shared" si="0"/>
         <v>25086.940000000013</v>
       </c>
-      <c r="K32" s="82"/>
-      <c r="L32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="84"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -2768,16 +2858,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -2907,10 +2997,10 @@
         <v>27624.48</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="88">
         <f>K3-K4</f>
         <v>0</v>
       </c>
@@ -2938,8 +3028,8 @@
         <v>34863.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
@@ -3034,7 +3124,7 @@
       <c r="K11" s="66">
         <v>35224</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="85" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3064,7 +3154,7 @@
         <f>K11/5</f>
         <v>7044.8</v>
       </c>
-      <c r="L12" s="84"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -3095,7 +3185,7 @@
       <c r="K13" s="65">
         <v>4</v>
       </c>
-      <c r="L13" s="84"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -3118,7 +3208,7 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="84"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -3150,7 +3240,7 @@
         <f>K11-(K12*K13)</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="L15" s="84"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -3299,7 +3389,7 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3329,7 +3419,7 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="84"/>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -3356,7 +3446,7 @@
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="84"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -3379,7 +3469,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="84"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -3411,7 +3501,7 @@
         <f>K21-(K22*K23)</f>
         <v>6085.12</v>
       </c>
-      <c r="L25" s="84"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -3565,7 +3655,7 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="84" t="s">
+      <c r="L31" s="85" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3595,7 +3685,7 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="84"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -3626,7 +3716,7 @@
       <c r="K33" s="65">
         <v>2</v>
       </c>
-      <c r="L33" s="84"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -3653,7 +3743,7 @@
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="84"/>
+      <c r="L34" s="85"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
@@ -3681,7 +3771,7 @@
         <f>K31-(K32*K33)</f>
         <v>9600.42</v>
       </c>
-      <c r="L35" s="84"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
@@ -3840,7 +3930,7 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="84" t="s">
+      <c r="L41" s="85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3870,7 +3960,7 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="84"/>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -3897,7 +3987,7 @@
       <c r="K43" s="65">
         <v>3</v>
       </c>
-      <c r="L43" s="84"/>
+      <c r="L43" s="85"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
@@ -3920,7 +4010,7 @@
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="84"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
@@ -3948,7 +4038,7 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="84"/>
+      <c r="L45" s="85"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
@@ -4488,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4510,16 +4600,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -4645,10 +4735,10 @@
         <v>23610.730000000003</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="88">
         <f>K3-K4</f>
         <v>0</v>
       </c>
@@ -4672,8 +4762,8 @@
         <v>21138.730000000003</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -4768,7 +4858,7 @@
       <c r="K11" s="66">
         <v>37533.699999999997</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="85" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4802,7 +4892,7 @@
         <f>K11/5</f>
         <v>7506.74</v>
       </c>
-      <c r="L12" s="84"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -4829,7 +4919,7 @@
       <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="84"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -4856,7 +4946,7 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="84"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -4884,7 +4974,7 @@
         <f>K11-(K12*K13)</f>
         <v>30026.959999999999</v>
       </c>
-      <c r="L15" s="84"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -5037,7 +5127,7 @@
       <c r="K21" s="66">
         <v>6085.12</v>
       </c>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="85" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5067,7 +5157,7 @@
         <f>K21/2</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="84"/>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -5094,7 +5184,7 @@
       <c r="K23" s="65">
         <v>1</v>
       </c>
-      <c r="L23" s="84"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -5115,7 +5205,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="84"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -5143,7 +5233,7 @@
         <f>K21-(K22*K23)</f>
         <v>3042.56</v>
       </c>
-      <c r="L25" s="84"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -5297,7 +5387,7 @@
       <c r="K31" s="58">
         <v>18585</v>
       </c>
-      <c r="L31" s="84" t="s">
+      <c r="L31" s="85" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5327,7 +5417,7 @@
         <f>K31/5</f>
         <v>3717</v>
       </c>
-      <c r="L32" s="84"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -5354,7 +5444,7 @@
       <c r="K33" s="65">
         <v>1</v>
       </c>
-      <c r="L33" s="84"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -5381,7 +5471,7 @@
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="84"/>
+      <c r="L34" s="85"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
@@ -5409,7 +5499,7 @@
         <f>K31-(K32*K33)</f>
         <v>14868</v>
       </c>
-      <c r="L35" s="84"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
@@ -5567,7 +5657,7 @@
       <c r="K41" s="66">
         <v>35320</v>
       </c>
-      <c r="L41" s="84" t="s">
+      <c r="L41" s="85" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5601,7 +5691,7 @@
         <f>K41/5</f>
         <v>7064</v>
       </c>
-      <c r="L42" s="84"/>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -5628,7 +5718,7 @@
       <c r="K43" s="65">
         <v>5</v>
       </c>
-      <c r="L43" s="84"/>
+      <c r="L43" s="85"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
@@ -5655,7 +5745,7 @@
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="84"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
@@ -5687,7 +5777,7 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="84"/>
+      <c r="L45" s="85"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
@@ -5887,7 +5977,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="26"/>
@@ -6264,4 +6354,1329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L95"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="30">
+        <v>17499.349999999999</v>
+      </c>
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="34">
+        <v>2592</v>
+      </c>
+      <c r="H4" s="29">
+        <f>H3+E4+F4-G4</f>
+        <v>14907.349999999999</v>
+      </c>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="34">
+        <v>3384</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
+        <v>11523.349999999999</v>
+      </c>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="34">
+        <v>4128</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>7395.3499999999985</v>
+      </c>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="34">
+        <v>3318</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>4077.3499999999985</v>
+      </c>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A8" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="34">
+        <v>5612</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>-1534.6500000000015</v>
+      </c>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="34">
+        <v>2400</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>-3934.6500000000015</v>
+      </c>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="34">
+        <v>5138</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>-9072.6500000000015</v>
+      </c>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="34">
+        <v>6958</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>-16030.650000000001</v>
+      </c>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="34">
+        <v>3560</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>-19590.650000000001</v>
+      </c>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="34">
+        <v>6562</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>-26152.65</v>
+      </c>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="34">
+        <v>3800</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>-29952.65</v>
+      </c>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="34">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>-35352.65</v>
+      </c>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="34">
+        <v>7850</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>-43202.65</v>
+      </c>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="34">
+        <v>5922</v>
+      </c>
+      <c r="H17" s="29">
+        <f t="shared" si="0"/>
+        <v>-49124.65</v>
+      </c>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="34">
+        <v>1764</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="0"/>
+        <v>-50888.65</v>
+      </c>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="34">
+        <v>4460</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="0"/>
+        <v>-55348.65</v>
+      </c>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="34">
+        <v>9278</v>
+      </c>
+      <c r="H20" s="29">
+        <f t="shared" si="0"/>
+        <v>-64626.65</v>
+      </c>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="34">
+        <v>7062</v>
+      </c>
+      <c r="H21" s="29">
+        <f t="shared" si="0"/>
+        <v>-71688.649999999994</v>
+      </c>
+      <c r="I21" s="54"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="34">
+        <v>3406</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="0"/>
+        <v>-75094.649999999994</v>
+      </c>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="34">
+        <v>3848</v>
+      </c>
+      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>-78942.649999999994</v>
+      </c>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="34">
+        <v>4320</v>
+      </c>
+      <c r="H24" s="29">
+        <f t="shared" si="0"/>
+        <v>-83262.649999999994</v>
+      </c>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="34">
+        <v>5982</v>
+      </c>
+      <c r="H25" s="29">
+        <f t="shared" si="0"/>
+        <v>-89244.65</v>
+      </c>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="34">
+        <v>4416</v>
+      </c>
+      <c r="H26" s="29">
+        <f t="shared" si="0"/>
+        <v>-93660.65</v>
+      </c>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="34">
+        <v>5232</v>
+      </c>
+      <c r="H27" s="29">
+        <f t="shared" si="0"/>
+        <v>-98892.65</v>
+      </c>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="34">
+        <v>6780</v>
+      </c>
+      <c r="H28" s="29">
+        <f t="shared" si="0"/>
+        <v>-105672.65</v>
+      </c>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="34">
+        <v>5820</v>
+      </c>
+      <c r="H29" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I31" s="54"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I33" s="54"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I34" s="54"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I37" s="54"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I38" s="54"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I45" s="54"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I47" s="54"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="12"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I51" s="54"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="80">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I52" s="54"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="12"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I53" s="54"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="12"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="12"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I57" s="54"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="12"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I58" s="54"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I59" s="54"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I60" s="54"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="12"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I61" s="54"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="12"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I62" s="54"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="12"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="12"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I64" s="54"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="12"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I65" s="54"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="12"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I66" s="54"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="12"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I67" s="54"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="12"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="29">
+        <f t="shared" si="0"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I68" s="54"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="12"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="29">
+        <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
+        <v>-111492.65</v>
+      </c>
+      <c r="I69" s="54"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="29">
+        <f t="shared" si="1"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="29">
+        <f t="shared" si="1"/>
+        <v>-111492.65</v>
+      </c>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="24">
+        <f>SUM(E3:E71)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="39">
+        <f>SUM(F3:F71)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="35">
+        <f>SUM(G3:G71)</f>
+        <v>128992</v>
+      </c>
+      <c r="H72" s="30"/>
+      <c r="I72" s="55"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="2"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="67"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="2"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="8:9">
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="8:9">
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="8:9">
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="8:9">
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="8:9">
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="8:9">
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="8:9">
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="8:9">
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="8:9">
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="8:9">
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="8:9">
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="8:9">
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="8:9">
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="8:9">
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
     <sheet name="May 2021" sheetId="27" r:id="rId2"/>
     <sheet name="June 2021" sheetId="28" r:id="rId3"/>
     <sheet name="July 2021" sheetId="29" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="30" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="154">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -503,7 +504,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +556,23 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -843,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,6 +1052,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,6 +1138,9 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,6 +1169,7 @@
       <sheetName val="July 2021"/>
       <sheetName val="August 2021"/>
       <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1104,7 +1189,14 @@
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="K6">
+            <v>149997.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1397,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1416,16 +1508,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -1466,7 +1558,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="33"/>
       <c r="H3" s="28">
-        <v>50672.93</v>
+        <v>52072.93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1489,7 +1581,7 @@
       <c r="G4" s="34"/>
       <c r="H4" s="29">
         <f>H3+E4+F4-G4</f>
-        <v>57898.33</v>
+        <v>59298.33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1508,7 +1600,7 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" ref="H5:H67" si="0">H4+E5+F5-G5</f>
-        <v>55642.33</v>
+        <v>57042.33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1531,7 +1623,7 @@
       <c r="G6" s="34"/>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>62867.73</v>
+        <v>64267.73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1550,7 +1642,7 @@
       </c>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>58043.73</v>
+        <v>59443.73</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1569,7 +1661,7 @@
       </c>
       <c r="H8" s="29">
         <f t="shared" si="0"/>
-        <v>52127.73</v>
+        <v>53527.73</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1588,7 +1680,7 @@
       </c>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>44675.73</v>
+        <v>46075.73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1611,7 +1703,7 @@
       <c r="G10" s="34"/>
       <c r="H10" s="29">
         <f t="shared" si="0"/>
-        <v>51901.130000000005</v>
+        <v>53301.130000000005</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1630,7 +1722,7 @@
       </c>
       <c r="H11" s="29">
         <f t="shared" si="0"/>
-        <v>49525.130000000005</v>
+        <v>50925.130000000005</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1653,7 +1745,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>56750.530000000006</v>
+        <v>58150.530000000006</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1672,7 +1764,7 @@
       </c>
       <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>50606.530000000006</v>
+        <v>52006.530000000006</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1695,7 +1787,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="29">
         <f t="shared" si="0"/>
-        <v>57832.530000000006</v>
+        <v>59232.530000000006</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1714,7 +1806,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>57977.530000000006</v>
+        <v>59377.530000000006</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
@@ -1733,7 +1825,7 @@
       </c>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>53381.530000000006</v>
+        <v>54781.530000000006</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
@@ -1752,7 +1844,7 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>49299.530000000006</v>
+        <v>50699.530000000006</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
@@ -1771,7 +1863,7 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>43871.530000000006</v>
+        <v>45271.530000000006</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
@@ -1790,7 +1882,7 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>35917.530000000006</v>
+        <v>37317.530000000006</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
@@ -1809,7 +1901,7 @@
       </c>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>29941.530000000006</v>
+        <v>31341.530000000006</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
@@ -1828,7 +1920,7 @@
       </c>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>26029.530000000006</v>
+        <v>27429.530000000006</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
@@ -1851,7 +1943,7 @@
       <c r="G22" s="34"/>
       <c r="H22" s="29">
         <f>H21+E22+F22-G22</f>
-        <v>33400.330000000009</v>
+        <v>34800.330000000009</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
@@ -1870,7 +1962,7 @@
       </c>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>25702.330000000009</v>
+        <v>27102.330000000009</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1893,7 +1985,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>33073.130000000012</v>
+        <v>34473.130000000012</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1912,7 +2004,7 @@
       </c>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>26041.130000000012</v>
+        <v>27441.130000000012</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1931,7 +2023,7 @@
       </c>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>21577.130000000012</v>
+        <v>22977.130000000012</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1950,7 +2042,7 @@
       </c>
       <c r="H27" s="29">
         <f>H26+E27+F27-G27</f>
-        <v>14629.130000000012</v>
+        <v>16029.130000000012</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1973,7 +2065,7 @@
       <c r="G28" s="34"/>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>21999.930000000011</v>
+        <v>23399.930000000011</v>
       </c>
       <c r="K28" t="s">
         <v>9</v>
@@ -1999,14 +2091,14 @@
       </c>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>16197.930000000011</v>
+        <v>17597.930000000011</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="1">
         <f>H67+K41+K42+K49+K50+K57+K58+K65+K66</f>
-        <v>82345.24000000002</v>
+        <v>83745.24000000002</v>
       </c>
       <c r="N29" s="1"/>
     </row>
@@ -2026,7 +2118,7 @@
       </c>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>10197.930000000011</v>
+        <v>11597.930000000011</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
@@ -2050,14 +2142,14 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>24939.530000000013</v>
-      </c>
-      <c r="K31" s="83" t="s">
+        <v>26339.530000000013</v>
+      </c>
+      <c r="K31" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="84">
+      <c r="L31" s="111">
         <f>L28-L29</f>
-        <v>0</v>
+        <v>-1400.0000000000146</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
@@ -2076,10 +2168,10 @@
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>25086.940000000013</v>
-      </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
+        <v>26486.940000000013</v>
+      </c>
+      <c r="K32" s="110"/>
+      <c r="L32" s="111"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -2097,7 +2189,7 @@
       </c>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>21078.940000000013</v>
+        <v>22478.940000000013</v>
       </c>
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
@@ -2122,7 +2214,7 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>28209.400000000012</v>
+        <v>29609.400000000012</v>
       </c>
       <c r="O34" s="1"/>
     </row>
@@ -2142,7 +2234,7 @@
       </c>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>24235.400000000012</v>
+        <v>25635.400000000012</v>
       </c>
       <c r="O35" s="1"/>
     </row>
@@ -2166,7 +2258,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>31365.860000000011</v>
+        <v>32765.860000000011</v>
       </c>
       <c r="J36" s="10"/>
     </row>
@@ -2190,7 +2282,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>34408.420000000013</v>
+        <v>35808.420000000013</v>
       </c>
       <c r="J37" s="46">
         <f>E41*1</f>
@@ -2219,7 +2311,7 @@
       </c>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>31774.420000000013</v>
+        <v>33174.420000000013</v>
       </c>
       <c r="J38" s="49"/>
       <c r="K38" s="46">
@@ -2246,7 +2338,7 @@
       </c>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>26022.420000000013</v>
+        <v>27422.420000000013</v>
       </c>
       <c r="J39" s="49"/>
       <c r="K39" s="49">
@@ -2271,7 +2363,7 @@
       </c>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>22898.420000000013</v>
+        <v>24298.420000000013</v>
       </c>
       <c r="J40" s="49"/>
       <c r="K40" s="49"/>
@@ -2297,7 +2389,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>30137.460000000014</v>
+        <v>31537.460000000014</v>
       </c>
       <c r="J41" s="49" t="s">
         <v>12</v>
@@ -2324,7 +2416,7 @@
       </c>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>23331.460000000014</v>
+        <v>24731.460000000014</v>
       </c>
       <c r="J42" s="49" t="s">
         <v>12</v>
@@ -2350,7 +2442,7 @@
       </c>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2363,7 +2455,7 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="23.25">
@@ -2376,7 +2468,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J45" s="48">
         <f>E34*2</f>
@@ -2399,7 +2491,7 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="49">
@@ -2417,7 +2509,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J47" s="49"/>
       <c r="K47" s="48">
@@ -2436,7 +2528,7 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
@@ -2452,7 +2544,7 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J49" s="49" t="s">
         <v>12</v>
@@ -2473,7 +2565,7 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J50" s="49" t="s">
         <v>12</v>
@@ -2493,7 +2585,7 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2506,7 +2598,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="23.25">
@@ -2519,7 +2611,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J53" s="48">
         <f>E11</f>
@@ -2542,7 +2634,7 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J54" s="49"/>
       <c r="K54" s="49"/>
@@ -2558,7 +2650,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -2574,7 +2666,7 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -2590,7 +2682,7 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J57" s="49" t="s">
         <v>12</v>
@@ -2610,7 +2702,7 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J58" s="49" t="s">
         <v>12</v>
@@ -2630,7 +2722,7 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2643,7 +2735,7 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="23.25">
@@ -2656,7 +2748,7 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J61" s="48">
         <f>E37*1</f>
@@ -2679,7 +2771,7 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J62" s="49"/>
       <c r="K62" s="49">
@@ -2697,7 +2789,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J63" s="49"/>
       <c r="K63" s="49">
@@ -2716,7 +2808,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
@@ -2732,7 +2824,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J65" s="49" t="s">
         <v>12</v>
@@ -2753,7 +2845,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
       <c r="J66" s="49" t="s">
         <v>12</v>
@@ -2773,7 +2865,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>19827.460000000014</v>
+        <v>21227.460000000014</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1">
@@ -2795,9 +2887,7 @@
         <f>SUM(G3:G67)</f>
         <v>128662</v>
       </c>
-      <c r="H68" s="30">
-        <v>19827.46</v>
-      </c>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2"/>
@@ -2834,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:E41"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2856,16 +2946,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -2908,7 +2998,7 @@
       <c r="F3" s="71"/>
       <c r="G3" s="67"/>
       <c r="H3" s="30">
-        <v>19827.46</v>
+        <v>21227.46</v>
       </c>
       <c r="I3" s="54"/>
       <c r="J3" s="74" t="s">
@@ -2939,7 +3029,7 @@
       <c r="G4" s="34"/>
       <c r="H4" s="29">
         <f>H3+E4+F4-G4</f>
-        <v>22870.02</v>
+        <v>24270.02</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="76" t="s">
@@ -2947,7 +3037,7 @@
       </c>
       <c r="K4" s="77">
         <f>H71+K15+K35+K25+K45</f>
-        <v>43031.330000000009</v>
+        <v>44431.330000000009</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
@@ -2966,7 +3056,7 @@
       </c>
       <c r="H5" s="29">
         <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
-        <v>20494.02</v>
+        <v>21894.02</v>
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="78"/>
@@ -2992,15 +3082,15 @@
       <c r="G6" s="34"/>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>27624.48</v>
+        <v>29024.48</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="115">
         <f>K3-K4</f>
-        <v>0</v>
+        <v>-1400.0000000000146</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
@@ -3023,11 +3113,11 @@
       <c r="G7" s="34"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>34863.519999999997</v>
+        <v>36263.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="116"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
@@ -3045,7 +3135,7 @@
       </c>
       <c r="H8" s="29">
         <f t="shared" si="0"/>
-        <v>31767.519999999997</v>
+        <v>33167.519999999997</v>
       </c>
       <c r="I8" s="54"/>
     </row>
@@ -3069,7 +3159,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>38897.979999999996</v>
+        <v>40297.979999999996</v>
       </c>
       <c r="I9" s="54"/>
     </row>
@@ -3089,7 +3179,7 @@
       </c>
       <c r="H10" s="29">
         <f t="shared" si="0"/>
-        <v>35669.979999999996</v>
+        <v>37069.979999999996</v>
       </c>
       <c r="I10" s="54"/>
     </row>
@@ -3113,7 +3203,7 @@
       <c r="G11" s="34"/>
       <c r="H11" s="29">
         <f t="shared" si="0"/>
-        <v>42909.02</v>
+        <v>44309.02</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="57" t="s">
@@ -3122,7 +3212,7 @@
       <c r="K11" s="66">
         <v>35224</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="112" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3142,7 +3232,7 @@
       </c>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>39343.019999999997</v>
+        <v>40743.019999999997</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="51" t="s">
@@ -3152,7 +3242,7 @@
         <f>K11/5</f>
         <v>7044.8</v>
       </c>
-      <c r="L12" s="85"/>
+      <c r="L12" s="112"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -3174,7 +3264,7 @@
       <c r="G13" s="34"/>
       <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>46582.06</v>
+        <v>47982.06</v>
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="51" t="s">
@@ -3183,7 +3273,7 @@
       <c r="K13" s="65">
         <v>4</v>
       </c>
-      <c r="L13" s="85"/>
+      <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -3201,12 +3291,12 @@
       </c>
       <c r="H14" s="29">
         <f t="shared" si="0"/>
-        <v>43870.06</v>
+        <v>45270.06</v>
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="85"/>
+      <c r="L14" s="112"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -3228,7 +3318,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>51109.14</v>
+        <v>52509.14</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="63" t="s">
@@ -3238,7 +3328,7 @@
         <f>K11-(K12*K13)</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="L15" s="85"/>
+      <c r="L15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -3256,7 +3346,7 @@
       <c r="G16" s="34"/>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>51253.919999999998</v>
+        <v>52653.919999999998</v>
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="49"/>
@@ -3281,7 +3371,7 @@
       </c>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>47533.919999999998</v>
+        <v>48933.919999999998</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="56" t="s">
@@ -3311,7 +3401,7 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>44789.919999999998</v>
+        <v>46189.919999999998</v>
       </c>
       <c r="I18" s="54"/>
       <c r="J18" s="49"/>
@@ -3334,7 +3424,7 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>40241.919999999998</v>
+        <v>41641.919999999998</v>
       </c>
       <c r="I19" s="54"/>
     </row>
@@ -3354,7 +3444,7 @@
       </c>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>37553.919999999998</v>
+        <v>38953.919999999998</v>
       </c>
       <c r="I20" s="54"/>
     </row>
@@ -3378,7 +3468,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>40754.019999999997</v>
+        <v>42154.02</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="57" t="s">
@@ -3387,7 +3477,7 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="112" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3407,7 +3497,7 @@
       </c>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>39542.019999999997</v>
+        <v>40942.019999999997</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="51" t="s">
@@ -3417,7 +3507,7 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="85"/>
+      <c r="L22" s="112"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -3435,7 +3525,7 @@
       </c>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>36198.019999999997</v>
+        <v>37598.019999999997</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="51" t="s">
@@ -3444,7 +3534,7 @@
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="85"/>
+      <c r="L23" s="112"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -3462,12 +3552,12 @@
       </c>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>28804.019999999997</v>
+        <v>30204.019999999997</v>
       </c>
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="85"/>
+      <c r="L24" s="112"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -3489,7 +3579,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>35848.82</v>
+        <v>37248.82</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -3499,7 +3589,7 @@
         <f>K21-(K22*K23)</f>
         <v>6085.12</v>
       </c>
-      <c r="L25" s="85"/>
+      <c r="L25" s="112"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -3521,7 +3611,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>39048.92</v>
+        <v>40448.92</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
@@ -3546,7 +3636,7 @@
       </c>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>31710.92</v>
+        <v>33110.92</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
@@ -3577,7 +3667,7 @@
       </c>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>28086.92</v>
+        <v>29486.92</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
@@ -3604,7 +3694,7 @@
       <c r="G29" s="34"/>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>35217.42</v>
+        <v>36617.42</v>
       </c>
       <c r="I29" s="54"/>
     </row>
@@ -3624,7 +3714,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>35360.03</v>
+        <v>36760.03</v>
       </c>
       <c r="I30" s="54"/>
     </row>
@@ -3644,7 +3734,7 @@
       </c>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>33656.03</v>
+        <v>35056.03</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -3653,7 +3743,7 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="112" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3673,7 +3763,7 @@
       </c>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>27512.03</v>
+        <v>28912.03</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -3683,7 +3773,7 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="85"/>
+      <c r="L32" s="112"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -3705,7 +3795,7 @@
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>34556.83</v>
+        <v>35956.83</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
@@ -3714,7 +3804,7 @@
       <c r="K33" s="65">
         <v>2</v>
       </c>
-      <c r="L33" s="85"/>
+      <c r="L33" s="112"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -3736,12 +3826,12 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>41601.630000000005</v>
+        <v>43001.630000000005</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="85"/>
+      <c r="L34" s="112"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
@@ -3759,7 +3849,7 @@
       </c>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>38121.630000000005</v>
+        <v>39521.630000000005</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -3769,7 +3859,7 @@
         <f>K31-(K32*K33)</f>
         <v>9600.42</v>
       </c>
-      <c r="L35" s="85"/>
+      <c r="L35" s="112"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
@@ -3787,7 +3877,7 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>34833.630000000005</v>
+        <v>36233.630000000005</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
@@ -3816,7 +3906,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>41878.430000000008</v>
+        <v>43278.430000000008</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -3848,7 +3938,7 @@
       </c>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>39250.430000000008</v>
+        <v>40650.430000000008</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -3872,7 +3962,7 @@
       </c>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>36184.430000000008</v>
+        <v>37584.430000000008</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
@@ -3893,7 +3983,7 @@
       </c>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>30352.430000000008</v>
+        <v>31752.430000000008</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
@@ -3918,7 +4008,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>33394.990000000005</v>
+        <v>34794.990000000005</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -3928,7 +4018,7 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="112" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3948,7 +4038,7 @@
       </c>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>31662.990000000005</v>
+        <v>33062.990000000005</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -3958,7 +4048,7 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="85"/>
+      <c r="L42" s="112"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -3976,7 +4066,7 @@
       </c>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>26050.990000000005</v>
+        <v>27450.990000000005</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
@@ -3985,7 +4075,7 @@
       <c r="K43" s="65">
         <v>3</v>
       </c>
-      <c r="L43" s="85"/>
+      <c r="L43" s="112"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
@@ -4003,12 +4093,12 @@
       </c>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>24034.990000000005</v>
+        <v>25434.990000000005</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="85"/>
+      <c r="L44" s="112"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
@@ -4026,7 +4116,7 @@
       </c>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -4036,7 +4126,7 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="85"/>
+      <c r="L45" s="112"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
@@ -4048,7 +4138,7 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
@@ -4067,7 +4157,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -4092,7 +4182,7 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
@@ -4109,7 +4199,7 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I49" s="54"/>
     </row>
@@ -4123,7 +4213,7 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I50" s="54"/>
     </row>
@@ -4137,7 +4227,7 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I51" s="54"/>
     </row>
@@ -4151,7 +4241,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -4169,7 +4259,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -4187,7 +4277,7 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I54" s="54"/>
     </row>
@@ -4201,7 +4291,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I55" s="54"/>
     </row>
@@ -4215,7 +4305,7 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I56" s="54"/>
     </row>
@@ -4229,7 +4319,7 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I57" s="54"/>
     </row>
@@ -4243,7 +4333,7 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I58" s="54"/>
     </row>
@@ -4257,7 +4347,7 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I59" s="54"/>
     </row>
@@ -4271,7 +4361,7 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I60" s="54"/>
     </row>
@@ -4285,7 +4375,7 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I61" s="54"/>
     </row>
@@ -4299,7 +4389,7 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I62" s="54"/>
     </row>
@@ -4313,7 +4403,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I63" s="54"/>
     </row>
@@ -4327,7 +4417,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I64" s="54"/>
     </row>
@@ -4341,7 +4431,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I65" s="54"/>
     </row>
@@ -4355,7 +4445,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I66" s="54"/>
     </row>
@@ -4369,7 +4459,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I67" s="54"/>
     </row>
@@ -4383,7 +4473,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="0"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I68" s="54"/>
     </row>
@@ -4397,7 +4487,7 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I69" s="54"/>
     </row>
@@ -4411,7 +4501,7 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I70" s="54"/>
     </row>
@@ -4425,7 +4515,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>20300.990000000005</v>
+        <v>21700.990000000005</v>
       </c>
       <c r="I71" s="54"/>
     </row>
@@ -4576,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4598,16 +4688,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -4650,7 +4740,7 @@
       <c r="F3" s="71"/>
       <c r="G3" s="67"/>
       <c r="H3" s="30">
-        <v>20300.990000000002</v>
+        <v>21700.99</v>
       </c>
       <c r="I3" s="54"/>
       <c r="J3" s="74" t="s">
@@ -4681,7 +4771,7 @@
       <c r="G4" s="34"/>
       <c r="H4" s="29">
         <f>H3+E4+F4-G4</f>
-        <v>27345.83</v>
+        <v>28745.83</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="76" t="s">
@@ -4689,7 +4779,7 @@
       </c>
       <c r="K4" s="77">
         <f>H71+K15+K35+K25+K45</f>
-        <v>65436.869999999995</v>
+        <v>66836.87000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
@@ -4707,8 +4797,8 @@
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="29">
-        <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
-        <v>27486.730000000003</v>
+        <f t="shared" ref="H5:H52" si="0">H4+E5+F5-G5</f>
+        <v>28886.730000000003</v>
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="78"/>
@@ -4730,15 +4820,15 @@
       </c>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>23610.730000000003</v>
+        <v>25010.730000000003</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="115">
         <f>K3-K4</f>
-        <v>0</v>
+        <v>-1400.0000000000073</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
@@ -4757,11 +4847,11 @@
       </c>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>21138.730000000003</v>
+        <v>22538.730000000003</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="116"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -4783,7 +4873,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="29">
         <f t="shared" si="0"/>
-        <v>24338.83</v>
+        <v>25738.83</v>
       </c>
       <c r="I8" s="54"/>
     </row>
@@ -4803,7 +4893,7 @@
       </c>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>20978.83</v>
+        <v>22378.83</v>
       </c>
       <c r="I9" s="54"/>
     </row>
@@ -4827,7 +4917,7 @@
       <c r="G10" s="34"/>
       <c r="H10" s="29">
         <f t="shared" si="0"/>
-        <v>28042.83</v>
+        <v>29442.83</v>
       </c>
       <c r="I10" s="54"/>
     </row>
@@ -4847,7 +4937,7 @@
       </c>
       <c r="H11" s="29">
         <f t="shared" si="0"/>
-        <v>23632.83</v>
+        <v>25032.83</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="57" t="s">
@@ -4856,7 +4946,7 @@
       <c r="K11" s="66">
         <v>37533.699999999997</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="112" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4880,7 +4970,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>30696.83</v>
+        <v>32096.83</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="51" t="s">
@@ -4890,7 +4980,7 @@
         <f>K11/5</f>
         <v>7506.74</v>
       </c>
-      <c r="L12" s="85"/>
+      <c r="L12" s="112"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
@@ -4908,7 +4998,7 @@
       </c>
       <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>28272.83</v>
+        <v>29672.83</v>
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="51" t="s">
@@ -4917,7 +5007,7 @@
       <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="85"/>
+      <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
@@ -4939,12 +5029,12 @@
       <c r="G14" s="34"/>
       <c r="H14" s="29">
         <f t="shared" si="0"/>
-        <v>31472.93</v>
+        <v>32872.93</v>
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="85"/>
+      <c r="L14" s="112"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -4962,7 +5052,7 @@
       </c>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>27236.93</v>
+        <v>28636.93</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="63" t="s">
@@ -4972,7 +5062,7 @@
         <f>K11-(K12*K13)</f>
         <v>30026.959999999999</v>
       </c>
-      <c r="L15" s="85"/>
+      <c r="L15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -4990,7 +5080,7 @@
       </c>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>23156.93</v>
+        <v>24556.93</v>
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="49"/>
@@ -5019,7 +5109,7 @@
       <c r="G17" s="34"/>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>30614.83</v>
+        <v>32014.83</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="56" t="s">
@@ -5049,7 +5139,7 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>28238.83</v>
+        <v>29638.83</v>
       </c>
       <c r="I18" s="54"/>
       <c r="J18" s="49"/>
@@ -5072,7 +5162,7 @@
       </c>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>23966.83</v>
+        <v>25366.83</v>
       </c>
       <c r="I19" s="54"/>
     </row>
@@ -5092,7 +5182,7 @@
       </c>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>19334.830000000002</v>
+        <v>20734.830000000002</v>
       </c>
       <c r="I20" s="54"/>
     </row>
@@ -5116,7 +5206,7 @@
       <c r="G21" s="34"/>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>22535.010000000002</v>
+        <v>23935.010000000002</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="57" t="s">
@@ -5125,7 +5215,7 @@
       <c r="K21" s="66">
         <v>6085.12</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="112" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5145,7 +5235,7 @@
       <c r="G22" s="34"/>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>22599.010000000002</v>
+        <v>23999.010000000002</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="51" t="s">
@@ -5155,7 +5245,7 @@
         <f>K21/2</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="85"/>
+      <c r="L22" s="112"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -5173,7 +5263,7 @@
       </c>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>17835.010000000002</v>
+        <v>19235.010000000002</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="51" t="s">
@@ -5182,7 +5272,7 @@
       <c r="K23" s="65">
         <v>1</v>
       </c>
-      <c r="L23" s="85"/>
+      <c r="L23" s="112"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
@@ -5198,12 +5288,12 @@
       <c r="G24" s="34"/>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>17835.010000000002</v>
+        <v>19235.010000000002</v>
       </c>
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="85"/>
+      <c r="L24" s="112"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
@@ -5221,7 +5311,7 @@
       </c>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>15177.010000000002</v>
+        <v>16577.010000000002</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -5231,7 +5321,7 @@
         <f>K21-(K22*K23)</f>
         <v>3042.56</v>
       </c>
-      <c r="L25" s="85"/>
+      <c r="L25" s="112"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
@@ -5253,7 +5343,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>22634.910000000003</v>
+        <v>24034.910000000003</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
@@ -5278,7 +5368,7 @@
       </c>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>22704.910000000003</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
@@ -5309,7 +5399,7 @@
       </c>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>15562.910000000003</v>
+        <v>16962.910000000003</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
@@ -5332,7 +5422,7 @@
       </c>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>11914.910000000003</v>
+        <v>13314.910000000003</v>
       </c>
       <c r="I29" s="54"/>
     </row>
@@ -5356,7 +5446,7 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>19372.810000000005</v>
+        <v>20772.810000000005</v>
       </c>
       <c r="I30" s="54"/>
     </row>
@@ -5376,7 +5466,7 @@
       </c>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>16102.810000000005</v>
+        <v>17502.810000000005</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -5385,7 +5475,7 @@
       <c r="K31" s="58">
         <v>18585</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="112" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5405,7 +5495,7 @@
       </c>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>13794.810000000005</v>
+        <v>15194.810000000005</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -5415,7 +5505,7 @@
         <f>K31/5</f>
         <v>3717</v>
       </c>
-      <c r="L32" s="85"/>
+      <c r="L32" s="112"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
@@ -5433,7 +5523,7 @@
       </c>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>8772.8100000000049</v>
+        <v>10172.810000000005</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
@@ -5442,7 +5532,7 @@
       <c r="K33" s="65">
         <v>1</v>
       </c>
-      <c r="L33" s="85"/>
+      <c r="L33" s="112"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
@@ -5464,12 +5554,12 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>16230.710000000005</v>
+        <v>17630.710000000006</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="85"/>
+      <c r="L34" s="112"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
@@ -5487,7 +5577,7 @@
       </c>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>13686.710000000005</v>
+        <v>15086.710000000006</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -5497,7 +5587,7 @@
         <f>K31-(K32*K33)</f>
         <v>14868</v>
       </c>
-      <c r="L35" s="85"/>
+      <c r="L35" s="112"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
@@ -5515,7 +5605,7 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>7302.7100000000046</v>
+        <v>8702.7100000000064</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
@@ -5545,7 +5635,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>14768.910000000003</v>
+        <v>16168.910000000007</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -5576,7 +5666,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>14909.810000000003</v>
+        <v>16309.810000000007</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -5604,7 +5694,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>17952.370000000003</v>
+        <v>19352.370000000006</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
@@ -5625,7 +5715,7 @@
       </c>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>13084.370000000003</v>
+        <v>14484.370000000006</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
@@ -5646,7 +5736,7 @@
       </c>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>6390.3700000000026</v>
+        <v>7790.3700000000063</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -5655,7 +5745,7 @@
       <c r="K41" s="66">
         <v>35320</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="112" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5679,7 +5769,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>13454.370000000003</v>
+        <v>14854.370000000006</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -5689,7 +5779,7 @@
         <f>K41/5</f>
         <v>7064</v>
       </c>
-      <c r="L42" s="85"/>
+      <c r="L42" s="112"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
@@ -5707,7 +5797,7 @@
       </c>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>7424.3700000000026</v>
+        <v>8824.3700000000063</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
@@ -5716,7 +5806,7 @@
       <c r="K43" s="65">
         <v>5</v>
       </c>
-      <c r="L43" s="85"/>
+      <c r="L43" s="112"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
@@ -5738,12 +5828,12 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>14488.370000000003</v>
+        <v>15888.370000000006</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="85"/>
+      <c r="L44" s="112"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
@@ -5765,7 +5855,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>21552.370000000003</v>
+        <v>22952.370000000006</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -5775,7 +5865,7 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="85"/>
+      <c r="L45" s="112"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
@@ -5793,7 +5883,7 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>21693.65</v>
+        <v>23093.650000000005</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
@@ -5818,7 +5908,7 @@
       </c>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>13957.650000000001</v>
+        <v>15357.650000000005</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -5848,7 +5938,7 @@
       </c>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>10373.650000000001</v>
+        <v>11773.650000000005</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
@@ -5875,7 +5965,7 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>14090.650000000001</v>
+        <v>15490.650000000005</v>
       </c>
       <c r="I49" s="54"/>
     </row>
@@ -5899,7 +5989,7 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>21597.350000000002</v>
+        <v>22997.350000000006</v>
       </c>
       <c r="I50" s="54"/>
     </row>
@@ -5919,7 +6009,7 @@
       </c>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I51" s="54"/>
     </row>
@@ -5933,7 +6023,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="80">
         <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -5950,8 +6040,8 @@
       <c r="F53" s="26"/>
       <c r="G53" s="34"/>
       <c r="H53" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" ref="H53:H71" si="1">H52+E53+F53-G53</f>
+        <v>18899.350000000006</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -5968,22 +6058,22 @@
       <c r="F54" s="26"/>
       <c r="G54" s="34"/>
       <c r="H54" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I54" s="54"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="34"/>
       <c r="H55" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I55" s="54"/>
     </row>
@@ -5996,8 +6086,8 @@
       <c r="F56" s="26"/>
       <c r="G56" s="34"/>
       <c r="H56" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I56" s="54"/>
     </row>
@@ -6010,8 +6100,8 @@
       <c r="F57" s="26"/>
       <c r="G57" s="34"/>
       <c r="H57" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I57" s="54"/>
     </row>
@@ -6024,8 +6114,8 @@
       <c r="F58" s="26"/>
       <c r="G58" s="34"/>
       <c r="H58" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I58" s="54"/>
     </row>
@@ -6038,8 +6128,8 @@
       <c r="F59" s="26"/>
       <c r="G59" s="34"/>
       <c r="H59" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I59" s="54"/>
     </row>
@@ -6052,8 +6142,8 @@
       <c r="F60" s="26"/>
       <c r="G60" s="34"/>
       <c r="H60" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I60" s="54"/>
     </row>
@@ -6066,8 +6156,8 @@
       <c r="F61" s="26"/>
       <c r="G61" s="34"/>
       <c r="H61" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I61" s="54"/>
     </row>
@@ -6080,8 +6170,8 @@
       <c r="F62" s="26"/>
       <c r="G62" s="34"/>
       <c r="H62" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I62" s="54"/>
     </row>
@@ -6094,8 +6184,8 @@
       <c r="F63" s="26"/>
       <c r="G63" s="34"/>
       <c r="H63" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I63" s="54"/>
     </row>
@@ -6108,8 +6198,8 @@
       <c r="F64" s="26"/>
       <c r="G64" s="34"/>
       <c r="H64" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I64" s="54"/>
     </row>
@@ -6122,8 +6212,8 @@
       <c r="F65" s="26"/>
       <c r="G65" s="34"/>
       <c r="H65" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I65" s="54"/>
     </row>
@@ -6136,8 +6226,8 @@
       <c r="F66" s="26"/>
       <c r="G66" s="34"/>
       <c r="H66" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I66" s="54"/>
     </row>
@@ -6150,8 +6240,8 @@
       <c r="F67" s="26"/>
       <c r="G67" s="34"/>
       <c r="H67" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I67" s="54"/>
     </row>
@@ -6164,8 +6254,8 @@
       <c r="F68" s="26"/>
       <c r="G68" s="34"/>
       <c r="H68" s="29">
-        <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I68" s="54"/>
     </row>
@@ -6178,8 +6268,8 @@
       <c r="F69" s="26"/>
       <c r="G69" s="34"/>
       <c r="H69" s="29">
-        <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>17499.350000000002</v>
+        <f t="shared" si="1"/>
+        <v>18899.350000000006</v>
       </c>
       <c r="I69" s="54"/>
     </row>
@@ -6193,7 +6283,7 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I70" s="54"/>
     </row>
@@ -6207,7 +6297,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I71" s="54"/>
     </row>
@@ -6358,7 +6448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -6376,16 +6466,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
@@ -7677,4 +7767,2908 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A1" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A2" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93">
+        <v>52072.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="95">
+        <v>7225.4</v>
+      </c>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98">
+        <f>H3+E4+F4-G4</f>
+        <v>59298.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97">
+        <v>2256</v>
+      </c>
+      <c r="H5" s="98">
+        <f t="shared" ref="H5:H43" si="0">H4+E5+F5-G5</f>
+        <v>57042.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="95">
+        <v>7225.4</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98">
+        <f t="shared" si="0"/>
+        <v>64267.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="97">
+        <v>4824</v>
+      </c>
+      <c r="H7" s="98">
+        <f t="shared" si="0"/>
+        <v>59443.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="97">
+        <v>5916</v>
+      </c>
+      <c r="H8" s="98">
+        <f t="shared" si="0"/>
+        <v>53527.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="97">
+        <v>7452</v>
+      </c>
+      <c r="H9" s="98">
+        <f t="shared" si="0"/>
+        <v>46075.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="95">
+        <v>7225.4</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98">
+        <f t="shared" si="0"/>
+        <v>53301.130000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="97">
+        <v>2376</v>
+      </c>
+      <c r="H11" s="98">
+        <f t="shared" si="0"/>
+        <v>50925.130000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="95">
+        <v>7225.4</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98">
+        <f t="shared" si="0"/>
+        <v>58150.530000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="97">
+        <v>6144</v>
+      </c>
+      <c r="H13" s="98">
+        <f t="shared" si="0"/>
+        <v>52006.530000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="99">
+        <v>7226</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98">
+        <f t="shared" si="0"/>
+        <v>59232.530000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="99">
+        <v>145</v>
+      </c>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98">
+        <f t="shared" si="0"/>
+        <v>59377.530000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="97">
+        <v>4596</v>
+      </c>
+      <c r="H16" s="98">
+        <f t="shared" si="0"/>
+        <v>54781.530000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="97">
+        <v>4082</v>
+      </c>
+      <c r="H17" s="98">
+        <f t="shared" si="0"/>
+        <v>50699.530000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="97">
+        <v>5428</v>
+      </c>
+      <c r="H18" s="98">
+        <f t="shared" si="0"/>
+        <v>45271.530000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="97">
+        <v>7954</v>
+      </c>
+      <c r="H19" s="98">
+        <f t="shared" si="0"/>
+        <v>37317.530000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="97">
+        <v>5976</v>
+      </c>
+      <c r="H20" s="98">
+        <f t="shared" si="0"/>
+        <v>31341.530000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="97">
+        <v>3912</v>
+      </c>
+      <c r="H21" s="98">
+        <f t="shared" si="0"/>
+        <v>27429.530000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="95">
+        <v>7370.8</v>
+      </c>
+      <c r="F22" s="99"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98">
+        <f>H21+E22+F22-G22</f>
+        <v>34800.330000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="97">
+        <v>7698</v>
+      </c>
+      <c r="H23" s="98">
+        <f t="shared" si="0"/>
+        <v>27102.330000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="95">
+        <v>7370.8</v>
+      </c>
+      <c r="F24" s="99"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98">
+        <f t="shared" si="0"/>
+        <v>34473.130000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="97">
+        <v>7032</v>
+      </c>
+      <c r="H25" s="98">
+        <f t="shared" si="0"/>
+        <v>27441.130000000012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="97">
+        <v>4464</v>
+      </c>
+      <c r="H26" s="98">
+        <f t="shared" si="0"/>
+        <v>22977.130000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="97">
+        <v>6948</v>
+      </c>
+      <c r="H27" s="98">
+        <f>H26+E27+F27-G27</f>
+        <v>16029.130000000012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="95">
+        <v>7370.8</v>
+      </c>
+      <c r="F28" s="99"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98">
+        <f t="shared" si="0"/>
+        <v>23399.930000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="97">
+        <v>5802</v>
+      </c>
+      <c r="H29" s="98">
+        <f t="shared" si="0"/>
+        <v>17597.930000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="97">
+        <v>6000</v>
+      </c>
+      <c r="H30" s="98">
+        <f t="shared" si="0"/>
+        <v>11597.930000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="95">
+        <f>7370.8*2</f>
+        <v>14741.6</v>
+      </c>
+      <c r="F31" s="99"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98">
+        <f t="shared" si="0"/>
+        <v>26339.530000000013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="99">
+        <v>147.41</v>
+      </c>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98">
+        <f t="shared" si="0"/>
+        <v>26486.940000000013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="97">
+        <v>4008</v>
+      </c>
+      <c r="H33" s="98">
+        <f t="shared" si="0"/>
+        <v>22478.940000000013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="100">
+        <v>7130.46</v>
+      </c>
+      <c r="F34" s="99"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="98">
+        <f t="shared" si="0"/>
+        <v>29609.400000000012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="97">
+        <v>3974</v>
+      </c>
+      <c r="H35" s="98">
+        <f t="shared" si="0"/>
+        <v>25635.400000000012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="100">
+        <v>7130.46</v>
+      </c>
+      <c r="F36" s="99"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="98">
+        <f t="shared" si="0"/>
+        <v>32765.860000000011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="100">
+        <v>3042.56</v>
+      </c>
+      <c r="F37" s="99"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="98">
+        <f t="shared" si="0"/>
+        <v>35808.420000000013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="97">
+        <v>2634</v>
+      </c>
+      <c r="H38" s="98">
+        <f t="shared" si="0"/>
+        <v>33174.420000000013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="97">
+        <v>5752</v>
+      </c>
+      <c r="H39" s="98">
+        <f t="shared" si="0"/>
+        <v>27422.420000000013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="97">
+        <v>3124</v>
+      </c>
+      <c r="H40" s="98">
+        <f t="shared" si="0"/>
+        <v>24298.420000000013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="95">
+        <v>7239.04</v>
+      </c>
+      <c r="F41" s="99"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="98">
+        <f t="shared" si="0"/>
+        <v>31537.460000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="97">
+        <v>6806</v>
+      </c>
+      <c r="H42" s="98">
+        <f t="shared" si="0"/>
+        <v>24731.460000000014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A43" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="97">
+        <v>3504</v>
+      </c>
+      <c r="H43" s="98">
+        <f t="shared" si="0"/>
+        <v>21227.460000000014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A44" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="102"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105">
+        <f>SUM(E3:E43)</f>
+        <v>97524.12000000001</v>
+      </c>
+      <c r="F44" s="106">
+        <f>SUM(F3:F43)</f>
+        <v>292.40999999999997</v>
+      </c>
+      <c r="G44" s="107">
+        <f>SUM(G3:G43)</f>
+        <v>128662</v>
+      </c>
+      <c r="H44" s="108"/>
+    </row>
+    <row r="66" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A66" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+    </row>
+    <row r="67" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A67" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A68" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="30">
+        <v>21227.46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3042.56</v>
+      </c>
+      <c r="F69" s="71"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="29">
+        <f>H68+E69+F69-G69</f>
+        <v>24270.02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="34">
+        <v>2376</v>
+      </c>
+      <c r="H70" s="29">
+        <f t="shared" ref="H70:H110" si="1">H69+E70+F70-G70</f>
+        <v>21894.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="4">
+        <v>7130.46</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="29">
+        <f t="shared" si="1"/>
+        <v>29024.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="26">
+        <v>7239.04</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="29">
+        <f t="shared" si="1"/>
+        <v>36263.519999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="34">
+        <v>3096</v>
+      </c>
+      <c r="H73" s="29">
+        <f t="shared" si="1"/>
+        <v>33167.519999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="4">
+        <v>7130.46</v>
+      </c>
+      <c r="F74" s="26"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="29">
+        <f t="shared" si="1"/>
+        <v>40297.979999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="34">
+        <v>3228</v>
+      </c>
+      <c r="H75" s="29">
+        <f t="shared" si="1"/>
+        <v>37069.979999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="26">
+        <v>7239.04</v>
+      </c>
+      <c r="F76" s="26"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="29">
+        <f t="shared" si="1"/>
+        <v>44309.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="34">
+        <v>3566</v>
+      </c>
+      <c r="H77" s="29">
+        <f t="shared" si="1"/>
+        <v>40743.019999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="26">
+        <v>7239.04</v>
+      </c>
+      <c r="F78" s="26"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="29">
+        <f t="shared" si="1"/>
+        <v>47982.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="34">
+        <v>2712</v>
+      </c>
+      <c r="H79" s="29">
+        <f t="shared" si="1"/>
+        <v>45270.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="26">
+        <v>7239.08</v>
+      </c>
+      <c r="F80" s="26"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="29">
+        <f t="shared" si="1"/>
+        <v>52509.14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26">
+        <v>144.78</v>
+      </c>
+      <c r="G81" s="34"/>
+      <c r="H81" s="29">
+        <f t="shared" si="1"/>
+        <v>52653.919999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="34">
+        <v>3720</v>
+      </c>
+      <c r="H82" s="29">
+        <f t="shared" si="1"/>
+        <v>48933.919999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="34">
+        <v>2744</v>
+      </c>
+      <c r="H83" s="29">
+        <f t="shared" si="1"/>
+        <v>46189.919999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="34">
+        <v>4548</v>
+      </c>
+      <c r="H84" s="29">
+        <f t="shared" si="1"/>
+        <v>41641.919999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="34">
+        <v>2688</v>
+      </c>
+      <c r="H85" s="29">
+        <f t="shared" si="1"/>
+        <v>38953.919999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="26">
+        <v>3200.1</v>
+      </c>
+      <c r="F86" s="26"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="29">
+        <f t="shared" si="1"/>
+        <v>42154.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="34">
+        <v>1212</v>
+      </c>
+      <c r="H87" s="29">
+        <f t="shared" si="1"/>
+        <v>40942.019999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="34">
+        <v>3344</v>
+      </c>
+      <c r="H88" s="29">
+        <f t="shared" si="1"/>
+        <v>37598.019999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="34">
+        <v>7394</v>
+      </c>
+      <c r="H89" s="29">
+        <f t="shared" si="1"/>
+        <v>30204.019999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="4">
+        <v>7044.8</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="29">
+        <f t="shared" si="1"/>
+        <v>37248.82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="26">
+        <v>3200.1</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="29">
+        <f t="shared" si="1"/>
+        <v>40448.92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="34">
+        <v>7338</v>
+      </c>
+      <c r="H92" s="29">
+        <f t="shared" si="1"/>
+        <v>33110.92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="34">
+        <v>3624</v>
+      </c>
+      <c r="H93" s="29">
+        <f t="shared" si="1"/>
+        <v>29486.92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="4">
+        <v>7130.5</v>
+      </c>
+      <c r="F94" s="26"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="29">
+        <f t="shared" si="1"/>
+        <v>36617.42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26">
+        <v>142.61000000000001</v>
+      </c>
+      <c r="G95" s="34"/>
+      <c r="H95" s="29">
+        <f t="shared" si="1"/>
+        <v>36760.03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="34">
+        <v>1704</v>
+      </c>
+      <c r="H96" s="29">
+        <f t="shared" si="1"/>
+        <v>35056.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="34">
+        <v>6144</v>
+      </c>
+      <c r="H97" s="29">
+        <f t="shared" si="1"/>
+        <v>28912.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="4">
+        <v>7044.8</v>
+      </c>
+      <c r="F98" s="26"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="29">
+        <f t="shared" si="1"/>
+        <v>35956.83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="4">
+        <v>7044.8</v>
+      </c>
+      <c r="F99" s="26"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="29">
+        <f t="shared" si="1"/>
+        <v>43001.630000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="34">
+        <v>3480</v>
+      </c>
+      <c r="H100" s="29">
+        <f t="shared" si="1"/>
+        <v>39521.630000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="34">
+        <v>3288</v>
+      </c>
+      <c r="H101" s="29">
+        <f t="shared" si="1"/>
+        <v>36233.630000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="4">
+        <v>7044.8</v>
+      </c>
+      <c r="F102" s="26"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="29">
+        <f t="shared" si="1"/>
+        <v>43278.430000000008</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="34">
+        <v>2628</v>
+      </c>
+      <c r="H103" s="29">
+        <f t="shared" si="1"/>
+        <v>40650.430000000008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="34">
+        <v>3066</v>
+      </c>
+      <c r="H104" s="29">
+        <f t="shared" si="1"/>
+        <v>37584.430000000008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="34">
+        <v>5832</v>
+      </c>
+      <c r="H105" s="29">
+        <f t="shared" si="1"/>
+        <v>31752.430000000008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3042.56</v>
+      </c>
+      <c r="F106" s="26"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="29">
+        <f t="shared" si="1"/>
+        <v>34794.990000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="34">
+        <v>1732</v>
+      </c>
+      <c r="H107" s="29">
+        <f t="shared" si="1"/>
+        <v>33062.990000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="34">
+        <v>5612</v>
+      </c>
+      <c r="H108" s="29">
+        <f t="shared" si="1"/>
+        <v>27450.990000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="34">
+        <v>2016</v>
+      </c>
+      <c r="H109" s="29">
+        <f t="shared" si="1"/>
+        <v>25434.990000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A110" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="34">
+        <v>3734</v>
+      </c>
+      <c r="H110" s="29">
+        <f t="shared" si="1"/>
+        <v>21700.990000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A111" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="21"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="24">
+        <f>SUM(E68:E110)</f>
+        <v>91012.14</v>
+      </c>
+      <c r="F111" s="39">
+        <f>SUM(F68:F110)</f>
+        <v>287.39</v>
+      </c>
+      <c r="G111" s="35">
+        <f>SUM(G68:G110)</f>
+        <v>90826</v>
+      </c>
+      <c r="H111" s="30"/>
+    </row>
+    <row r="131" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A131" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="109"/>
+      <c r="C131" s="109"/>
+      <c r="D131" s="109"/>
+      <c r="E131" s="109"/>
+      <c r="F131" s="109"/>
+      <c r="G131" s="109"/>
+      <c r="H131" s="109"/>
+    </row>
+    <row r="132" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A132" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A133" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="22"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="30">
+        <v>21700.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134" s="4">
+        <v>7044.84</v>
+      </c>
+      <c r="F134" s="71"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="29">
+        <f>H133+E134+F134-G134</f>
+        <v>28745.83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="71">
+        <v>140.9</v>
+      </c>
+      <c r="G135" s="34"/>
+      <c r="H135" s="29">
+        <f t="shared" ref="H135:H181" si="2">H134+E135+F135-G135</f>
+        <v>28886.730000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="34">
+        <v>3876</v>
+      </c>
+      <c r="H136" s="29">
+        <f t="shared" si="2"/>
+        <v>25010.730000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="34">
+        <v>2472</v>
+      </c>
+      <c r="H137" s="29">
+        <f t="shared" si="2"/>
+        <v>22538.730000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" s="26">
+        <v>3200.1</v>
+      </c>
+      <c r="F138" s="26"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="29">
+        <f t="shared" si="2"/>
+        <v>25738.83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="34">
+        <v>3360</v>
+      </c>
+      <c r="H139" s="29">
+        <f t="shared" si="2"/>
+        <v>22378.83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="4">
+        <v>7064</v>
+      </c>
+      <c r="F140" s="26"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="29">
+        <f t="shared" si="2"/>
+        <v>29442.83</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="34">
+        <v>4410</v>
+      </c>
+      <c r="H141" s="29">
+        <f t="shared" si="2"/>
+        <v>25032.83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="4">
+        <v>7064</v>
+      </c>
+      <c r="F142" s="71"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="29">
+        <f t="shared" si="2"/>
+        <v>32096.83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="34">
+        <v>2424</v>
+      </c>
+      <c r="H143" s="29">
+        <f t="shared" si="2"/>
+        <v>29672.83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="26">
+        <v>3200.1</v>
+      </c>
+      <c r="F144" s="26"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="29">
+        <f t="shared" si="2"/>
+        <v>32872.93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="34">
+        <v>4236</v>
+      </c>
+      <c r="H145" s="29">
+        <f t="shared" si="2"/>
+        <v>28636.93</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="34">
+        <v>4080</v>
+      </c>
+      <c r="H146" s="29">
+        <f t="shared" si="2"/>
+        <v>24556.93</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="4">
+        <v>7457.9</v>
+      </c>
+      <c r="F147" s="26"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="29">
+        <f t="shared" si="2"/>
+        <v>32014.83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="34">
+        <v>2376</v>
+      </c>
+      <c r="H148" s="29">
+        <f t="shared" si="2"/>
+        <v>29638.83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="34">
+        <v>4272</v>
+      </c>
+      <c r="H149" s="29">
+        <f t="shared" si="2"/>
+        <v>25366.83</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="34">
+        <v>4632</v>
+      </c>
+      <c r="H150" s="29">
+        <f t="shared" si="2"/>
+        <v>20734.830000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="26">
+        <v>3200.18</v>
+      </c>
+      <c r="F151" s="26"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="29">
+        <f t="shared" si="2"/>
+        <v>23935.010000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26">
+        <v>64</v>
+      </c>
+      <c r="G152" s="34"/>
+      <c r="H152" s="29">
+        <f t="shared" si="2"/>
+        <v>23999.010000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="34">
+        <v>4764</v>
+      </c>
+      <c r="H153" s="29">
+        <f t="shared" si="2"/>
+        <v>19235.010000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="29">
+        <f t="shared" si="2"/>
+        <v>19235.010000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="34">
+        <v>2658</v>
+      </c>
+      <c r="H155" s="29">
+        <f t="shared" si="2"/>
+        <v>16577.010000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" s="4">
+        <v>7457.9</v>
+      </c>
+      <c r="F156" s="26"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="29">
+        <f t="shared" si="2"/>
+        <v>24034.910000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="34">
+        <v>1330</v>
+      </c>
+      <c r="H157" s="29">
+        <f t="shared" si="2"/>
+        <v>22704.910000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="34">
+        <v>5742</v>
+      </c>
+      <c r="H158" s="29">
+        <f t="shared" si="2"/>
+        <v>16962.910000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="34">
+        <v>3648</v>
+      </c>
+      <c r="H159" s="29">
+        <f t="shared" si="2"/>
+        <v>13314.910000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" s="4">
+        <v>7457.9</v>
+      </c>
+      <c r="F160" s="26"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="29">
+        <f t="shared" si="2"/>
+        <v>20772.810000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="34">
+        <v>3270</v>
+      </c>
+      <c r="H161" s="29">
+        <f t="shared" si="2"/>
+        <v>17502.810000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="34">
+        <v>2308</v>
+      </c>
+      <c r="H162" s="29">
+        <f t="shared" si="2"/>
+        <v>15194.810000000005</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="34">
+        <v>5022</v>
+      </c>
+      <c r="H163" s="29">
+        <f t="shared" si="2"/>
+        <v>10172.810000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" s="4">
+        <v>7457.9</v>
+      </c>
+      <c r="F164" s="26"/>
+      <c r="G164" s="34"/>
+      <c r="H164" s="29">
+        <f t="shared" si="2"/>
+        <v>17630.710000000006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="34">
+        <v>2544</v>
+      </c>
+      <c r="H165" s="29">
+        <f t="shared" si="2"/>
+        <v>15086.710000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="34">
+        <v>6384</v>
+      </c>
+      <c r="H166" s="29">
+        <f t="shared" si="2"/>
+        <v>8702.7100000000064</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E167" s="4">
+        <f>7457+9.2</f>
+        <v>7466.2</v>
+      </c>
+      <c r="F167" s="26"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="29">
+        <f t="shared" si="2"/>
+        <v>16168.910000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="26">
+        <v>140.9</v>
+      </c>
+      <c r="G168" s="34"/>
+      <c r="H168" s="29">
+        <f t="shared" si="2"/>
+        <v>16309.810000000007</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="4">
+        <v>3042.56</v>
+      </c>
+      <c r="F169" s="26"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="29">
+        <f t="shared" si="2"/>
+        <v>19352.370000000006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="34">
+        <v>4868</v>
+      </c>
+      <c r="H170" s="29">
+        <f t="shared" si="2"/>
+        <v>14484.370000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="34">
+        <v>6694</v>
+      </c>
+      <c r="H171" s="29">
+        <f t="shared" si="2"/>
+        <v>7790.3700000000063</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="4">
+        <v>7064</v>
+      </c>
+      <c r="F172" s="26"/>
+      <c r="G172" s="34"/>
+      <c r="H172" s="29">
+        <f t="shared" si="2"/>
+        <v>14854.370000000006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="34">
+        <v>6030</v>
+      </c>
+      <c r="H173" s="29">
+        <f t="shared" si="2"/>
+        <v>8824.3700000000063</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="4">
+        <v>7064</v>
+      </c>
+      <c r="F174" s="26"/>
+      <c r="G174" s="34"/>
+      <c r="H174" s="29">
+        <f t="shared" si="2"/>
+        <v>15888.370000000006</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E175" s="4">
+        <v>7064</v>
+      </c>
+      <c r="F175" s="26"/>
+      <c r="G175" s="34"/>
+      <c r="H175" s="29">
+        <f t="shared" si="2"/>
+        <v>22952.370000000006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26">
+        <v>141.28</v>
+      </c>
+      <c r="G176" s="34"/>
+      <c r="H176" s="29">
+        <f t="shared" si="2"/>
+        <v>23093.650000000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="34">
+        <v>7736</v>
+      </c>
+      <c r="H177" s="29">
+        <f t="shared" si="2"/>
+        <v>15357.650000000005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B178" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="34">
+        <v>3584</v>
+      </c>
+      <c r="H178" s="29">
+        <f t="shared" si="2"/>
+        <v>11773.650000000005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" s="26">
+        <v>3717</v>
+      </c>
+      <c r="F179" s="26"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="29">
+        <f t="shared" si="2"/>
+        <v>15490.650000000005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180" s="4">
+        <v>7506.7</v>
+      </c>
+      <c r="F180" s="26"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="29">
+        <f t="shared" si="2"/>
+        <v>22997.350000000006</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A181" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="34">
+        <v>4098</v>
+      </c>
+      <c r="H181" s="29">
+        <f t="shared" si="2"/>
+        <v>18899.350000000006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A182" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B182" s="21"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="24">
+        <f>SUM(E133:E181)</f>
+        <v>103529.28</v>
+      </c>
+      <c r="F182" s="39">
+        <f>SUM(F133:F181)</f>
+        <v>487.08000000000004</v>
+      </c>
+      <c r="G182" s="35">
+        <f>SUM(G133:G181)</f>
+        <v>106818</v>
+      </c>
+      <c r="H182" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A131:H131"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
@@ -1189,13 +1189,7 @@
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="K6">
-            <v>149997.5</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1489,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
@@ -4666,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6448,7 +6442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -7773,7 +7767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusharpanja\Documents\GitHub\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650ED39-6076-4CF4-9753-1B70A3417B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="26" r:id="rId1"/>
     <sheet name="May 2021" sheetId="27" r:id="rId2"/>
     <sheet name="June 2021" sheetId="28" r:id="rId3"/>
-    <sheet name="July" sheetId="32" r:id="rId4"/>
-    <sheet name="October 2021" sheetId="31" r:id="rId5"/>
-    <sheet name="July 2021" sheetId="29" r:id="rId6"/>
+    <sheet name="July 2021" sheetId="29" r:id="rId4"/>
+    <sheet name="August 2021" sheetId="31" r:id="rId5"/>
+    <sheet name="September 2021" sheetId="32" r:id="rId6"/>
+    <sheet name="October 2021" sheetId="33" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2021-22'!$A$3:$H$68</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="178">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -506,28 +499,31 @@
     <t>31.07.2021</t>
   </si>
   <si>
+    <t>Gsl-07, 08, 09</t>
+  </si>
+  <si>
+    <t>Gpl-02</t>
+  </si>
+  <si>
+    <t>Gml-03</t>
+  </si>
+  <si>
     <t>Part no. 02, 03, 04, 05</t>
   </si>
   <si>
+    <t>Gsl-07</t>
+  </si>
+  <si>
     <t>Part no. 01, 02, 03, 04, 05</t>
   </si>
   <si>
-    <t>Gsl-07</t>
-  </si>
-  <si>
-    <t>Gsl-07, 08, 09</t>
-  </si>
-  <si>
-    <t>Gpl-02</t>
-  </si>
-  <si>
     <t>Gsl-08</t>
   </si>
   <si>
     <t>Gsl-09</t>
   </si>
   <si>
-    <t>Gml-03</t>
+    <t>5Kg-03, 04, 05, 06</t>
   </si>
   <si>
     <t>5Kg-03</t>
@@ -542,18 +538,48 @@
     <t>5Kg-06</t>
   </si>
   <si>
-    <t>5Kg-03, 04, 05, 06</t>
+    <t>Gsl-10</t>
+  </si>
+  <si>
+    <t>01.08.2021</t>
+  </si>
+  <si>
+    <t>02.08.2021</t>
+  </si>
+  <si>
+    <t>01.09.2021</t>
+  </si>
+  <si>
+    <t>Gsl-11</t>
+  </si>
+  <si>
+    <t>Part no. 01</t>
+  </si>
+  <si>
+    <t>Gml-04</t>
+  </si>
+  <si>
+    <t>01.10.2021</t>
+  </si>
+  <si>
+    <t>5Kg-07</t>
+  </si>
+  <si>
+    <t>Part no. 01, 02</t>
+  </si>
+  <si>
+    <t>Gsl-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,12 +639,6 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1113,6 +1133,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,9 +1160,8 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +1181,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -1182,10 +1204,47 @@
       <sheetData sheetId="2">
         <row r="15">
           <cell r="N15">
-            <v>65436.87</v>
+            <v>65372.87</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="15">
+          <cell r="N15">
+            <v>104683.68</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="15">
+          <cell r="N15">
+            <v>102356.81040000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="April 2021-22"/>
+      <sheetName val="May 2021"/>
+      <sheetName val="June 2021"/>
+      <sheetName val="July 2021"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="15">
           <cell r="N15">
@@ -1193,15 +1252,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
         <row r="15">
           <cell r="N15">
-            <v>43157.370400000007</v>
+            <v>69076.610400000005</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1250,7 +1309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,27 +1341,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,24 +1375,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1527,14 +1550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -1548,19 +1571,19 @@
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1602,7 +1625,7 @@
         <v>52072.93</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>59298.33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -1644,7 +1667,7 @@
         <v>57042.33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1690,7 @@
         <v>64267.73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1709,7 @@
         <v>59443.73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1705,7 +1728,7 @@
         <v>53527.73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1724,7 +1747,7 @@
         <v>46075.73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1770,7 @@
         <v>53301.130000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
@@ -1766,7 +1789,7 @@
         <v>50925.130000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
@@ -1789,7 +1812,7 @@
         <v>58150.530000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +1831,7 @@
         <v>52006.530000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1831,7 +1854,7 @@
         <v>59232.530000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -1850,7 +1873,7 @@
         <v>59377.530000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
@@ -1869,7 +1892,7 @@
         <v>54781.530000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1911,7 @@
         <v>50699.530000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1930,7 @@
         <v>45271.530000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +1949,7 @@
         <v>37317.530000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -1945,7 +1968,7 @@
         <v>31341.530000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -1964,7 +1987,7 @@
         <v>27429.530000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
@@ -1987,7 +2010,7 @@
         <v>34800.330000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
@@ -2006,7 +2029,7 @@
         <v>27102.330000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
@@ -2029,7 +2052,7 @@
         <v>34473.130000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="12" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2071,7 @@
         <v>27441.130000000012</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="12" t="s">
         <v>39</v>
       </c>
@@ -2067,7 +2090,7 @@
         <v>22977.130000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
@@ -2086,7 +2109,7 @@
         <v>16029.130000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
@@ -2116,7 +2139,7 @@
         <v>82345.240000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
@@ -2143,7 +2166,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
@@ -2162,7 +2185,7 @@
         <v>11597.930000000011</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>43</v>
       </c>
@@ -2185,15 +2208,15 @@
         <f t="shared" si="0"/>
         <v>26339.530000000013</v>
       </c>
-      <c r="K31" s="83" t="s">
+      <c r="K31" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="84">
+      <c r="L31" s="85">
         <f>L28-L29</f>
         <v>-1400.0000000000146</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>43</v>
       </c>
@@ -2211,10 +2234,10 @@
         <f t="shared" si="0"/>
         <v>26486.940000000013</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="84"/>
+      <c r="L32" s="85"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>43</v>
       </c>
@@ -2235,7 +2258,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>45</v>
       </c>
@@ -2259,7 +2282,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>45</v>
       </c>
@@ -2279,7 +2302,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="12" t="s">
         <v>48</v>
       </c>
@@ -2303,7 +2326,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="23.25">
       <c r="A37" s="12" t="s">
         <v>48</v>
       </c>
@@ -2336,7 +2359,7 @@
         <v>147.41</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="12" t="s">
         <v>48</v>
       </c>
@@ -2363,7 +2386,7 @@
         <v>144.7808</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="12" t="s">
         <v>50</v>
       </c>
@@ -2388,7 +2411,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="12" t="s">
         <v>51</v>
       </c>
@@ -2410,7 +2433,7 @@
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
@@ -2441,7 +2464,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="12" t="s">
         <v>52</v>
       </c>
@@ -2467,7 +2490,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="12" t="s">
         <v>54</v>
       </c>
@@ -2486,7 +2509,7 @@
         <v>21227.460000000014</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="12"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12"/>
@@ -2499,7 +2522,7 @@
         <v>21227.460000000014</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="23.25">
       <c r="A45" s="12"/>
       <c r="B45" s="20"/>
       <c r="C45" s="12"/>
@@ -2522,7 +2545,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -2540,7 +2563,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2559,7 +2582,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2575,7 +2598,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="41"/>
       <c r="C49" s="12"/>
@@ -2596,7 +2619,7 @@
       </c>
       <c r="L49" s="49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -2616,7 +2639,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
@@ -2629,7 +2652,7 @@
         <v>21227.460000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="20"/>
       <c r="C52" s="12"/>
@@ -2642,7 +2665,7 @@
         <v>21227.460000000014</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="23.25">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
@@ -2665,7 +2688,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2681,7 +2704,7 @@
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -2697,7 +2720,7 @@
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -2713,7 +2736,7 @@
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -2733,7 +2756,7 @@
       </c>
       <c r="L57" s="49"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -2753,7 +2776,7 @@
       </c>
       <c r="L58" s="49"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -2766,7 +2789,7 @@
         <v>21227.460000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -2779,7 +2802,7 @@
         <v>21227.460000000014</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="23.25">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -2802,7 +2825,7 @@
         <v>60.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -2820,7 +2843,7 @@
       </c>
       <c r="L62" s="49"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -2839,7 +2862,7 @@
       </c>
       <c r="L63" s="49"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -2855,7 +2878,7 @@
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -2876,7 +2899,7 @@
       </c>
       <c r="L65" s="49"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2896,7 +2919,7 @@
       </c>
       <c r="L66" s="49"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -2909,7 +2932,7 @@
         <v>21227.460000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>90</v>
       </c>
@@ -2930,7 +2953,7 @@
       </c>
       <c r="H68" s="30"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="2"/>
       <c r="B69" s="13"/>
       <c r="C69" s="9"/>
@@ -2940,7 +2963,7 @@
       <c r="G69" s="36"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="2"/>
       <c r="B70" s="13"/>
       <c r="C70" s="9"/>
@@ -2962,14 +2985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -2986,20 +3009,20 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -3026,7 +3049,7 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>62</v>
       </c>
@@ -3050,7 +3073,7 @@
         <v>43031.329999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="18" t="s">
         <v>62</v>
       </c>
@@ -3081,7 +3104,7 @@
         <v>44431.330000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
@@ -3103,7 +3126,7 @@
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
@@ -3126,15 +3149,15 @@
         <v>29024.48</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="89">
         <f>K3-K4</f>
         <v>-1400.0000000000146</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>63</v>
       </c>
@@ -3157,10 +3180,10 @@
         <v>36263.519999999997</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="88"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
@@ -3180,7 +3203,7 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>64</v>
       </c>
@@ -3204,7 +3227,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
         <v>64</v>
       </c>
@@ -3224,7 +3247,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
@@ -3253,11 +3276,11 @@
       <c r="K11" s="66">
         <v>35224</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="86" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -3283,9 +3306,9 @@
         <f>K11/5</f>
         <v>7044.8</v>
       </c>
-      <c r="L12" s="85"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>66</v>
       </c>
@@ -3314,9 +3337,9 @@
       <c r="K13" s="65">
         <v>4</v>
       </c>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
@@ -3337,9 +3360,9 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
@@ -3369,9 +3392,9 @@
         <f>K11-(K12*K13)</f>
         <v>7044.7999999999993</v>
       </c>
-      <c r="L15" s="85"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>67</v>
       </c>
@@ -3396,7 +3419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>67</v>
       </c>
@@ -3426,7 +3449,7 @@
         <v>35224</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>69</v>
       </c>
@@ -3449,7 +3472,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
@@ -3469,7 +3492,7 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>71</v>
       </c>
@@ -3489,7 +3512,7 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>72</v>
       </c>
@@ -3518,11 +3541,11 @@
       <c r="K21" s="66">
         <v>12170.24</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="86" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>72</v>
       </c>
@@ -3548,9 +3571,9 @@
         <f>K21/4</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="85"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="86"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>73</v>
       </c>
@@ -3575,9 +3598,9 @@
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="85"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>92</v>
       </c>
@@ -3598,9 +3621,9 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="85"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
         <v>93</v>
       </c>
@@ -3630,9 +3653,9 @@
         <f>K21-(K22*K23)</f>
         <v>6085.12</v>
       </c>
-      <c r="L25" s="85"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>93</v>
       </c>
@@ -3661,7 +3684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>93</v>
       </c>
@@ -3692,7 +3715,7 @@
         <v>15213</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>94</v>
       </c>
@@ -3715,7 +3738,7 @@
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12" t="s">
         <v>94</v>
       </c>
@@ -3739,7 +3762,7 @@
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12" t="s">
         <v>94</v>
       </c>
@@ -3759,7 +3782,7 @@
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>77</v>
       </c>
@@ -3784,11 +3807,11 @@
       <c r="K31" s="58">
         <v>16000.7</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="86" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>78</v>
       </c>
@@ -3814,9 +3837,9 @@
         <f>K31/5</f>
         <v>3200.1400000000003</v>
       </c>
-      <c r="L32" s="85"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>79</v>
       </c>
@@ -3845,9 +3868,9 @@
       <c r="K33" s="65">
         <v>2</v>
       </c>
-      <c r="L33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>79</v>
       </c>
@@ -3872,9 +3895,9 @@
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
         <v>79</v>
       </c>
@@ -3900,9 +3923,9 @@
         <f>K31-(K32*K33)</f>
         <v>9600.42</v>
       </c>
-      <c r="L35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>80</v>
       </c>
@@ -3927,7 +3950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>81</v>
       </c>
@@ -3963,7 +3986,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>81</v>
       </c>
@@ -3987,7 +4010,7 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
@@ -4008,7 +4031,7 @@
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12" t="s">
         <v>83</v>
       </c>
@@ -4029,7 +4052,7 @@
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
@@ -4059,11 +4082,11 @@
         <f>21391.38</f>
         <v>21391.38</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="86" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>84</v>
       </c>
@@ -4089,9 +4112,9 @@
         <f>K41/3</f>
         <v>7130.46</v>
       </c>
-      <c r="L42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>85</v>
       </c>
@@ -4116,9 +4139,9 @@
       <c r="K43" s="65">
         <v>3</v>
       </c>
-      <c r="L43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>86</v>
       </c>
@@ -4139,9 +4162,9 @@
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
         <v>87</v>
       </c>
@@ -4167,9 +4190,9 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="20"/>
       <c r="C46" s="12"/>
@@ -4188,7 +4211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -4213,7 +4236,7 @@
         <v>35652.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -4230,7 +4253,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="12"/>
       <c r="B49" s="20"/>
       <c r="C49" s="12"/>
@@ -4244,7 +4267,7 @@
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="12"/>
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
@@ -4258,7 +4281,7 @@
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -4272,7 +4295,7 @@
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -4290,7 +4313,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="12"/>
       <c r="B53" s="41"/>
       <c r="C53" s="12"/>
@@ -4308,7 +4331,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -4322,7 +4345,7 @@
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -4336,7 +4359,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="20"/>
       <c r="C56" s="12"/>
@@ -4350,7 +4373,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -4364,7 +4387,7 @@
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -4378,7 +4401,7 @@
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="20"/>
       <c r="C59" s="12"/>
@@ -4392,7 +4415,7 @@
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="20"/>
       <c r="C60" s="12"/>
@@ -4406,7 +4429,7 @@
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -4420,7 +4443,7 @@
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -4434,7 +4457,7 @@
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -4448,7 +4471,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -4462,7 +4485,7 @@
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -4476,7 +4499,7 @@
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -4490,7 +4513,7 @@
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -4504,7 +4527,7 @@
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -4518,7 +4541,7 @@
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -4532,7 +4555,7 @@
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4546,7 +4569,7 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -4560,7 +4583,7 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>89</v>
       </c>
@@ -4582,7 +4605,7 @@
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -4593,7 +4616,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -4604,87 +4627,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>
@@ -4704,14 +4727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
@@ -4728,20 +4751,20 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -4768,7 +4791,7 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>91</v>
       </c>
@@ -4789,10 +4812,10 @@
       </c>
       <c r="K3" s="75">
         <f>'[1]June 2021'!$N$15</f>
-        <v>65436.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65372.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>91</v>
       </c>
@@ -4820,10 +4843,10 @@
       </c>
       <c r="K4" s="77">
         <f>H71+K15+K35+K25+K45</f>
-        <v>65436.869999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66836.87000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
@@ -4845,7 +4868,7 @@
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="18" t="s">
         <v>91</v>
       </c>
@@ -4864,15 +4887,15 @@
         <v>25010.730000000003</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="89">
         <f>K3-K4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-1464.0000000000073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="18" t="s">
         <v>96</v>
       </c>
@@ -4891,10 +4914,10 @@
         <v>22538.730000000003</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="88"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="18" t="s">
         <v>97</v>
       </c>
@@ -4918,7 +4941,7 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="18" t="s">
         <v>97</v>
       </c>
@@ -4938,7 +4961,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
         <v>98</v>
       </c>
@@ -4962,7 +4985,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
@@ -4987,11 +5010,11 @@
       <c r="K11" s="66">
         <v>37533.699999999997</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>99</v>
       </c>
@@ -5021,9 +5044,9 @@
         <f>K11/5</f>
         <v>7506.74</v>
       </c>
-      <c r="L12" s="85"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>99</v>
       </c>
@@ -5048,9 +5071,9 @@
       <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>100</v>
       </c>
@@ -5075,9 +5098,9 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
@@ -5103,9 +5126,9 @@
         <f>K11-(K12*K13)</f>
         <v>30026.959999999999</v>
       </c>
-      <c r="L15" s="85"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>101</v>
       </c>
@@ -5130,7 +5153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>102</v>
       </c>
@@ -5164,7 +5187,7 @@
         <v>37533.699999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>102</v>
       </c>
@@ -5187,7 +5210,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>103</v>
       </c>
@@ -5207,7 +5230,7 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>104</v>
       </c>
@@ -5227,7 +5250,7 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>105</v>
       </c>
@@ -5256,11 +5279,11 @@
       <c r="K21" s="66">
         <v>6085.12</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="86" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>105</v>
       </c>
@@ -5286,9 +5309,9 @@
         <f>K21/2</f>
         <v>3042.56</v>
       </c>
-      <c r="L22" s="85"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="86"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>105</v>
       </c>
@@ -5313,9 +5336,9 @@
       <c r="K23" s="65">
         <v>1</v>
       </c>
-      <c r="L23" s="85"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>106</v>
       </c>
@@ -5326,19 +5349,17 @@
       <c r="D24" s="12"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="34">
-        <v>1400</v>
-      </c>
+      <c r="G24" s="34"/>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>17835.010000000002</v>
+        <v>19235.010000000002</v>
       </c>
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="85"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
         <v>107</v>
       </c>
@@ -5354,7 +5375,7 @@
       </c>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>15177.010000000002</v>
+        <v>16577.010000000002</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -5364,9 +5385,9 @@
         <f>K21-(K22*K23)</f>
         <v>3042.56</v>
       </c>
-      <c r="L25" s="85"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -5386,7 +5407,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>22634.910000000003</v>
+        <v>24034.910000000003</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
@@ -5395,7 +5416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>108</v>
       </c>
@@ -5411,7 +5432,7 @@
       </c>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>21304.910000000003</v>
+        <v>22704.910000000003</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
@@ -5426,7 +5447,7 @@
         <v>15213</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>113</v>
       </c>
@@ -5442,14 +5463,14 @@
       </c>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>15562.910000000003</v>
+        <v>16962.910000000003</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12" t="s">
         <v>114</v>
       </c>
@@ -5465,11 +5486,11 @@
       </c>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>11914.910000000003</v>
+        <v>13314.910000000003</v>
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12" t="s">
         <v>115</v>
       </c>
@@ -5489,11 +5510,11 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>19372.810000000005</v>
+        <v>20772.810000000005</v>
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>115</v>
       </c>
@@ -5509,7 +5530,7 @@
       </c>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>16102.810000000005</v>
+        <v>17502.810000000005</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
@@ -5518,11 +5539,11 @@
       <c r="K31" s="58">
         <v>18585</v>
       </c>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="86" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>116</v>
       </c>
@@ -5538,7 +5559,7 @@
       </c>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>13794.810000000005</v>
+        <v>15194.810000000005</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -5548,9 +5569,9 @@
         <f>K31/5</f>
         <v>3717</v>
       </c>
-      <c r="L32" s="85"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>117</v>
       </c>
@@ -5566,7 +5587,7 @@
       </c>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>8772.8100000000049</v>
+        <v>10172.810000000005</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
@@ -5575,9 +5596,9 @@
       <c r="K33" s="65">
         <v>1</v>
       </c>
-      <c r="L33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>118</v>
       </c>
@@ -5597,14 +5618,14 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>16230.710000000005</v>
+        <v>17630.710000000006</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12" t="s">
         <v>118</v>
       </c>
@@ -5620,7 +5641,7 @@
       </c>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>13686.710000000005</v>
+        <v>15086.710000000006</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -5630,9 +5651,9 @@
         <f>K31-(K32*K33)</f>
         <v>14868</v>
       </c>
-      <c r="L35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>119</v>
       </c>
@@ -5648,7 +5669,7 @@
       </c>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>7302.7100000000046</v>
+        <v>8702.7100000000064</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
@@ -5657,7 +5678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>120</v>
       </c>
@@ -5678,7 +5699,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>14768.910000000003</v>
+        <v>16168.910000000007</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -5693,7 +5714,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>120</v>
       </c>
@@ -5709,7 +5730,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>14909.810000000003</v>
+        <v>16309.810000000007</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -5717,7 +5738,7 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12" t="s">
         <v>120</v>
       </c>
@@ -5737,12 +5758,12 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>17952.370000000003</v>
+        <v>19352.370000000006</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12" t="s">
         <v>120</v>
       </c>
@@ -5758,12 +5779,12 @@
       </c>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>13084.370000000003</v>
+        <v>14484.370000000006</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>121</v>
       </c>
@@ -5779,7 +5800,7 @@
       </c>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>6390.3700000000026</v>
+        <v>7790.3700000000063</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
@@ -5788,11 +5809,11 @@
       <c r="K41" s="66">
         <v>35320</v>
       </c>
-      <c r="L41" s="85" t="s">
+      <c r="L41" s="86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>123</v>
       </c>
@@ -5812,7 +5833,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>13454.370000000003</v>
+        <v>14854.370000000006</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
@@ -5822,9 +5843,9 @@
         <f>K41/5</f>
         <v>7064</v>
       </c>
-      <c r="L42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
         <v>123</v>
       </c>
@@ -5840,7 +5861,7 @@
       </c>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>7424.3700000000026</v>
+        <v>8824.3700000000063</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
@@ -5849,9 +5870,9 @@
       <c r="K43" s="65">
         <v>5</v>
       </c>
-      <c r="L43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>127</v>
       </c>
@@ -5871,14 +5892,14 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>14488.370000000003</v>
+        <v>15888.370000000006</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12" t="s">
         <v>124</v>
       </c>
@@ -5898,7 +5919,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>21552.370000000003</v>
+        <v>22952.370000000006</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -5908,9 +5929,9 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12" t="s">
         <v>124</v>
       </c>
@@ -5926,7 +5947,7 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>21693.65</v>
+        <v>23093.650000000005</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
@@ -5935,7 +5956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12" t="s">
         <v>124</v>
       </c>
@@ -5951,7 +5972,7 @@
       </c>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>13957.650000000001</v>
+        <v>15357.650000000005</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -5965,7 +5986,7 @@
         <v>35320</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>125</v>
       </c>
@@ -5981,14 +6002,14 @@
       </c>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>10373.650000000001</v>
+        <v>11773.650000000005</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="12" t="s">
         <v>125</v>
       </c>
@@ -5996,7 +6017,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>24</v>
@@ -6008,11 +6029,11 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>14090.650000000001</v>
+        <v>15490.650000000005</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="12" t="s">
         <v>126</v>
       </c>
@@ -6032,11 +6053,11 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>21597.350000000002</v>
+        <v>22997.350000000006</v>
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="12" t="s">
         <v>126</v>
       </c>
@@ -6052,11 +6073,11 @@
       </c>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -6066,7 +6087,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="80">
         <f t="shared" si="0"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -6074,7 +6095,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
@@ -6084,7 +6105,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" ref="H53:H71" si="1">H52+E53+F53-G53</f>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -6092,7 +6113,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
@@ -6102,11 +6123,11 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -6116,11 +6137,11 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -6130,11 +6151,11 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -6144,11 +6165,11 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -6158,11 +6179,11 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -6172,11 +6193,11 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -6186,11 +6207,11 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -6200,11 +6221,11 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -6214,11 +6235,11 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -6228,11 +6249,11 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -6242,11 +6263,11 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -6256,11 +6277,11 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -6270,11 +6291,11 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -6284,11 +6305,11 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -6298,11 +6319,11 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -6312,11 +6333,11 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -6326,11 +6347,11 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -6340,11 +6361,11 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>17499.350000000002</v>
+        <v>18899.350000000006</v>
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
@@ -6361,12 +6382,12 @@
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>108218</v>
+        <v>106818</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -6377,7 +6398,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -6388,87 +6409,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>
@@ -6488,14 +6509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F008B2DC-B8AA-4709-8A25-52372F49EEA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="6" customWidth="1"/>
@@ -6512,20 +6533,20 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -6552,7 +6573,7 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>91</v>
       </c>
@@ -6572,11 +6593,11 @@
         <v>9</v>
       </c>
       <c r="K3" s="75">
-        <f>'[1]July 2021'!$N$15</f>
+        <f>'[2]July 2021'!$N$15</f>
         <v>223476.00800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="81" t="s">
         <v>128</v>
       </c>
@@ -6603,7 +6624,7 @@
         <v>223798.19200000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="81" t="s">
         <v>129</v>
       </c>
@@ -6625,7 +6646,7 @@
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="81" t="s">
         <v>130</v>
       </c>
@@ -6644,15 +6665,15 @@
         <v>7395.3499999999985</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="89">
         <f>K3-K4</f>
         <v>-322.18399999997928</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="81" t="s">
         <v>131</v>
       </c>
@@ -6671,10 +6692,10 @@
         <v>4077.3499999999985</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="88"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="81" t="s">
         <v>132</v>
       </c>
@@ -6694,7 +6715,7 @@
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="81" t="s">
         <v>133</v>
       </c>
@@ -6714,7 +6735,7 @@
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
         <v>134</v>
       </c>
@@ -6734,7 +6755,7 @@
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
@@ -6759,11 +6780,11 @@
       <c r="K11" s="66">
         <v>113109.9</v>
       </c>
-      <c r="L11" s="85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>136</v>
       </c>
@@ -6789,9 +6810,9 @@
         <f>K11/15</f>
         <v>7540.66</v>
       </c>
-      <c r="L12" s="85"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>137</v>
       </c>
@@ -6816,9 +6837,9 @@
       <c r="K13" s="65">
         <v>15</v>
       </c>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>138</v>
       </c>
@@ -6839,9 +6860,9 @@
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>139</v>
       </c>
@@ -6867,9 +6888,9 @@
         <f>K11-(K12*K13)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="85"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>140</v>
       </c>
@@ -6894,7 +6915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>141</v>
       </c>
@@ -6925,7 +6946,7 @@
         <v>113109.90000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>142</v>
       </c>
@@ -6948,7 +6969,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>143</v>
       </c>
@@ -6968,7 +6989,7 @@
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>144</v>
       </c>
@@ -6988,7 +7009,7 @@
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>145</v>
       </c>
@@ -7013,11 +7034,11 @@
       <c r="K21" s="66">
         <v>18143.8</v>
       </c>
-      <c r="L21" s="85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>146</v>
       </c>
@@ -7043,9 +7064,9 @@
         <f>K21/5</f>
         <v>3628.7599999999998</v>
       </c>
-      <c r="L22" s="85"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="86"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>147</v>
       </c>
@@ -7070,9 +7091,9 @@
       <c r="K23" s="65">
         <v>5</v>
       </c>
-      <c r="L23" s="85"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12" t="s">
         <v>148</v>
       </c>
@@ -7093,9 +7114,9 @@
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="85"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12" t="s">
         <v>149</v>
       </c>
@@ -7121,9 +7142,9 @@
         <f>K21-(K22*K23)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="85"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>150</v>
       </c>
@@ -7148,7 +7169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>151</v>
       </c>
@@ -7179,7 +7200,7 @@
         <v>18143.8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
@@ -7202,7 +7223,7 @@
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12" t="s">
         <v>153</v>
       </c>
@@ -7222,7 +7243,7 @@
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7236,7 +7257,7 @@
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7255,11 +7276,11 @@
       <c r="K31" s="58">
         <v>9214.7999999999993</v>
       </c>
-      <c r="L31" s="85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
         <v>21</v>
@@ -7268,7 +7289,7 @@
         <v>122</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E32" s="26">
         <v>30026.959999999999</v>
@@ -7289,18 +7310,18 @@
         <f>K31/5</f>
         <v>1842.9599999999998</v>
       </c>
-      <c r="L32" s="85"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E33" s="4">
         <v>37522.300000000003</v>
@@ -7321,18 +7342,18 @@
       <c r="K33" s="65">
         <v>5</v>
       </c>
-      <c r="L33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="E34" s="4">
         <v>37929.300000000003</v>
@@ -7349,18 +7370,18 @@
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E35" s="4">
         <v>37658.300000000003</v>
@@ -7382,9 +7403,9 @@
         <f>K31-(K32*K33)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -7403,7 +7424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>21</v>
@@ -7438,16 +7459,16 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E38" s="4">
         <v>18143.8</v>
@@ -7466,7 +7487,7 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -7481,7 +7502,7 @@
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
         <v>21</v>
@@ -7490,7 +7511,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E40" s="4">
         <v>14868</v>
@@ -7506,16 +7527,16 @@
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E41" s="4">
         <v>9214.7999999999993</v>
@@ -7536,11 +7557,11 @@
       <c r="K41" s="66">
         <v>145455.79999999999</v>
       </c>
-      <c r="L41" s="85" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -7560,18 +7581,18 @@
         <f>K41/20</f>
         <v>7272.7899999999991</v>
       </c>
-      <c r="L42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E43" s="4">
         <f>35881-28</f>
@@ -7593,24 +7614,24 @@
       <c r="K43" s="65">
         <v>20</v>
       </c>
-      <c r="L43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E44" s="4">
         <v>37721.5</v>
       </c>
       <c r="F44" s="26">
-        <f t="shared" ref="F43:F46" si="1">E44*0.4%</f>
+        <f t="shared" ref="F44:F46" si="1">E44*0.4%</f>
         <v>150.886</v>
       </c>
       <c r="G44" s="34"/>
@@ -7621,18 +7642,18 @@
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E45" s="4">
         <v>35956.5</v>
@@ -7654,18 +7675,18 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E46" s="4">
         <v>35924.800000000003</v>
@@ -7686,7 +7707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="20"/>
       <c r="C47" s="12"/>
@@ -7711,7 +7732,7 @@
         <v>145455.79999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -7728,12 +7749,12 @@
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="91"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="26"/>
       <c r="G49" s="34"/>
       <c r="H49" s="29">
@@ -7742,12 +7763,12 @@
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="91"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="26"/>
       <c r="G50" s="34"/>
       <c r="H50" s="29">
@@ -7756,12 +7777,12 @@
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="91"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="26"/>
       <c r="G51" s="34"/>
       <c r="H51" s="29">
@@ -7770,12 +7791,12 @@
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="91"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="42"/>
       <c r="G52" s="34"/>
       <c r="H52" s="29">
@@ -7788,12 +7809,12 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="91"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="26"/>
       <c r="G53" s="34"/>
       <c r="H53" s="29">
@@ -7806,12 +7827,12 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="91"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="26"/>
       <c r="G54" s="34"/>
       <c r="H54" s="29">
@@ -7820,7 +7841,7 @@
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -7834,7 +7855,7 @@
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -7848,7 +7869,7 @@
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -7862,7 +7883,7 @@
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -7876,7 +7897,7 @@
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -7890,7 +7911,7 @@
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -7904,7 +7925,7 @@
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -7918,7 +7939,7 @@
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -7932,7 +7953,7 @@
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -7946,7 +7967,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -7960,7 +7981,7 @@
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -7974,7 +7995,7 @@
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -7988,7 +8009,7 @@
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -8002,7 +8023,7 @@
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -8016,7 +8037,7 @@
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -8030,7 +8051,7 @@
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -8044,7 +8065,7 @@
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -8058,7 +8079,7 @@
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
@@ -8080,7 +8101,7 @@
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -8091,7 +8112,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -8102,124 +8123,123 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L31:L35"/>
     <mergeCell ref="L41:L45"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L11:L15"/>
     <mergeCell ref="L21:L25"/>
-    <mergeCell ref="L31:L35"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E590B364-AA03-416E-A788-4D6C7A6702EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="27" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="32" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="32" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" customWidth="1"/>
@@ -8227,20 +8247,20 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -8267,9 +8287,9 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>8</v>
@@ -8280,28 +8300,32 @@
       <c r="F3" s="71"/>
       <c r="G3" s="67"/>
       <c r="H3" s="30">
-        <v>21700.99</v>
+        <v>223798.19</v>
       </c>
       <c r="I3" s="54"/>
       <c r="J3" s="74" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="75">
-        <f>'[1]October 2021'!$N$15</f>
-        <v>43157.370400000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="12"/>
+        <f>'[1]August 2021'!$N$15</f>
+        <v>104683.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="4"/>
       <c r="F4" s="71"/>
       <c r="G4" s="34"/>
       <c r="H4" s="29">
-        <f>H3+E4+F4-G4</f>
-        <v>21700.99</v>
+        <f t="shared" ref="H4:H67" si="0">H3+E4+F4-G4</f>
+        <v>223798.19</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="76" t="s">
@@ -8309,28 +8333,31 @@
       </c>
       <c r="K4" s="77">
         <f>H71+K15+K35+K25+K45</f>
-        <v>69638.509999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12"/>
+        <v>104978.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A5" s="81"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="4"/>
       <c r="F5" s="71"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="34">
+        <f>118820</f>
+        <v>118820</v>
+      </c>
       <c r="H5" s="29">
-        <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
-        <v>21700.99</v>
+        <f t="shared" si="0"/>
+        <v>104978.19</v>
       </c>
       <c r="I5" s="54"/>
       <c r="J5" s="78"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="4"/>
@@ -8338,19 +8365,19 @@
       <c r="G6" s="34"/>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="89">
         <f>K3-K4</f>
-        <v>-26481.139599999988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+        <v>-294.51000000000931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="81"/>
       <c r="B7" s="20"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8359,14 +8386,14 @@
       <c r="G7" s="34"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="89"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="81"/>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8375,12 +8402,12 @@
       <c r="G8" s="34"/>
       <c r="H8" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="81"/>
       <c r="B9" s="20"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8389,13 +8416,13 @@
       <c r="G9" s="34"/>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
@@ -8403,13 +8430,13 @@
       <c r="G10" s="34"/>
       <c r="H10" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="26"/>
@@ -8417,22 +8444,22 @@
       <c r="G11" s="34"/>
       <c r="H11" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="57" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="66">
-        <v>37533.699999999997</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113109.9</v>
+      </c>
+      <c r="L11" s="86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
@@ -8440,21 +8467,21 @@
       <c r="G12" s="34"/>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="51" t="s">
         <v>57</v>
       </c>
       <c r="K12" s="50">
-        <f>K11/5</f>
-        <v>7506.74</v>
-      </c>
-      <c r="L12" s="85"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>K11/15</f>
+        <v>7540.66</v>
+      </c>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="26"/>
@@ -8462,18 +8489,18 @@
       <c r="G13" s="34"/>
       <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="51" t="s">
         <v>60</v>
       </c>
       <c r="K13" s="65">
-        <v>1</v>
-      </c>
-      <c r="L13" s="85"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="12"/>
       <c r="B14" s="20"/>
       <c r="C14" s="12"/>
@@ -8483,14 +8510,14 @@
       <c r="G14" s="34"/>
       <c r="H14" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="60"/>
       <c r="K14" s="61"/>
-      <c r="L14" s="85"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="12"/>
       <c r="B15" s="20"/>
       <c r="C15" s="12"/>
@@ -8500,7 +8527,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="63" t="s">
@@ -8508,13 +8535,13 @@
       </c>
       <c r="K15" s="62">
         <f>K11-(K12*K13)</f>
-        <v>30026.959999999999</v>
-      </c>
-      <c r="L15" s="85"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="26"/>
@@ -8522,7 +8549,7 @@
       <c r="G16" s="34"/>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="49"/>
@@ -8531,7 +8558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="20"/>
       <c r="C17" s="12"/>
@@ -8541,7 +8568,7 @@
       <c r="G17" s="34"/>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I17" s="54"/>
       <c r="J17" s="56" t="s">
@@ -8549,13 +8576,14 @@
       </c>
       <c r="K17" s="66">
         <f>L17*0.4%</f>
-        <v>150.13479999999998</v>
+        <v>452.43960000000004</v>
       </c>
       <c r="L17" s="73">
-        <v>37533.699999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>37522.3+37929.3+37658.3</f>
+        <v>113109.90000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="20"/>
       <c r="C18" s="12"/>
@@ -8565,14 +8593,14 @@
       <c r="G18" s="34"/>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I18" s="54"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="20"/>
       <c r="C19" s="12"/>
@@ -8582,11 +8610,11 @@
       <c r="G19" s="34"/>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="20"/>
       <c r="C20" s="12"/>
@@ -8596,13 +8624,13 @@
       <c r="G20" s="34"/>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="26"/>
@@ -8610,20 +8638,20 @@
       <c r="G21" s="34"/>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="57" t="s">
         <v>56</v>
       </c>
       <c r="K21" s="66">
-        <v>6085.12</v>
-      </c>
-      <c r="L21" s="85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18143.8</v>
+      </c>
+      <c r="L21" s="86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="20"/>
       <c r="C22" s="12"/>
@@ -8633,19 +8661,19 @@
       <c r="G22" s="34"/>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I22" s="54"/>
       <c r="J22" s="51" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="50">
-        <f>K21/2</f>
-        <v>3042.56</v>
-      </c>
-      <c r="L22" s="85"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>K21/5</f>
+        <v>3628.7599999999998</v>
+      </c>
+      <c r="L22" s="86"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="20"/>
       <c r="C23" s="12"/>
@@ -8655,18 +8683,18 @@
       <c r="G23" s="34"/>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I23" s="54"/>
       <c r="J23" s="51" t="s">
         <v>60</v>
       </c>
       <c r="K23" s="65">
-        <v>1</v>
-      </c>
-      <c r="L23" s="85"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="12"/>
       <c r="B24" s="20"/>
       <c r="C24" s="12"/>
@@ -8676,14 +8704,14 @@
       <c r="G24" s="34"/>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I24" s="54"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="85"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12"/>
       <c r="B25" s="20"/>
       <c r="C25" s="12"/>
@@ -8693,7 +8721,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="63" t="s">
@@ -8701,13 +8729,13 @@
       </c>
       <c r="K25" s="62">
         <f>K21-(K22*K23)</f>
-        <v>3042.56</v>
-      </c>
-      <c r="L25" s="85"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="4"/>
@@ -8715,7 +8743,7 @@
       <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I26" s="54"/>
       <c r="J26" s="49"/>
@@ -8724,9 +8752,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="26"/>
@@ -8734,7 +8762,7 @@
       <c r="G27" s="34"/>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="56" t="s">
@@ -8742,16 +8770,16 @@
       </c>
       <c r="K27" s="66">
         <f>L27*0.4%</f>
-        <v>60.852000000000004</v>
+        <v>72.575199999999995</v>
       </c>
       <c r="L27" s="73">
-        <f>3042.6*5</f>
-        <v>15213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>18143.8</f>
+        <v>18143.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="26"/>
@@ -8759,16 +8787,16 @@
       <c r="G28" s="34"/>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I28" s="54"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="4"/>
@@ -8776,11 +8804,11 @@
       <c r="G29" s="34"/>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8790,11 +8818,11 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -8804,30 +8832,30 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="57" t="s">
         <v>56</v>
       </c>
       <c r="K31" s="58">
-        <v>18585</v>
-      </c>
-      <c r="L31" s="85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9214.7999999999993</v>
+      </c>
+      <c r="L31" s="86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="51" t="s">
@@ -8835,11 +8863,11 @@
       </c>
       <c r="K32" s="50">
         <f>K31/5</f>
-        <v>3717</v>
-      </c>
-      <c r="L32" s="85"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1842.9599999999998</v>
+      </c>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -8849,18 +8877,18 @@
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="51" t="s">
         <v>60</v>
       </c>
       <c r="K33" s="65">
-        <v>1</v>
-      </c>
-      <c r="L33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -8870,24 +8898,24 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I34" s="54"/>
       <c r="J34" s="60"/>
       <c r="K34" s="61"/>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="26"/>
       <c r="G35" s="34"/>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="63" t="s">
@@ -8895,11 +8923,11 @@
       </c>
       <c r="K35" s="62">
         <f>K31-(K32*K33)</f>
-        <v>14868</v>
-      </c>
-      <c r="L35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -8909,7 +8937,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I36" s="54"/>
       <c r="J36" s="49"/>
@@ -8918,7 +8946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -8928,7 +8956,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I37" s="54"/>
       <c r="J37" s="56" t="s">
@@ -8936,14 +8964,14 @@
       </c>
       <c r="K37" s="59">
         <f>L37*0.4%</f>
-        <v>74.34</v>
+        <v>36.859200000000001</v>
       </c>
       <c r="L37" s="73">
-        <v>18585</v>
+        <v>9214.7999999999993</v>
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -8953,7 +8981,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I38" s="54"/>
       <c r="J38" s="49"/>
@@ -8961,7 +8989,7 @@
       <c r="L38" s="72"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -8971,12 +8999,12 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I39" s="54"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -8986,14 +9014,14 @@
       <c r="G40" s="34"/>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I40" s="54"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="4"/>
@@ -9001,20 +9029,20 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I41" s="54"/>
       <c r="J41" s="57" t="s">
         <v>56</v>
       </c>
       <c r="K41" s="66">
-        <v>35320</v>
-      </c>
-      <c r="L41" s="85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145455.79999999999</v>
+      </c>
+      <c r="L41" s="86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -9024,19 +9052,19 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I42" s="54"/>
       <c r="J42" s="51" t="s">
         <v>57</v>
       </c>
       <c r="K42" s="50">
-        <f>K41/5</f>
-        <v>7064</v>
-      </c>
-      <c r="L42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>K41/20</f>
+        <v>7272.7899999999991</v>
+      </c>
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -9046,20 +9074,20 @@
       <c r="G43" s="34"/>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="51" t="s">
         <v>60</v>
       </c>
       <c r="K43" s="65">
-        <v>5</v>
-      </c>
-      <c r="L43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="4"/>
@@ -9067,16 +9095,16 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="61"/>
-      <c r="L44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="4"/>
@@ -9084,7 +9112,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I45" s="54"/>
       <c r="J45" s="63" t="s">
@@ -9094,19 +9122,19 @@
         <f>K41-(K42*K43)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="26"/>
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I46" s="54"/>
       <c r="J46" s="49"/>
@@ -9115,7 +9143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="20"/>
       <c r="C47" s="12"/>
@@ -9125,7 +9153,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="56" t="s">
@@ -9133,13 +9161,14 @@
       </c>
       <c r="K47" s="59">
         <f>L47*0.4%</f>
-        <v>141.28</v>
+        <v>581.82319999999993</v>
       </c>
       <c r="L47" s="73">
-        <v>35320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>35853+37721.5+35956.5+35924.8</f>
+        <v>145455.79999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -9149,66 +9178,66 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I48" s="54"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="72"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="26"/>
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="26"/>
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="25"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="26"/>
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="25"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="42"/>
       <c r="G52" s="34"/>
-      <c r="H52" s="80">
-        <f t="shared" si="0"/>
-        <v>21700.99</v>
+      <c r="H52" s="29">
+        <f t="shared" si="0"/>
+        <v>104978.19</v>
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="64"/>
@@ -9216,17 +9245,17 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="26"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="26"/>
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="64"/>
@@ -9234,21 +9263,21 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="40"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="26"/>
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
       <c r="B55" s="20"/>
       <c r="C55" s="12"/>
@@ -9258,11 +9287,11 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -9272,11 +9301,11 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -9286,11 +9315,11 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -9300,11 +9329,11 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -9314,11 +9343,11 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -9328,11 +9357,11 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -9342,11 +9371,11 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -9356,11 +9385,11 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -9370,11 +9399,11 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -9384,11 +9413,11 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -9398,11 +9427,11 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -9412,11 +9441,14 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I66" s="54"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>223798.19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -9426,11 +9458,11 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -9439,12 +9471,12 @@
       <c r="F68" s="26"/>
       <c r="G68" s="34"/>
       <c r="H68" s="29">
-        <f t="shared" si="0"/>
-        <v>21700.99</v>
+        <f t="shared" ref="H68:H71" si="1">H67+E68+F68-G68</f>
+        <v>104978.19</v>
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -9453,12 +9485,12 @@
       <c r="F69" s="26"/>
       <c r="G69" s="34"/>
       <c r="H69" s="29">
-        <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>21700.99</v>
+        <f t="shared" si="1"/>
+        <v>104978.19</v>
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -9468,11 +9500,11 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -9482,11 +9514,11 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>21700.99</v>
+        <v>104978.19</v>
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
@@ -9503,12 +9535,12 @@
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>0</v>
+        <v>118820</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -9519,7 +9551,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -9530,87 +9562,87 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>
@@ -9630,40 +9662,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="27" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="32" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -9690,9 +9726,9 @@
       </c>
       <c r="I2" s="53"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
-        <v>128</v>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>8</v>
@@ -9702,16 +9738,20 @@
       <c r="E3" s="2"/>
       <c r="F3" s="71"/>
       <c r="G3" s="67"/>
-      <c r="H3" s="90">
-        <f>'June 2021'!H71</f>
-        <v>17499.350000000002</v>
+      <c r="H3" s="30">
+        <v>104978.19</v>
       </c>
       <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
-        <v>128</v>
-      </c>
+      <c r="J3" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="75">
+        <f>'[2]September 2021'!$N$15</f>
+        <v>69076.610400000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A4" s="18"/>
       <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
@@ -9720,515 +9760,519 @@
       <c r="E4" s="4"/>
       <c r="F4" s="71"/>
       <c r="G4" s="34">
-        <v>2592</v>
+        <v>126002</v>
       </c>
       <c r="H4" s="29">
-        <f>H3+E4+F4-G4</f>
-        <v>14907.350000000002</v>
+        <f t="shared" ref="H4:H67" si="0">H3+E4+F4-G4</f>
+        <v>-21023.809999999998</v>
       </c>
       <c r="I4" s="54"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="77">
+        <f>H71+K15+K35+K25+K45</f>
+        <v>69257.680399999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A5" s="81"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="4"/>
       <c r="F5" s="71"/>
-      <c r="G5" s="34">
-        <v>3384</v>
-      </c>
+      <c r="G5" s="34"/>
       <c r="H5" s="29">
-        <f t="shared" ref="H5:H68" si="0">H4+E5+F5-G5</f>
-        <v>11523.350000000002</v>
+        <f t="shared" si="0"/>
+        <v>-21023.809999999998</v>
       </c>
       <c r="I5" s="54"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="34">
-        <v>4128</v>
-      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="4">
+        <v>37635.599999999999</v>
+      </c>
+      <c r="F6" s="26">
+        <v>150.54</v>
+      </c>
+      <c r="G6" s="34"/>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>7395.3500000000022</v>
+        <v>16762.330000000002</v>
       </c>
       <c r="I6" s="54"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="26"/>
+      <c r="J6" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="89">
+        <f>K3-K4</f>
+        <v>-181.06999999999243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="81"/>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="26">
+        <v>7177.3</v>
+      </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="34">
-        <v>3318</v>
-      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>4077.3500000000022</v>
+        <v>23939.63</v>
       </c>
       <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J7" s="88"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="81"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="34">
-        <v>5612</v>
-      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="29">
         <f t="shared" si="0"/>
-        <v>-1534.6499999999978</v>
+        <v>23939.63</v>
       </c>
       <c r="I8" s="54"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="34">
-        <v>2400</v>
-      </c>
+    <row r="9" spans="1:12">
+      <c r="A9" s="81"/>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="4">
+        <v>16542.599999999999</v>
+      </c>
+      <c r="F9" s="26">
+        <f>E9*0.4%</f>
+        <v>66.170400000000001</v>
+      </c>
+      <c r="G9" s="34"/>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>-3934.6499999999978</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="10" spans="1:12">
+      <c r="A10" s="12"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="34">
-        <v>5138</v>
-      </c>
+      <c r="G10" s="34"/>
       <c r="H10" s="29">
         <f t="shared" si="0"/>
-        <v>-9072.6499999999978</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I10" s="54"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="34">
-        <v>6958</v>
-      </c>
+      <c r="G11" s="34"/>
       <c r="H11" s="29">
         <f t="shared" si="0"/>
-        <v>-16030.649999999998</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J11" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="66">
+        <v>35886.6</v>
+      </c>
+      <c r="L11" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
       <c r="F12" s="71"/>
-      <c r="G12" s="34">
-        <v>3560</v>
-      </c>
+      <c r="G12" s="34"/>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>-19590.649999999998</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J12" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="50">
+        <f>K11/5</f>
+        <v>7177.32</v>
+      </c>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="34">
-        <v>6562</v>
-      </c>
+      <c r="G13" s="34"/>
       <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>-26152.649999999998</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I13" s="54"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="65">
+        <v>1</v>
+      </c>
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="34">
-        <v>3800</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="29">
         <f t="shared" si="0"/>
-        <v>-29952.649999999998</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I14" s="54"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="34">
-        <v>5400</v>
-      </c>
+      <c r="G15" s="34"/>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>-35352.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I15" s="54"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J15" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="62">
+        <f>K11-(K12*K13)</f>
+        <v>28709.279999999999</v>
+      </c>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="34">
-        <v>7850</v>
-      </c>
+      <c r="G16" s="34"/>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>-43202.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I16" s="54"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="4"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="34">
-        <v>5922</v>
-      </c>
+      <c r="G17" s="34"/>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>-49124.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J17" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="66">
+        <f>L17*0.4%</f>
+        <v>143.54640000000001</v>
+      </c>
+      <c r="L17" s="73">
+        <v>35886.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="34">
-        <v>1764</v>
-      </c>
+      <c r="G18" s="34"/>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>-50888.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I18" s="54"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="34">
-        <v>4460</v>
-      </c>
+      <c r="G19" s="34"/>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>-55348.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I19" s="54"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="34">
-        <v>9278</v>
-      </c>
+      <c r="G20" s="34"/>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>-64626.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I20" s="54"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>25</v>
-      </c>
+    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="34">
-        <v>7062</v>
-      </c>
+      <c r="G21" s="34"/>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>-71688.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I21" s="54"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J21" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="66">
+        <v>18143.8</v>
+      </c>
+      <c r="L21" s="86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="34">
-        <v>3406</v>
-      </c>
+      <c r="G22" s="34"/>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>-75094.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I22" s="54"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="50">
+        <f>K21/5</f>
+        <v>3628.7599999999998</v>
+      </c>
+      <c r="L22" s="86"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="34">
-        <v>3848</v>
-      </c>
+      <c r="G23" s="34"/>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>-78942.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I23" s="54"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J23" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="65">
+        <v>5</v>
+      </c>
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="34">
-        <v>4320</v>
-      </c>
+      <c r="G24" s="34"/>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>-83262.649999999994</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I24" s="54"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="34">
-        <v>5982</v>
-      </c>
+      <c r="G25" s="34"/>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>-89244.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I25" s="54"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J25" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="62">
+        <f>K21-(K22*K23)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="4"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="34">
-        <v>4416</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>-93660.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I26" s="54"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="34">
-        <v>5232</v>
-      </c>
+      <c r="G27" s="34"/>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>-98892.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I27" s="54"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J27" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="66">
+        <f>L27*0.4%</f>
+        <v>72.575199999999995</v>
+      </c>
+      <c r="L27" s="73">
+        <f>18143.8</f>
+        <v>18143.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="34">
-        <v>6780</v>
-      </c>
+      <c r="G28" s="34"/>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>-105672.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I28" s="54"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="12"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="4"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="34">
-        <v>5820</v>
-      </c>
+      <c r="G29" s="34"/>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -10238,15 +10282,13 @@
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I30" s="54"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="26"/>
@@ -10254,25 +10296,42 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I31" s="54"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="58">
+        <v>16512.599999999999</v>
+      </c>
+      <c r="L31" s="86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I32" s="54"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="50">
+        <f>K31/5</f>
+        <v>3302.5199999999995</v>
+      </c>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -10282,11 +10341,18 @@
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I33" s="54"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="65">
+        <v>5</v>
+      </c>
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -10296,25 +10362,36 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I34" s="54"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="60"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="26"/>
       <c r="G35" s="34"/>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I35" s="54"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="62">
+        <f>K31-(K32*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -10324,11 +10401,16 @@
       <c r="G36" s="34"/>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I36" s="54"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -10338,12 +10420,22 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I37" s="54"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="59">
+        <f>L37*0.4%</f>
+        <v>66.050399999999996</v>
+      </c>
+      <c r="L37" s="73">
+        <v>16512.599999999999</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -10353,12 +10445,15 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I38" s="54"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="72"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -10368,11 +10463,12 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I39" s="54"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -10382,13 +10478,14 @@
       <c r="G40" s="34"/>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I40" s="54"/>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="A41" s="12"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="4"/>
@@ -10396,11 +10493,20 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I41" s="54"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="66">
+        <v>145455.79999999999</v>
+      </c>
+      <c r="L41" s="86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -10410,11 +10516,19 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I42" s="54"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="50">
+        <f>K41/20</f>
+        <v>7272.7899999999991</v>
+      </c>
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -10424,13 +10538,20 @@
       <c r="G43" s="34"/>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I43" s="54"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="65">
+        <v>20</v>
+      </c>
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="4"/>
@@ -10438,13 +10559,16 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I44" s="54"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="60"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="4"/>
@@ -10452,25 +10576,38 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I45" s="54"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="62">
+        <f>K41-(K42*K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="26"/>
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I46" s="54"/>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="20"/>
       <c r="C47" s="12"/>
@@ -10480,11 +10617,22 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I47" s="54"/>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="59">
+        <f>L47*0.4%</f>
+        <v>581.82319999999993</v>
+      </c>
+      <c r="L47" s="73">
+        <f>35853+37721.5+35956.5+35924.8</f>
+        <v>145455.79999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="20"/>
       <c r="C48" s="12"/>
@@ -10494,97 +10642,108 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I48" s="54"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="72"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="26"/>
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="26"/>
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="12"/>
       <c r="B51" s="20"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="25"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="26"/>
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="25"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="42"/>
       <c r="G52" s="34"/>
-      <c r="H52" s="80">
-        <f t="shared" si="0"/>
-        <v>-111492.65</v>
+      <c r="H52" s="29">
+        <f t="shared" si="0"/>
+        <v>40548.400399999999</v>
       </c>
       <c r="I52" s="54"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="12"/>
       <c r="B53" s="20"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="26"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="26"/>
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I53" s="54"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="12"/>
       <c r="B54" s="20"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="40"/>
+      <c r="E54" s="82"/>
       <c r="F54" s="26"/>
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="26"/>
@@ -10592,11 +10751,11 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I55" s="54"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -10606,11 +10765,11 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="12"/>
       <c r="B57" s="20"/>
       <c r="C57" s="12"/>
@@ -10620,11 +10779,11 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="12"/>
       <c r="B58" s="20"/>
       <c r="C58" s="12"/>
@@ -10634,11 +10793,11 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -10648,11 +10807,11 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -10662,11 +10821,11 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
       <c r="B61" s="20"/>
       <c r="C61" s="12"/>
@@ -10676,11 +10835,11 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="12"/>
       <c r="B62" s="20"/>
       <c r="C62" s="12"/>
@@ -10690,11 +10849,11 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="12"/>
       <c r="B63" s="20"/>
       <c r="C63" s="12"/>
@@ -10704,11 +10863,11 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="12"/>
       <c r="B64" s="20"/>
       <c r="C64" s="12"/>
@@ -10718,11 +10877,11 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="12"/>
       <c r="B65" s="20"/>
       <c r="C65" s="12"/>
@@ -10732,11 +10891,11 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="12"/>
       <c r="B66" s="20"/>
       <c r="C66" s="12"/>
@@ -10746,11 +10905,14 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I66" s="54"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>223798.19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="12"/>
       <c r="B67" s="20"/>
       <c r="C67" s="12"/>
@@ -10760,11 +10922,11 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="12"/>
       <c r="B68" s="20"/>
       <c r="C68" s="12"/>
@@ -10773,12 +10935,12 @@
       <c r="F68" s="26"/>
       <c r="G68" s="34"/>
       <c r="H68" s="29">
-        <f t="shared" si="0"/>
-        <v>-111492.65</v>
+        <f t="shared" ref="H68:H71" si="1">H67+E68+F68-G68</f>
+        <v>40548.400399999999</v>
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="12"/>
       <c r="B69" s="20"/>
       <c r="C69" s="12"/>
@@ -10787,12 +10949,12 @@
       <c r="F69" s="26"/>
       <c r="G69" s="34"/>
       <c r="H69" s="29">
-        <f t="shared" ref="H69:H71" si="1">H68+E69+F69-G69</f>
-        <v>-111492.65</v>
+        <f t="shared" si="1"/>
+        <v>40548.400399999999</v>
       </c>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -10802,11 +10964,11 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1">
       <c r="A71" s="12"/>
       <c r="B71" s="20"/>
       <c r="C71" s="12"/>
@@ -10816,11 +10978,11 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>-111492.65</v>
+        <v>40548.400399999999</v>
       </c>
       <c r="I71" s="54"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
@@ -10829,20 +10991,20 @@
       <c r="D72" s="11"/>
       <c r="E72" s="24">
         <f>SUM(E3:E71)</f>
-        <v>0</v>
+        <v>61355.5</v>
       </c>
       <c r="F72" s="39">
         <f>SUM(F3:F71)</f>
-        <v>0</v>
+        <v>216.71039999999999</v>
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>128992</v>
+        <v>126002</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="55"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="2"/>
       <c r="B73" s="13"/>
       <c r="C73" s="9"/>
@@ -10853,7 +11015,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="2"/>
       <c r="B74" s="13"/>
       <c r="C74" s="9"/>
@@ -10864,93 +11026,1546 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="H76" s="64"/>
       <c r="I76" s="64"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="H77" s="64"/>
       <c r="I77" s="64"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:9">
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:9">
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:9">
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:9">
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:9">
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:9">
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:9">
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:9">
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:9">
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:9">
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:9">
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:9">
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:9">
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:9">
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:9">
       <c r="H95"/>
       <c r="I95"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="L41:L45"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="L31:L35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="30">
+        <v>40548.400000000001</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="75">
+        <f>'[1]October 2021'!$N$15</f>
+        <v>102356.81040000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="34">
+        <v>5094</v>
+      </c>
+      <c r="H4" s="29">
+        <f t="shared" ref="H4:H67" si="0">H3+E4+F4-G4</f>
+        <v>35454.400000000001</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="77">
+        <f>H71+K15+K35+K25+K45</f>
+        <v>18481.380000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A5" s="81"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="34">
+        <v>74154</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" si="0"/>
+        <v>-38699.599999999999</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>-38699.599999999999</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="89">
+        <f>K3-K4</f>
+        <v>83875.430400000012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="81"/>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="26">
+        <f>7189.6*2</f>
+        <v>14379.2</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="81"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="81"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="12"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="66">
+        <v>35388.400000000001</v>
+      </c>
+      <c r="L11" s="86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="50">
+        <f>K11/5</f>
+        <v>7077.68</v>
+      </c>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="65">
+        <v>2</v>
+      </c>
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="62">
+        <f>K11-(K12*K13)</f>
+        <v>21233.040000000001</v>
+      </c>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="66">
+        <f>L17*0.4%</f>
+        <v>142.15536</v>
+      </c>
+      <c r="L17" s="73">
+        <v>35538.839999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="66">
+        <v>18143.8</v>
+      </c>
+      <c r="L21" s="86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="50">
+        <f>K21/5</f>
+        <v>3628.7599999999998</v>
+      </c>
+      <c r="L22" s="86"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="65">
+        <v>5</v>
+      </c>
+      <c r="L23" s="86"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="62">
+        <f>K21-(K22*K23)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="66">
+        <f>L27*0.4%</f>
+        <v>72.575199999999995</v>
+      </c>
+      <c r="L27" s="73">
+        <f>18143.8</f>
+        <v>18143.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="12"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="58">
+        <v>16512.599999999999</v>
+      </c>
+      <c r="L31" s="86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="50">
+        <f>K31/5</f>
+        <v>3302.5199999999995</v>
+      </c>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I33" s="54"/>
+      <c r="J33" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="65">
+        <v>5</v>
+      </c>
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I35" s="54"/>
+      <c r="J35" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" s="62">
+        <f>K31-(K32*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I37" s="54"/>
+      <c r="J37" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="59">
+        <f>L37*0.4%</f>
+        <v>66.050399999999996</v>
+      </c>
+      <c r="L37" s="73">
+        <v>16512.599999999999</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I38" s="54"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="72"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I39" s="54"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I40" s="54"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I41" s="54"/>
+      <c r="J41" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="66">
+        <v>35947.9</v>
+      </c>
+      <c r="L41" s="86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I42" s="54"/>
+      <c r="J42" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="50">
+        <f>K41/5</f>
+        <v>7189.58</v>
+      </c>
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I43" s="54"/>
+      <c r="J43" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="65">
+        <v>2</v>
+      </c>
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I44" s="54"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I45" s="54"/>
+      <c r="J45" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="62">
+        <f>K41-(K42*K43)</f>
+        <v>21568.74</v>
+      </c>
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I46" s="54"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I47" s="54"/>
+      <c r="J47" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="59">
+        <f>L47*0.4%</f>
+        <v>143.79160000000002</v>
+      </c>
+      <c r="L47" s="73">
+        <v>35947.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="72"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75">
+      <c r="A51" s="12"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I51" s="54"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75">
+      <c r="A53" s="12"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75">
+      <c r="A54" s="12"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="12"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="12"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I57" s="54"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="12"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I58" s="54"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I59" s="54"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I60" s="54"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="12"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I61" s="54"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="12"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I62" s="54"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="12"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="12"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I64" s="54"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="12"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I65" s="54"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="12"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I66" s="54"/>
+      <c r="J66">
+        <v>223798.19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="12"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="29">
+        <f t="shared" si="0"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I67" s="54"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="12"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="29">
+        <f t="shared" ref="H68:H71" si="1">H67+E68+F68-G68</f>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I68" s="54"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="12"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="29">
+        <f t="shared" si="1"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I69" s="54"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="29">
+        <f t="shared" si="1"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="29">
+        <f t="shared" si="1"/>
+        <v>-24320.399999999998</v>
+      </c>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="24">
+        <f>SUM(E3:E71)</f>
+        <v>14379.2</v>
+      </c>
+      <c r="F72" s="39">
+        <f>SUM(F3:F71)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="35">
+        <f>SUM(G3:G71)</f>
+        <v>79248</v>
+      </c>
+      <c r="H72" s="30"/>
+      <c r="I72" s="55"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="2"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="67"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="2"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="8:9">
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="8:9">
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="8:9">
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="8:9">
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="8:9">
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="8:9">
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="8:9">
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="8:9">
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="8:9">
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="8:9">
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="8:9">
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="8:9">
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="8:9">
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="8:9">
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L41:L45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="L31:L35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BLENDED TEA STOCK REGISTER 2021-22.xlsx
+++ b/BLENDED TEA STOCK REGISTER 2021-22.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="284">
   <si>
     <t>PARTICULAR</t>
   </si>
@@ -850,6 +850,45 @@
   </si>
   <si>
     <t>07.12.2021</t>
+  </si>
+  <si>
+    <t>PART NO. 4 &amp; 5</t>
+  </si>
+  <si>
+    <t>08.12.2021</t>
+  </si>
+  <si>
+    <t>09.12.2021</t>
+  </si>
+  <si>
+    <t>10.12.2021</t>
+  </si>
+  <si>
+    <t>Gpl -03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part No. 4 </t>
+  </si>
+  <si>
+    <t>11.12.2021</t>
+  </si>
+  <si>
+    <t>Part No. 3</t>
+  </si>
+  <si>
+    <t>13.12.2021</t>
+  </si>
+  <si>
+    <t>Part No. 5</t>
+  </si>
+  <si>
+    <t>14.12.2021</t>
+  </si>
+  <si>
+    <t>Part No. 4</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1896,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1891,13 +1959,8 @@
       <sheetName val="December 2021"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="6">
-          <cell r="K6">
-            <v>454804.3</v>
-          </cell>
-        </row>
         <row r="15">
           <cell r="N15">
             <v>43031.329999999994</v>
@@ -1905,18 +1968,13 @@
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="6">
-          <cell r="K6">
-            <v>326076.09999999998</v>
-          </cell>
-        </row>
         <row r="15">
           <cell r="N15">
             <v>65372.87</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="15">
           <cell r="N15">
@@ -1924,13 +1982,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="6">
-          <cell r="K6">
-            <v>149997.5</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="15">
           <cell r="N15">
@@ -1938,8 +1990,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="15">
+          <cell r="N15">
+            <v>30031.840000000004</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13644,7 +13702,7 @@
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15482,7 +15540,7 @@
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15516,7 +15574,7 @@
       <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -15537,13 +15595,13 @@
       <c r="G2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="54" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="47"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="19" t="s">
         <v>261</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -15554,7 +15612,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="55"/>
       <c r="G3" s="51"/>
-      <c r="H3" s="139">
+      <c r="H3" s="55">
         <v>40632.25</v>
       </c>
       <c r="I3" s="48"/>
@@ -15562,16 +15620,16 @@
         <v>9</v>
       </c>
       <c r="K3" s="85">
-        <f>'[1]October 2021'!$N$15</f>
-        <v>43368.410400000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A4" s="18" t="s">
+        <f>'[1]December 2021'!$N$15</f>
+        <v>30031.840000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="12" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -15590,11 +15648,11 @@
       </c>
       <c r="K4" s="87">
         <f>H71+K15+K35+K25+K45</f>
-        <v>97467.77</v>
+        <v>62035.410000000011</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="12" t="s">
         <v>264</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -15623,8 +15681,8 @@
         <v>21812.1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>264</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -15647,11 +15705,11 @@
       </c>
       <c r="K6" s="200">
         <f>K3-K4</f>
-        <v>-54099.359599999996</v>
+        <v>-32003.570000000007</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="12" t="s">
         <v>265</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -15661,62 +15719,59 @@
         <v>211</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="E7" s="26">
-        <v>6883.8</v>
+        <f>6883.8*2</f>
+        <v>13767.6</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="34"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>44431.950000000004</v>
+        <v>51315.75</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="199"/>
       <c r="K7" s="201"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="12" t="s">
         <v>265</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="34">
+      <c r="F8" s="26">
+        <v>68.83</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>51384.58</v>
+      </c>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="34">
         <v>6984</v>
       </c>
-      <c r="H8" s="29">
-        <f t="shared" si="0"/>
-        <v>37447.950000000004</v>
-      </c>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7216.9</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="34"/>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>44664.850000000006</v>
+        <v>44400.58</v>
       </c>
       <c r="I9" s="48"/>
     </row>
@@ -15724,19 +15779,23 @@
       <c r="A10" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7216.9</v>
+      </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="34">
-        <v>6520</v>
-      </c>
+      <c r="G10" s="34"/>
       <c r="H10" s="29">
         <f t="shared" si="0"/>
-        <v>38144.850000000006</v>
+        <v>51617.48</v>
       </c>
       <c r="I10" s="48"/>
       <c r="N10" s="180" t="s">
@@ -15745,25 +15804,21 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="26">
-        <v>7223.9</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="34">
+        <v>6520</v>
+      </c>
       <c r="H11" s="29">
         <f t="shared" si="0"/>
-        <v>45368.750000000007</v>
+        <v>45097.48</v>
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="70" t="s">
@@ -15784,18 +15839,22 @@
         <v>269</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="34">
-        <v>2682</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="26">
+        <v>7223.9</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>42686.750000000007</v>
+        <v>52321.380000000005</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="72" t="s">
@@ -15810,47 +15869,49 @@
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="26">
-        <v>7216.9</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="34"/>
+        <v>263</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="34">
+        <v>2704</v>
+      </c>
       <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>49617.380000000005</v>
       </c>
       <c r="I13" s="48"/>
       <c r="J13" s="72" t="s">
         <v>60</v>
       </c>
       <c r="K13" s="74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" s="195"/>
       <c r="N13" s="180"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="34">
+        <v>6864</v>
+      </c>
       <c r="H14" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>42753.380000000005</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="75"/>
@@ -15859,16 +15920,26 @@
       <c r="N14" s="180"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="26">
+        <v>7216.9</v>
+      </c>
       <c r="F15" s="26"/>
       <c r="G15" s="34"/>
       <c r="H15" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>49970.280000000006</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="76" t="s">
@@ -15876,22 +15947,28 @@
       </c>
       <c r="K15" s="66">
         <f>K11-(K12*K13)</f>
-        <v>14433.800000000003</v>
+        <v>0</v>
       </c>
       <c r="L15" s="195"/>
       <c r="N15" s="180"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="34">
+        <v>2364</v>
+      </c>
       <c r="H16" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>47606.280000000006</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="77"/>
@@ -15902,16 +15979,22 @@
       <c r="N16" s="180"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="34">
+        <v>3886</v>
+      </c>
       <c r="H17" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>43720.280000000006</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="79" t="s">
@@ -15926,16 +16009,26 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="26">
+        <v>7223.9</v>
+      </c>
       <c r="F18" s="26"/>
       <c r="G18" s="34"/>
       <c r="H18" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>50944.180000000008</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="81"/>
@@ -15943,44 +16036,70 @@
       <c r="L18" s="83"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="34"/>
+      <c r="G19" s="34">
+        <v>6384</v>
+      </c>
       <c r="H19" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>44560.180000000008</v>
       </c>
       <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="26">
+        <v>4008.4</v>
+      </c>
       <c r="F20" s="26"/>
       <c r="G20" s="34"/>
       <c r="H20" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>48568.580000000009</v>
       </c>
       <c r="I20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="26">
+        <v>7216.9</v>
+      </c>
       <c r="F21" s="26"/>
       <c r="G21" s="34"/>
       <c r="H21" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>55785.48000000001</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="90" t="s">
@@ -15994,16 +16113,22 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="34"/>
+      <c r="G22" s="34">
+        <v>5832</v>
+      </c>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>49953.48000000001</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="92" t="s">
@@ -16016,37 +16141,53 @@
       <c r="L22" s="197"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="26">
+        <v>7216.9</v>
+      </c>
       <c r="F23" s="26"/>
       <c r="G23" s="34"/>
       <c r="H23" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>57170.380000000012</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="92" t="s">
         <v>60</v>
       </c>
       <c r="K23" s="94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="197"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26">
+        <v>144.34</v>
+      </c>
       <c r="G24" s="34"/>
       <c r="H24" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>57314.720000000008</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="95"/>
@@ -16054,16 +16195,22 @@
       <c r="L24" s="197"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="34"/>
+      <c r="G25" s="34">
+        <v>4488</v>
+      </c>
       <c r="H25" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>52826.720000000008</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="97" t="s">
@@ -16071,21 +16218,27 @@
       </c>
       <c r="K25" s="98">
         <f>K21-(K22*K23)</f>
-        <v>8016.84</v>
+        <v>4008.42</v>
       </c>
       <c r="L25" s="197"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="34">
+        <v>4550</v>
+      </c>
       <c r="H26" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>48276.720000000008</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="99"/>
@@ -16095,16 +16248,26 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="26">
+        <v>7223.9</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="34"/>
       <c r="H27" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>55500.62000000001</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="102" t="s">
@@ -16119,16 +16282,22 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="4"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="34">
+        <v>4842</v>
+      </c>
       <c r="H28" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>50658.62000000001</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="104"/>
@@ -16136,30 +16305,46 @@
       <c r="L28" s="106"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="12"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="26">
+        <v>7223.9</v>
+      </c>
       <c r="F29" s="26"/>
       <c r="G29" s="34"/>
       <c r="H29" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>57882.520000000011</v>
       </c>
       <c r="I29" s="48"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="26"/>
+      <c r="F30" s="26">
+        <v>144.47</v>
+      </c>
       <c r="G30" s="34"/>
       <c r="H30" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I30" s="48"/>
     </row>
@@ -16173,7 +16358,7 @@
       <c r="G31" s="34"/>
       <c r="H31" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I31" s="48"/>
       <c r="J31" s="113" t="s">
@@ -16196,7 +16381,7 @@
       <c r="G32" s="34"/>
       <c r="H32" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I32" s="48"/>
       <c r="J32" s="115" t="s">
@@ -16218,14 +16403,14 @@
       <c r="G33" s="34"/>
       <c r="H33" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="115" t="s">
         <v>60</v>
       </c>
       <c r="K33" s="110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L33" s="187"/>
     </row>
@@ -16239,7 +16424,7 @@
       <c r="G34" s="34"/>
       <c r="H34" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="116"/>
@@ -16256,7 +16441,7 @@
       <c r="G35" s="34"/>
       <c r="H35" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="117" t="s">
@@ -16264,7 +16449,7 @@
       </c>
       <c r="K35" s="108">
         <f>K31-(K32*K33)</f>
-        <v>3441.8999999999996</v>
+        <v>0</v>
       </c>
       <c r="L35" s="187"/>
     </row>
@@ -16278,7 +16463,7 @@
       <c r="G36" s="34"/>
       <c r="H36" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="118"/>
@@ -16297,7 +16482,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="120" t="s">
@@ -16322,7 +16507,7 @@
       <c r="G38" s="34"/>
       <c r="H38" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="121"/>
@@ -16340,7 +16525,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I39" s="48"/>
       <c r="K39" s="10"/>
@@ -16355,7 +16540,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I40" s="48"/>
       <c r="K40" s="10"/>
@@ -16370,7 +16555,7 @@
       <c r="G41" s="34"/>
       <c r="H41" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="124" t="s">
@@ -16393,7 +16578,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="126" t="s">
@@ -16415,14 +16600,14 @@
       <c r="G43" s="34"/>
       <c r="H43" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="126" t="s">
         <v>60</v>
       </c>
       <c r="K43" s="128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L43" s="189"/>
     </row>
@@ -16436,7 +16621,7 @@
       <c r="G44" s="34"/>
       <c r="H44" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I44" s="48"/>
       <c r="J44" s="129"/>
@@ -16453,7 +16638,7 @@
       <c r="G45" s="34"/>
       <c r="H45" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="130" t="s">
@@ -16461,7 +16646,7 @@
       </c>
       <c r="K45" s="68">
         <f>K41-(K42*K43)</f>
-        <v>21671.58</v>
+        <v>0</v>
       </c>
       <c r="L45" s="189"/>
     </row>
@@ -16475,7 +16660,7 @@
       <c r="G46" s="34"/>
       <c r="H46" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I46" s="48"/>
       <c r="J46" s="131"/>
@@ -16494,7 +16679,7 @@
       <c r="G47" s="34"/>
       <c r="H47" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="134" t="s">
@@ -16518,7 +16703,7 @@
       <c r="G48" s="34"/>
       <c r="H48" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I48" s="48"/>
       <c r="J48" s="136"/>
@@ -16535,7 +16720,7 @@
       <c r="G49" s="34"/>
       <c r="H49" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I49" s="48"/>
     </row>
@@ -16549,7 +16734,7 @@
       <c r="G50" s="34"/>
       <c r="H50" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I50" s="48"/>
     </row>
@@ -16563,7 +16748,7 @@
       <c r="G51" s="34"/>
       <c r="H51" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I51" s="48"/>
     </row>
@@ -16577,7 +16762,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I52" s="48"/>
       <c r="J52" s="50"/>
@@ -16595,7 +16780,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I53" s="48"/>
       <c r="J53" s="50"/>
@@ -16613,7 +16798,7 @@
       <c r="G54" s="34"/>
       <c r="H54" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I54" s="48"/>
     </row>
@@ -16627,7 +16812,7 @@
       <c r="G55" s="34"/>
       <c r="H55" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I55" s="48"/>
     </row>
@@ -16641,7 +16826,7 @@
       <c r="G56" s="34"/>
       <c r="H56" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I56" s="48"/>
     </row>
@@ -16655,7 +16840,7 @@
       <c r="G57" s="34"/>
       <c r="H57" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I57" s="48"/>
     </row>
@@ -16669,7 +16854,7 @@
       <c r="G58" s="34"/>
       <c r="H58" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I58" s="48"/>
     </row>
@@ -16683,7 +16868,7 @@
       <c r="G59" s="34"/>
       <c r="H59" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I59" s="48"/>
     </row>
@@ -16697,7 +16882,7 @@
       <c r="G60" s="34"/>
       <c r="H60" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I60" s="48"/>
     </row>
@@ -16711,7 +16896,7 @@
       <c r="G61" s="34"/>
       <c r="H61" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I61" s="48"/>
     </row>
@@ -16725,7 +16910,7 @@
       <c r="G62" s="34"/>
       <c r="H62" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I62" s="48"/>
     </row>
@@ -16739,7 +16924,7 @@
       <c r="G63" s="34"/>
       <c r="H63" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I63" s="48"/>
     </row>
@@ -16753,7 +16938,7 @@
       <c r="G64" s="34"/>
       <c r="H64" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I64" s="48"/>
     </row>
@@ -16767,7 +16952,7 @@
       <c r="G65" s="34"/>
       <c r="H65" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I65" s="48"/>
     </row>
@@ -16781,7 +16966,7 @@
       <c r="G66" s="34"/>
       <c r="H66" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I66" s="48"/>
       <c r="J66">
@@ -16798,7 +16983,7 @@
       <c r="G67" s="34"/>
       <c r="H67" s="29">
         <f t="shared" si="0"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I67" s="48"/>
     </row>
@@ -16812,7 +16997,7 @@
       <c r="G68" s="34"/>
       <c r="H68" s="29">
         <f t="shared" ref="H68:H71" si="1">H67+E68+F68-G68</f>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I68" s="48"/>
     </row>
@@ -16826,7 +17011,7 @@
       <c r="G69" s="34"/>
       <c r="H69" s="29">
         <f t="shared" si="1"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I69" s="48"/>
     </row>
@@ -16840,7 +17025,7 @@
       <c r="G70" s="34"/>
       <c r="H70" s="29">
         <f t="shared" si="1"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I70" s="48"/>
     </row>
@@ -16854,7 +17039,7 @@
       <c r="G71" s="34"/>
       <c r="H71" s="29">
         <f t="shared" si="1"/>
-        <v>49903.650000000009</v>
+        <v>58026.990000000013</v>
       </c>
       <c r="I71" s="48"/>
     </row>
@@ -16867,15 +17052,15 @@
       <c r="D72" s="11"/>
       <c r="E72" s="24">
         <f>SUM(E3:E71)</f>
-        <v>35765.4</v>
+        <v>82763.099999999991</v>
       </c>
       <c r="F72" s="39">
         <f>SUM(F3:F71)</f>
-        <v>0</v>
+        <v>357.64</v>
       </c>
       <c r="G72" s="35">
         <f>SUM(G3:G71)</f>
-        <v>26494</v>
+        <v>65726</v>
       </c>
       <c r="H72" s="30"/>
       <c r="I72" s="49"/>
@@ -16996,6 +17181,26 @@
     <mergeCell ref="L21:L25"/>
     <mergeCell ref="L31:L35"/>
   </mergeCells>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Issued For Production">
+      <formula>NOT(ISERROR(SEARCH("Issued For Production",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Issued For Production">
+      <formula>NOT(ISERROR(SEARCH("Issued For Production",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Issued For Production">
+      <formula>NOT(ISERROR(SEARCH("Issued For Production",D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Issued For Production">
+      <formula>NOT(ISERROR(SEARCH("Issued For Production",D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N10" r:id="rId1"/>
     <hyperlink ref="N11" r:id="rId2"/>
